--- a/BackTest/2020-01-23 BackTest MXC.xlsx
+++ b/BackTest/2020-01-23 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="C2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="D2" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="E2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="F2" t="n">
-        <v>610915.6381</v>
+        <v>320000</v>
       </c>
       <c r="G2" t="n">
-        <v>1.806600000000004</v>
+        <v>1.807183333333337</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.79</v>
+        <v>1.779</v>
       </c>
       <c r="C3" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="D3" t="n">
-        <v>1.79</v>
+        <v>1.779</v>
       </c>
       <c r="E3" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="F3" t="n">
-        <v>62941.529</v>
+        <v>610915.6381</v>
       </c>
       <c r="G3" t="n">
-        <v>1.80596666666667</v>
+        <v>1.806600000000004</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>1.79</v>
       </c>
       <c r="C4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="E4" t="n">
         <v>1.79</v>
       </c>
       <c r="F4" t="n">
-        <v>1200384.6871</v>
+        <v>62941.529</v>
       </c>
       <c r="G4" t="n">
-        <v>1.806000000000004</v>
+        <v>1.80596666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="C5" t="n">
         <v>1.8</v>
@@ -547,13 +547,13 @@
         <v>1.8</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="F5" t="n">
-        <v>17337.7656</v>
+        <v>1200384.6871</v>
       </c>
       <c r="G5" t="n">
-        <v>1.805833333333337</v>
+        <v>1.806000000000004</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.812</v>
+        <v>1.8</v>
       </c>
       <c r="C6" t="n">
-        <v>1.812</v>
+        <v>1.8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.812</v>
+        <v>1.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.812</v>
+        <v>1.8</v>
       </c>
       <c r="F6" t="n">
-        <v>276</v>
+        <v>17337.7656</v>
       </c>
       <c r="G6" t="n">
-        <v>1.80586666666667</v>
+        <v>1.805833333333337</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,35 +608,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.804</v>
+        <v>1.812</v>
       </c>
       <c r="C7" t="n">
-        <v>1.804</v>
+        <v>1.812</v>
       </c>
       <c r="D7" t="n">
-        <v>1.804</v>
+        <v>1.812</v>
       </c>
       <c r="E7" t="n">
-        <v>1.804</v>
+        <v>1.812</v>
       </c>
       <c r="F7" t="n">
-        <v>167000</v>
+        <v>276</v>
       </c>
       <c r="G7" t="n">
-        <v>1.80561666666667</v>
+        <v>1.80586666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.812</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -647,40 +643,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.811</v>
+        <v>1.804</v>
       </c>
       <c r="C8" t="n">
-        <v>1.811</v>
+        <v>1.804</v>
       </c>
       <c r="D8" t="n">
-        <v>1.811</v>
+        <v>1.804</v>
       </c>
       <c r="E8" t="n">
-        <v>1.811</v>
+        <v>1.804</v>
       </c>
       <c r="F8" t="n">
-        <v>290</v>
+        <v>167000</v>
       </c>
       <c r="G8" t="n">
-        <v>1.80571666666667</v>
+        <v>1.80561666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,40 +678,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.804</v>
+        <v>1.811</v>
       </c>
       <c r="C9" t="n">
-        <v>1.804</v>
+        <v>1.811</v>
       </c>
       <c r="D9" t="n">
-        <v>1.804</v>
+        <v>1.811</v>
       </c>
       <c r="E9" t="n">
-        <v>1.804</v>
+        <v>1.811</v>
       </c>
       <c r="F9" t="n">
-        <v>246.468</v>
+        <v>290</v>
       </c>
       <c r="G9" t="n">
-        <v>1.806433333333337</v>
+        <v>1.80571666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -733,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.791</v>
+        <v>1.804</v>
       </c>
       <c r="C10" t="n">
-        <v>1.791</v>
+        <v>1.804</v>
       </c>
       <c r="D10" t="n">
-        <v>1.791</v>
+        <v>1.804</v>
       </c>
       <c r="E10" t="n">
-        <v>1.791</v>
+        <v>1.804</v>
       </c>
       <c r="F10" t="n">
-        <v>795.532</v>
+        <v>246.468</v>
       </c>
       <c r="G10" t="n">
-        <v>1.805983333333337</v>
+        <v>1.806433333333337</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -768,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="C11" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="D11" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="E11" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="F11" t="n">
-        <v>300</v>
+        <v>795.532</v>
       </c>
       <c r="G11" t="n">
-        <v>1.806433333333337</v>
+        <v>1.805983333333337</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -803,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.801</v>
+        <v>1.811</v>
       </c>
       <c r="C12" t="n">
-        <v>1.8</v>
+        <v>1.811</v>
       </c>
       <c r="D12" t="n">
-        <v>1.801</v>
+        <v>1.811</v>
       </c>
       <c r="E12" t="n">
-        <v>1.8</v>
+        <v>1.811</v>
       </c>
       <c r="F12" t="n">
-        <v>80000</v>
+        <v>300</v>
       </c>
       <c r="G12" t="n">
-        <v>1.806700000000003</v>
+        <v>1.806433333333337</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -838,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="C13" t="n">
         <v>1.8</v>
       </c>
       <c r="D13" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="E13" t="n">
         <v>1.8</v>
       </c>
       <c r="F13" t="n">
-        <v>1776541.4504</v>
+        <v>80000</v>
       </c>
       <c r="G13" t="n">
-        <v>1.806900000000003</v>
+        <v>1.806700000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -885,10 +865,10 @@
         <v>1.8</v>
       </c>
       <c r="F14" t="n">
-        <v>31473.6082</v>
+        <v>1776541.4504</v>
       </c>
       <c r="G14" t="n">
-        <v>1.806633333333337</v>
+        <v>1.806900000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -908,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.791</v>
+        <v>1.8</v>
       </c>
       <c r="C15" t="n">
-        <v>1.791</v>
+        <v>1.8</v>
       </c>
       <c r="D15" t="n">
-        <v>1.791</v>
+        <v>1.8</v>
       </c>
       <c r="E15" t="n">
-        <v>1.791</v>
+        <v>1.8</v>
       </c>
       <c r="F15" t="n">
         <v>31473.6082</v>
       </c>
       <c r="G15" t="n">
-        <v>1.80631666666667</v>
+        <v>1.806633333333337</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -943,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="C16" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="D16" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="E16" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="F16" t="n">
-        <v>280</v>
+        <v>31473.6082</v>
       </c>
       <c r="G16" t="n">
-        <v>1.806333333333337</v>
+        <v>1.80631666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.808</v>
+        <v>1.811</v>
       </c>
       <c r="C17" t="n">
-        <v>1.79</v>
+        <v>1.811</v>
       </c>
       <c r="D17" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="E17" t="n">
-        <v>1.79</v>
+        <v>1.811</v>
       </c>
       <c r="F17" t="n">
-        <v>2717087.8368</v>
+        <v>280</v>
       </c>
       <c r="G17" t="n">
-        <v>1.805700000000003</v>
+        <v>1.806333333333337</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1013,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.8</v>
+        <v>1.808</v>
       </c>
       <c r="C18" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="D18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="E18" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="F18" t="n">
-        <v>280</v>
+        <v>2717087.8368</v>
       </c>
       <c r="G18" t="n">
-        <v>1.805533333333337</v>
+        <v>1.805700000000003</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1051,19 +1031,19 @@
         <v>1.8</v>
       </c>
       <c r="C19" t="n">
-        <v>1.811</v>
+        <v>1.8</v>
       </c>
       <c r="D19" t="n">
-        <v>1.811</v>
+        <v>1.8</v>
       </c>
       <c r="E19" t="n">
         <v>1.8</v>
       </c>
       <c r="F19" t="n">
-        <v>4199.2405</v>
+        <v>280</v>
       </c>
       <c r="G19" t="n">
-        <v>1.80546666666667</v>
+        <v>1.805533333333337</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1083,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.811</v>
+        <v>1.8</v>
       </c>
       <c r="C20" t="n">
         <v>1.811</v>
@@ -1092,13 +1072,13 @@
         <v>1.811</v>
       </c>
       <c r="E20" t="n">
-        <v>1.811</v>
+        <v>1.8</v>
       </c>
       <c r="F20" t="n">
-        <v>932.79</v>
+        <v>4199.2405</v>
       </c>
       <c r="G20" t="n">
-        <v>1.805400000000003</v>
+        <v>1.80546666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1118,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.812</v>
+        <v>1.811</v>
       </c>
       <c r="C21" t="n">
-        <v>1.812</v>
+        <v>1.811</v>
       </c>
       <c r="D21" t="n">
-        <v>1.812</v>
+        <v>1.811</v>
       </c>
       <c r="E21" t="n">
-        <v>1.812</v>
+        <v>1.811</v>
       </c>
       <c r="F21" t="n">
-        <v>300</v>
+        <v>932.79</v>
       </c>
       <c r="G21" t="n">
-        <v>1.805350000000004</v>
+        <v>1.805400000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1153,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.791</v>
+        <v>1.812</v>
       </c>
       <c r="C22" t="n">
         <v>1.812</v>
@@ -1162,13 +1142,13 @@
         <v>1.812</v>
       </c>
       <c r="E22" t="n">
-        <v>1.791</v>
+        <v>1.812</v>
       </c>
       <c r="F22" t="n">
-        <v>320654.4544</v>
+        <v>300</v>
       </c>
       <c r="G22" t="n">
-        <v>1.805800000000004</v>
+        <v>1.805350000000004</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1188,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.81</v>
+        <v>1.791</v>
       </c>
       <c r="C23" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="D23" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="E23" t="n">
-        <v>1.81</v>
+        <v>1.791</v>
       </c>
       <c r="F23" t="n">
-        <v>67253.58930000001</v>
+        <v>320654.4544</v>
       </c>
       <c r="G23" t="n">
-        <v>1.80571666666667</v>
+        <v>1.805800000000004</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1235,10 +1215,10 @@
         <v>1.81</v>
       </c>
       <c r="F24" t="n">
-        <v>36765.1117</v>
+        <v>67253.58930000001</v>
       </c>
       <c r="G24" t="n">
-        <v>1.806183333333337</v>
+        <v>1.80571666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1261,19 +1241,19 @@
         <v>1.81</v>
       </c>
       <c r="C25" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="D25" t="n">
         <v>1.81</v>
       </c>
       <c r="E25" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="F25" t="n">
-        <v>635.0964</v>
+        <v>36765.1117</v>
       </c>
       <c r="G25" t="n">
-        <v>1.805800000000004</v>
+        <v>1.806183333333337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1296,19 +1276,19 @@
         <v>1.81</v>
       </c>
       <c r="C26" t="n">
-        <v>1.81</v>
+        <v>1.791</v>
       </c>
       <c r="D26" t="n">
         <v>1.81</v>
       </c>
       <c r="E26" t="n">
-        <v>1.81</v>
+        <v>1.791</v>
       </c>
       <c r="F26" t="n">
-        <v>274</v>
+        <v>635.0964</v>
       </c>
       <c r="G26" t="n">
-        <v>1.80581666666667</v>
+        <v>1.805800000000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1328,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="C27" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="D27" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="E27" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="F27" t="n">
-        <v>11524.2455</v>
+        <v>274</v>
       </c>
       <c r="G27" t="n">
-        <v>1.804850000000003</v>
+        <v>1.80581666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.809</v>
+        <v>1.791</v>
       </c>
       <c r="C28" t="n">
-        <v>1.809</v>
+        <v>1.791</v>
       </c>
       <c r="D28" t="n">
-        <v>1.809</v>
+        <v>1.791</v>
       </c>
       <c r="E28" t="n">
-        <v>1.809</v>
+        <v>1.791</v>
       </c>
       <c r="F28" t="n">
-        <v>290</v>
+        <v>11524.2455</v>
       </c>
       <c r="G28" t="n">
-        <v>1.804183333333337</v>
+        <v>1.804850000000003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,10 +1390,10 @@
         <v>1.809</v>
       </c>
       <c r="F29" t="n">
-        <v>29657.1444</v>
+        <v>290</v>
       </c>
       <c r="G29" t="n">
-        <v>1.804250000000003</v>
+        <v>1.804183333333337</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1433,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.791</v>
+        <v>1.809</v>
       </c>
       <c r="C30" t="n">
-        <v>1.79</v>
+        <v>1.809</v>
       </c>
       <c r="D30" t="n">
-        <v>1.791</v>
+        <v>1.809</v>
       </c>
       <c r="E30" t="n">
-        <v>1.79</v>
+        <v>1.809</v>
       </c>
       <c r="F30" t="n">
-        <v>115554.7649</v>
+        <v>29657.1444</v>
       </c>
       <c r="G30" t="n">
-        <v>1.80391666666667</v>
+        <v>1.804250000000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1468,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.806</v>
+        <v>1.791</v>
       </c>
       <c r="C31" t="n">
-        <v>1.806</v>
+        <v>1.79</v>
       </c>
       <c r="D31" t="n">
-        <v>1.806</v>
+        <v>1.791</v>
       </c>
       <c r="E31" t="n">
-        <v>1.806</v>
+        <v>1.79</v>
       </c>
       <c r="F31" t="n">
-        <v>216998</v>
+        <v>115554.7649</v>
       </c>
       <c r="G31" t="n">
-        <v>1.803683333333337</v>
+        <v>1.80391666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,19 +1486,19 @@
         <v>1.806</v>
       </c>
       <c r="C32" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="D32" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="E32" t="n">
         <v>1.806</v>
       </c>
       <c r="F32" t="n">
-        <v>116701</v>
+        <v>216998</v>
       </c>
       <c r="G32" t="n">
-        <v>1.80371666666667</v>
+        <v>1.803683333333337</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1541,19 +1521,19 @@
         <v>1.806</v>
       </c>
       <c r="C33" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="D33" t="n">
-        <v>1.806</v>
+        <v>1.807</v>
       </c>
       <c r="E33" t="n">
         <v>1.806</v>
       </c>
       <c r="F33" t="n">
-        <v>120000</v>
+        <v>116701</v>
       </c>
       <c r="G33" t="n">
-        <v>1.803733333333337</v>
+        <v>1.80371666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1585,10 +1565,10 @@
         <v>1.806</v>
       </c>
       <c r="F34" t="n">
-        <v>29667</v>
+        <v>120000</v>
       </c>
       <c r="G34" t="n">
-        <v>1.80351666666667</v>
+        <v>1.803733333333337</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1620,10 +1600,10 @@
         <v>1.806</v>
       </c>
       <c r="F35" t="n">
-        <v>828.4707</v>
+        <v>29667</v>
       </c>
       <c r="G35" t="n">
-        <v>1.803300000000003</v>
+        <v>1.80351666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1655,10 +1635,10 @@
         <v>1.806</v>
       </c>
       <c r="F36" t="n">
-        <v>656.7006</v>
+        <v>828.4707</v>
       </c>
       <c r="G36" t="n">
-        <v>1.80261666666667</v>
+        <v>1.803300000000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1690,10 +1670,10 @@
         <v>1.806</v>
       </c>
       <c r="F37" t="n">
-        <v>19208.0338</v>
+        <v>656.7006</v>
       </c>
       <c r="G37" t="n">
-        <v>1.80191666666667</v>
+        <v>1.80261666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1725,10 +1705,10 @@
         <v>1.806</v>
       </c>
       <c r="F38" t="n">
-        <v>1626</v>
+        <v>19208.0338</v>
       </c>
       <c r="G38" t="n">
-        <v>1.801200000000003</v>
+        <v>1.80191666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1748,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="C39" t="n">
         <v>1.806</v>
@@ -1757,13 +1737,13 @@
         <v>1.806</v>
       </c>
       <c r="E39" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="F39" t="n">
-        <v>143455.7792</v>
+        <v>1626</v>
       </c>
       <c r="G39" t="n">
-        <v>1.801516666666669</v>
+        <v>1.801200000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1783,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="C40" t="n">
         <v>1.806</v>
       </c>
-      <c r="C40" t="n">
-        <v>1.807</v>
-      </c>
       <c r="D40" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="E40" t="n">
-        <v>1.806</v>
+        <v>1.791</v>
       </c>
       <c r="F40" t="n">
-        <v>80000</v>
+        <v>143455.7792</v>
       </c>
       <c r="G40" t="n">
-        <v>1.801850000000003</v>
+        <v>1.801516666666669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1818,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C41" t="n">
         <v>1.807</v>
       </c>
-      <c r="C41" t="n">
-        <v>1.812</v>
-      </c>
       <c r="D41" t="n">
-        <v>1.812</v>
+        <v>1.807</v>
       </c>
       <c r="E41" t="n">
-        <v>1.807</v>
+        <v>1.806</v>
       </c>
       <c r="F41" t="n">
-        <v>205161.0894</v>
+        <v>80000</v>
       </c>
       <c r="G41" t="n">
-        <v>1.802266666666669</v>
+        <v>1.801850000000003</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1853,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.827</v>
+        <v>1.807</v>
       </c>
       <c r="C42" t="n">
-        <v>1.827</v>
+        <v>1.812</v>
       </c>
       <c r="D42" t="n">
-        <v>1.827</v>
+        <v>1.812</v>
       </c>
       <c r="E42" t="n">
-        <v>1.827</v>
+        <v>1.807</v>
       </c>
       <c r="F42" t="n">
-        <v>290</v>
+        <v>205161.0894</v>
       </c>
       <c r="G42" t="n">
-        <v>1.802933333333336</v>
+        <v>1.802266666666669</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1888,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.826</v>
+        <v>1.827</v>
       </c>
       <c r="C43" t="n">
-        <v>1.842</v>
+        <v>1.827</v>
       </c>
       <c r="D43" t="n">
-        <v>1.842</v>
+        <v>1.827</v>
       </c>
       <c r="E43" t="n">
-        <v>1.826</v>
+        <v>1.827</v>
       </c>
       <c r="F43" t="n">
-        <v>180808.5</v>
+        <v>290</v>
       </c>
       <c r="G43" t="n">
-        <v>1.803916666666669</v>
+        <v>1.802933333333336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1923,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.842</v>
+        <v>1.826</v>
       </c>
       <c r="C44" t="n">
         <v>1.842</v>
@@ -1932,13 +1912,13 @@
         <v>1.842</v>
       </c>
       <c r="E44" t="n">
-        <v>1.842</v>
+        <v>1.826</v>
       </c>
       <c r="F44" t="n">
-        <v>76510</v>
+        <v>180808.5</v>
       </c>
       <c r="G44" t="n">
-        <v>1.804400000000002</v>
+        <v>1.803916666666669</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1961,19 +1941,19 @@
         <v>1.842</v>
       </c>
       <c r="C45" t="n">
-        <v>1.846</v>
+        <v>1.842</v>
       </c>
       <c r="D45" t="n">
-        <v>1.846</v>
+        <v>1.842</v>
       </c>
       <c r="E45" t="n">
         <v>1.842</v>
       </c>
       <c r="F45" t="n">
-        <v>621874.5609</v>
+        <v>76510</v>
       </c>
       <c r="G45" t="n">
-        <v>1.804950000000002</v>
+        <v>1.804400000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1993,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.847</v>
+        <v>1.842</v>
       </c>
       <c r="C46" t="n">
-        <v>1.847</v>
+        <v>1.846</v>
       </c>
       <c r="D46" t="n">
-        <v>1.847</v>
+        <v>1.846</v>
       </c>
       <c r="E46" t="n">
-        <v>1.847</v>
+        <v>1.842</v>
       </c>
       <c r="F46" t="n">
-        <v>167504.1875</v>
+        <v>621874.5609</v>
       </c>
       <c r="G46" t="n">
-        <v>1.805500000000002</v>
+        <v>1.804950000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2028,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.86</v>
+        <v>1.847</v>
       </c>
       <c r="C47" t="n">
-        <v>1.887</v>
+        <v>1.847</v>
       </c>
       <c r="D47" t="n">
-        <v>1.887</v>
+        <v>1.847</v>
       </c>
       <c r="E47" t="n">
-        <v>1.86</v>
+        <v>1.847</v>
       </c>
       <c r="F47" t="n">
-        <v>841304.5742</v>
+        <v>167504.1875</v>
       </c>
       <c r="G47" t="n">
-        <v>1.806733333333335</v>
+        <v>1.805500000000002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2063,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C48" t="n">
         <v>1.887</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.891</v>
-      </c>
       <c r="D48" t="n">
-        <v>1.9</v>
+        <v>1.887</v>
       </c>
       <c r="E48" t="n">
-        <v>1.887</v>
+        <v>1.86</v>
       </c>
       <c r="F48" t="n">
-        <v>1110662.484</v>
+        <v>841304.5742</v>
       </c>
       <c r="G48" t="n">
-        <v>1.808066666666669</v>
+        <v>1.806733333333335</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2098,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.899</v>
+        <v>1.887</v>
       </c>
       <c r="C49" t="n">
-        <v>1.899</v>
+        <v>1.891</v>
       </c>
       <c r="D49" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="E49" t="n">
-        <v>1.899</v>
+        <v>1.887</v>
       </c>
       <c r="F49" t="n">
-        <v>262</v>
+        <v>1110662.484</v>
       </c>
       <c r="G49" t="n">
-        <v>1.809500000000002</v>
+        <v>1.808066666666669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2136,25 +2116,25 @@
         <v>1.899</v>
       </c>
       <c r="C50" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="D50" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="E50" t="n">
         <v>1.899</v>
       </c>
       <c r="F50" t="n">
-        <v>138750.7891</v>
+        <v>262</v>
       </c>
       <c r="G50" t="n">
-        <v>1.810950000000002</v>
+        <v>1.809500000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2177,13 +2157,13 @@
         <v>1.9</v>
       </c>
       <c r="E51" t="n">
-        <v>1.84</v>
+        <v>1.899</v>
       </c>
       <c r="F51" t="n">
-        <v>247895.587</v>
+        <v>138750.7891</v>
       </c>
       <c r="G51" t="n">
-        <v>1.812116666666669</v>
+        <v>1.810950000000002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2203,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.86</v>
+        <v>1.899</v>
       </c>
       <c r="C52" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="D52" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="E52" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F52" t="n">
-        <v>3101.2</v>
+        <v>247895.587</v>
       </c>
       <c r="G52" t="n">
-        <v>1.812783333333336</v>
+        <v>1.812116666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2238,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="C53" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="D53" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="E53" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="F53" t="n">
-        <v>290</v>
+        <v>3101.2</v>
       </c>
       <c r="G53" t="n">
-        <v>1.814616666666669</v>
+        <v>1.812783333333336</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2273,28 +2253,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="C54" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="D54" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="E54" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="F54" t="n">
-        <v>124990.58</v>
+        <v>290</v>
       </c>
       <c r="G54" t="n">
-        <v>1.816116666666669</v>
+        <v>1.814616666666669</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2311,19 +2291,19 @@
         <v>1.88</v>
       </c>
       <c r="C55" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="D55" t="n">
         <v>1.88</v>
       </c>
       <c r="E55" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="F55" t="n">
-        <v>565379.1464</v>
+        <v>124990.58</v>
       </c>
       <c r="G55" t="n">
-        <v>1.817566666666669</v>
+        <v>1.816116666666669</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2343,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="C56" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="D56" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="E56" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="F56" t="n">
-        <v>4204.4</v>
+        <v>565379.1464</v>
       </c>
       <c r="G56" t="n">
-        <v>1.818233333333336</v>
+        <v>1.817566666666669</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2378,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="C57" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="D57" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="E57" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F57" t="n">
-        <v>12471.6541</v>
+        <v>4204.4</v>
       </c>
       <c r="G57" t="n">
-        <v>1.819250000000002</v>
+        <v>1.818233333333336</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2413,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.859</v>
+        <v>1.86</v>
       </c>
       <c r="C58" t="n">
-        <v>1.859</v>
+        <v>1.86</v>
       </c>
       <c r="D58" t="n">
-        <v>1.859</v>
+        <v>1.86</v>
       </c>
       <c r="E58" t="n">
-        <v>1.859</v>
+        <v>1.86</v>
       </c>
       <c r="F58" t="n">
-        <v>270</v>
+        <v>12471.6541</v>
       </c>
       <c r="G58" t="n">
-        <v>1.820566666666669</v>
+        <v>1.819250000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2448,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.858</v>
+        <v>1.859</v>
       </c>
       <c r="C59" t="n">
-        <v>1.842</v>
+        <v>1.859</v>
       </c>
       <c r="D59" t="n">
-        <v>1.86</v>
+        <v>1.859</v>
       </c>
       <c r="E59" t="n">
-        <v>1.842</v>
+        <v>1.859</v>
       </c>
       <c r="F59" t="n">
-        <v>384873.3691</v>
+        <v>270</v>
       </c>
       <c r="G59" t="n">
-        <v>1.821433333333335</v>
+        <v>1.820566666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2483,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.872</v>
+        <v>1.858</v>
       </c>
       <c r="C60" t="n">
-        <v>1.872</v>
+        <v>1.842</v>
       </c>
       <c r="D60" t="n">
-        <v>1.872</v>
+        <v>1.86</v>
       </c>
       <c r="E60" t="n">
-        <v>1.872</v>
+        <v>1.842</v>
       </c>
       <c r="F60" t="n">
-        <v>283</v>
+        <v>384873.3691</v>
       </c>
       <c r="G60" t="n">
-        <v>1.822816666666669</v>
+        <v>1.821433333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2518,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.85</v>
+        <v>1.872</v>
       </c>
       <c r="C61" t="n">
-        <v>1.85</v>
+        <v>1.872</v>
       </c>
       <c r="D61" t="n">
-        <v>1.85</v>
+        <v>1.872</v>
       </c>
       <c r="E61" t="n">
-        <v>1.85</v>
+        <v>1.872</v>
       </c>
       <c r="F61" t="n">
-        <v>582.7891</v>
+        <v>283</v>
       </c>
       <c r="G61" t="n">
-        <v>1.823983333333335</v>
+        <v>1.822816666666669</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2553,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.872</v>
+        <v>1.85</v>
       </c>
       <c r="C62" t="n">
-        <v>1.872</v>
+        <v>1.85</v>
       </c>
       <c r="D62" t="n">
-        <v>1.872</v>
+        <v>1.85</v>
       </c>
       <c r="E62" t="n">
-        <v>1.872</v>
+        <v>1.85</v>
       </c>
       <c r="F62" t="n">
-        <v>263</v>
+        <v>582.7891</v>
       </c>
       <c r="G62" t="n">
-        <v>1.825683333333335</v>
+        <v>1.823983333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2588,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.871</v>
+        <v>1.872</v>
       </c>
       <c r="C63" t="n">
-        <v>1.871</v>
+        <v>1.872</v>
       </c>
       <c r="D63" t="n">
-        <v>1.871</v>
+        <v>1.872</v>
       </c>
       <c r="E63" t="n">
-        <v>1.871</v>
+        <v>1.872</v>
       </c>
       <c r="F63" t="n">
-        <v>9832.239</v>
+        <v>263</v>
       </c>
       <c r="G63" t="n">
-        <v>1.827033333333335</v>
+        <v>1.825683333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2623,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.851</v>
+        <v>1.871</v>
       </c>
       <c r="C64" t="n">
         <v>1.871</v>
@@ -2632,13 +2612,13 @@
         <v>1.871</v>
       </c>
       <c r="E64" t="n">
-        <v>1.851</v>
+        <v>1.871</v>
       </c>
       <c r="F64" t="n">
-        <v>53541.9275</v>
+        <v>9832.239</v>
       </c>
       <c r="G64" t="n">
-        <v>1.828216666666668</v>
+        <v>1.827033333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2658,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="C65" t="n">
-        <v>1.843</v>
+        <v>1.871</v>
       </c>
       <c r="D65" t="n">
-        <v>1.85</v>
+        <v>1.871</v>
       </c>
       <c r="E65" t="n">
-        <v>1.843</v>
+        <v>1.851</v>
       </c>
       <c r="F65" t="n">
-        <v>319785.0332</v>
+        <v>53541.9275</v>
       </c>
       <c r="G65" t="n">
-        <v>1.828933333333335</v>
+        <v>1.828216666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2693,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.871</v>
+        <v>1.85</v>
       </c>
       <c r="C66" t="n">
-        <v>1.871</v>
+        <v>1.843</v>
       </c>
       <c r="D66" t="n">
-        <v>1.871</v>
+        <v>1.85</v>
       </c>
       <c r="E66" t="n">
-        <v>1.871</v>
+        <v>1.843</v>
       </c>
       <c r="F66" t="n">
-        <v>310</v>
+        <v>319785.0332</v>
       </c>
       <c r="G66" t="n">
-        <v>1.829916666666668</v>
+        <v>1.828933333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2728,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.846</v>
+        <v>1.871</v>
       </c>
       <c r="C67" t="n">
-        <v>1.846</v>
+        <v>1.871</v>
       </c>
       <c r="D67" t="n">
-        <v>1.846</v>
+        <v>1.871</v>
       </c>
       <c r="E67" t="n">
-        <v>1.846</v>
+        <v>1.871</v>
       </c>
       <c r="F67" t="n">
-        <v>11048.1339</v>
+        <v>310</v>
       </c>
       <c r="G67" t="n">
-        <v>1.830616666666668</v>
+        <v>1.829916666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2766,19 +2746,19 @@
         <v>1.846</v>
       </c>
       <c r="C68" t="n">
-        <v>1.871</v>
+        <v>1.846</v>
       </c>
       <c r="D68" t="n">
-        <v>1.871</v>
+        <v>1.846</v>
       </c>
       <c r="E68" t="n">
         <v>1.846</v>
       </c>
       <c r="F68" t="n">
-        <v>31028.1125</v>
+        <v>11048.1339</v>
       </c>
       <c r="G68" t="n">
-        <v>1.831616666666668</v>
+        <v>1.830616666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2798,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.837</v>
+        <v>1.846</v>
       </c>
       <c r="C69" t="n">
-        <v>1.837</v>
+        <v>1.871</v>
       </c>
       <c r="D69" t="n">
-        <v>1.837</v>
+        <v>1.871</v>
       </c>
       <c r="E69" t="n">
-        <v>1.837</v>
+        <v>1.846</v>
       </c>
       <c r="F69" t="n">
-        <v>7322.4675</v>
+        <v>31028.1125</v>
       </c>
       <c r="G69" t="n">
-        <v>1.832166666666668</v>
+        <v>1.831616666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2833,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.83</v>
+        <v>1.837</v>
       </c>
       <c r="C70" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="D70" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="E70" t="n">
-        <v>1.83</v>
+        <v>1.837</v>
       </c>
       <c r="F70" t="n">
-        <v>299425.8357</v>
+        <v>7322.4675</v>
       </c>
       <c r="G70" t="n">
-        <v>1.832916666666669</v>
+        <v>1.832166666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2868,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.863</v>
+        <v>1.83</v>
       </c>
       <c r="C71" t="n">
         <v>1.836</v>
       </c>
       <c r="D71" t="n">
-        <v>1.863</v>
+        <v>1.836</v>
       </c>
       <c r="E71" t="n">
-        <v>1.836</v>
+        <v>1.83</v>
       </c>
       <c r="F71" t="n">
-        <v>162940.2358</v>
+        <v>299425.8357</v>
       </c>
       <c r="G71" t="n">
-        <v>1.833333333333335</v>
+        <v>1.832916666666669</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2903,32 +2883,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.839</v>
+        <v>1.863</v>
       </c>
       <c r="C72" t="n">
-        <v>1.84</v>
+        <v>1.836</v>
       </c>
       <c r="D72" t="n">
-        <v>1.84</v>
+        <v>1.863</v>
       </c>
       <c r="E72" t="n">
         <v>1.836</v>
       </c>
       <c r="F72" t="n">
-        <v>280166.5686</v>
+        <v>162940.2358</v>
       </c>
       <c r="G72" t="n">
-        <v>1.834000000000002</v>
+        <v>1.833333333333335</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.836</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2938,22 +2924,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E73" t="n">
         <v>1.836</v>
       </c>
-      <c r="C73" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1.83</v>
-      </c>
       <c r="F73" t="n">
-        <v>15539.5398</v>
+        <v>280166.5686</v>
       </c>
       <c r="G73" t="n">
-        <v>1.834500000000002</v>
+        <v>1.834000000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,7 +2949,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2973,32 +2963,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.82</v>
+        <v>1.836</v>
       </c>
       <c r="C74" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="D74" t="n">
-        <v>1.82</v>
+        <v>1.836</v>
       </c>
       <c r="E74" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="F74" t="n">
-        <v>294946.0358</v>
+        <v>15539.5398</v>
       </c>
       <c r="G74" t="n">
-        <v>1.834833333333335</v>
+        <v>1.834500000000002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.84</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3020,20 +3016,26 @@
         <v>1.82</v>
       </c>
       <c r="F75" t="n">
-        <v>286220.6091</v>
+        <v>294946.0358</v>
       </c>
       <c r="G75" t="n">
-        <v>1.835316666666668</v>
+        <v>1.834833333333335</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.83</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3055,20 +3057,26 @@
         <v>1.82</v>
       </c>
       <c r="F76" t="n">
-        <v>105238.1115</v>
+        <v>286220.6091</v>
       </c>
       <c r="G76" t="n">
-        <v>1.835466666666668</v>
+        <v>1.835316666666668</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.82</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3090,10 +3098,10 @@
         <v>1.82</v>
       </c>
       <c r="F77" t="n">
-        <v>56288.4224</v>
+        <v>105238.1115</v>
       </c>
       <c r="G77" t="n">
-        <v>1.835966666666668</v>
+        <v>1.835466666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,7 +3111,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3113,22 +3125,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="C78" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="D78" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="E78" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="F78" t="n">
-        <v>395.7403</v>
+        <v>56288.4224</v>
       </c>
       <c r="G78" t="n">
-        <v>1.836800000000001</v>
+        <v>1.835966666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,7 +3150,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3148,32 +3164,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.822</v>
+        <v>1.85</v>
       </c>
       <c r="C79" t="n">
-        <v>1.822</v>
+        <v>1.85</v>
       </c>
       <c r="D79" t="n">
-        <v>1.822</v>
+        <v>1.85</v>
       </c>
       <c r="E79" t="n">
-        <v>1.822</v>
+        <v>1.85</v>
       </c>
       <c r="F79" t="n">
-        <v>7000</v>
+        <v>395.7403</v>
       </c>
       <c r="G79" t="n">
-        <v>1.836983333333335</v>
+        <v>1.836800000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1.82</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3183,22 +3205,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.849</v>
+        <v>1.822</v>
       </c>
       <c r="C80" t="n">
-        <v>1.849</v>
+        <v>1.822</v>
       </c>
       <c r="D80" t="n">
-        <v>1.849</v>
+        <v>1.822</v>
       </c>
       <c r="E80" t="n">
-        <v>1.849</v>
+        <v>1.822</v>
       </c>
       <c r="F80" t="n">
-        <v>290</v>
+        <v>7000</v>
       </c>
       <c r="G80" t="n">
-        <v>1.837616666666668</v>
+        <v>1.836983333333335</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,7 +3230,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3218,22 +3244,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.848</v>
+        <v>1.849</v>
       </c>
       <c r="C81" t="n">
-        <v>1.848</v>
+        <v>1.849</v>
       </c>
       <c r="D81" t="n">
-        <v>1.848</v>
+        <v>1.849</v>
       </c>
       <c r="E81" t="n">
-        <v>1.848</v>
+        <v>1.849</v>
       </c>
       <c r="F81" t="n">
-        <v>5076.2628</v>
+        <v>290</v>
       </c>
       <c r="G81" t="n">
-        <v>1.838216666666668</v>
+        <v>1.837616666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3243,7 +3269,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3253,7 +3283,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.823</v>
+        <v>1.848</v>
       </c>
       <c r="C82" t="n">
         <v>1.848</v>
@@ -3262,13 +3292,13 @@
         <v>1.848</v>
       </c>
       <c r="E82" t="n">
-        <v>1.813</v>
+        <v>1.848</v>
       </c>
       <c r="F82" t="n">
-        <v>25818.7494</v>
+        <v>5076.2628</v>
       </c>
       <c r="G82" t="n">
-        <v>1.838816666666668</v>
+        <v>1.838216666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3278,7 +3308,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3288,19 +3322,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="E83" t="n">
         <v>1.813</v>
       </c>
-      <c r="C83" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.81</v>
-      </c>
       <c r="F83" t="n">
-        <v>90000</v>
+        <v>25818.7494</v>
       </c>
       <c r="G83" t="n">
         <v>1.838816666666668</v>
@@ -3313,7 +3347,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3323,22 +3361,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.839</v>
+        <v>1.813</v>
       </c>
       <c r="C84" t="n">
-        <v>1.839</v>
+        <v>1.81</v>
       </c>
       <c r="D84" t="n">
-        <v>1.839</v>
+        <v>1.813</v>
       </c>
       <c r="E84" t="n">
-        <v>1.839</v>
+        <v>1.81</v>
       </c>
       <c r="F84" t="n">
-        <v>271</v>
+        <v>90000</v>
       </c>
       <c r="G84" t="n">
-        <v>1.839300000000001</v>
+        <v>1.838816666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3348,7 +3386,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3358,22 +3400,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.808</v>
+        <v>1.839</v>
       </c>
       <c r="C85" t="n">
-        <v>1.806</v>
+        <v>1.839</v>
       </c>
       <c r="D85" t="n">
-        <v>1.808</v>
+        <v>1.839</v>
       </c>
       <c r="E85" t="n">
-        <v>1.806</v>
+        <v>1.839</v>
       </c>
       <c r="F85" t="n">
-        <v>140000</v>
+        <v>271</v>
       </c>
       <c r="G85" t="n">
-        <v>1.839550000000002</v>
+        <v>1.839300000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3383,7 +3425,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3393,22 +3439,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.837</v>
+        <v>1.808</v>
       </c>
       <c r="C86" t="n">
-        <v>1.837</v>
+        <v>1.806</v>
       </c>
       <c r="D86" t="n">
-        <v>1.837</v>
+        <v>1.808</v>
       </c>
       <c r="E86" t="n">
-        <v>1.837</v>
+        <v>1.806</v>
       </c>
       <c r="F86" t="n">
-        <v>290</v>
+        <v>140000</v>
       </c>
       <c r="G86" t="n">
-        <v>1.840000000000001</v>
+        <v>1.839550000000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3418,7 +3464,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3428,7 +3478,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.803</v>
+        <v>1.837</v>
       </c>
       <c r="C87" t="n">
         <v>1.837</v>
@@ -3437,13 +3487,13 @@
         <v>1.837</v>
       </c>
       <c r="E87" t="n">
-        <v>1.8</v>
+        <v>1.837</v>
       </c>
       <c r="F87" t="n">
-        <v>199841.0431</v>
+        <v>290</v>
       </c>
       <c r="G87" t="n">
-        <v>1.840766666666668</v>
+        <v>1.840000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3453,7 +3503,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3463,22 +3517,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.796</v>
+        <v>1.803</v>
       </c>
       <c r="C88" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="D88" t="n">
-        <v>1.836</v>
+        <v>1.837</v>
       </c>
       <c r="E88" t="n">
-        <v>1.796</v>
+        <v>1.8</v>
       </c>
       <c r="F88" t="n">
-        <v>193450.3195</v>
+        <v>199841.0431</v>
       </c>
       <c r="G88" t="n">
-        <v>1.841216666666668</v>
+        <v>1.840766666666668</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3488,7 +3542,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3556,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.8</v>
+        <v>1.796</v>
       </c>
       <c r="C89" t="n">
-        <v>1.795</v>
+        <v>1.836</v>
       </c>
       <c r="D89" t="n">
-        <v>1.8</v>
+        <v>1.836</v>
       </c>
       <c r="E89" t="n">
-        <v>1.795</v>
+        <v>1.796</v>
       </c>
       <c r="F89" t="n">
-        <v>260872.5008</v>
+        <v>193450.3195</v>
       </c>
       <c r="G89" t="n">
-        <v>1.840983333333335</v>
+        <v>1.841216666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3523,7 +3581,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3533,22 +3595,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.835</v>
+        <v>1.8</v>
       </c>
       <c r="C90" t="n">
-        <v>1.835</v>
+        <v>1.795</v>
       </c>
       <c r="D90" t="n">
-        <v>1.835</v>
+        <v>1.8</v>
       </c>
       <c r="E90" t="n">
-        <v>1.835</v>
+        <v>1.795</v>
       </c>
       <c r="F90" t="n">
-        <v>273</v>
+        <v>260872.5008</v>
       </c>
       <c r="G90" t="n">
-        <v>1.841733333333335</v>
+        <v>1.840983333333335</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3558,7 +3620,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3568,22 +3634,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.81</v>
+        <v>1.835</v>
       </c>
       <c r="C91" t="n">
-        <v>1.795</v>
+        <v>1.835</v>
       </c>
       <c r="D91" t="n">
-        <v>1.81</v>
+        <v>1.835</v>
       </c>
       <c r="E91" t="n">
-        <v>1.795</v>
+        <v>1.835</v>
       </c>
       <c r="F91" t="n">
-        <v>234785.2507</v>
+        <v>273</v>
       </c>
       <c r="G91" t="n">
-        <v>1.841550000000002</v>
+        <v>1.841733333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3593,7 +3659,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3603,22 +3673,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.835</v>
+        <v>1.81</v>
       </c>
       <c r="C92" t="n">
-        <v>1.835</v>
+        <v>1.795</v>
       </c>
       <c r="D92" t="n">
-        <v>1.835</v>
+        <v>1.81</v>
       </c>
       <c r="E92" t="n">
-        <v>1.835</v>
+        <v>1.795</v>
       </c>
       <c r="F92" t="n">
-        <v>272</v>
+        <v>234785.2507</v>
       </c>
       <c r="G92" t="n">
-        <v>1.842016666666668</v>
+        <v>1.841550000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3628,7 +3698,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3638,22 +3712,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.795</v>
+        <v>1.835</v>
       </c>
       <c r="C93" t="n">
-        <v>1.784</v>
+        <v>1.835</v>
       </c>
       <c r="D93" t="n">
-        <v>1.795</v>
+        <v>1.835</v>
       </c>
       <c r="E93" t="n">
-        <v>1.784</v>
+        <v>1.835</v>
       </c>
       <c r="F93" t="n">
-        <v>2508548.6454</v>
+        <v>272</v>
       </c>
       <c r="G93" t="n">
-        <v>1.841650000000002</v>
+        <v>1.842016666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3663,7 +3737,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3673,22 +3751,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.784</v>
+        <v>1.795</v>
       </c>
       <c r="C94" t="n">
         <v>1.784</v>
       </c>
       <c r="D94" t="n">
-        <v>1.784</v>
+        <v>1.795</v>
       </c>
       <c r="E94" t="n">
         <v>1.784</v>
       </c>
       <c r="F94" t="n">
-        <v>362979.31</v>
+        <v>2508548.6454</v>
       </c>
       <c r="G94" t="n">
-        <v>1.841283333333335</v>
+        <v>1.841650000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,7 +3776,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3708,22 +3790,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="C95" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="D95" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="E95" t="n">
-        <v>1.783</v>
+        <v>1.784</v>
       </c>
       <c r="F95" t="n">
-        <v>386262.5878</v>
+        <v>362979.31</v>
       </c>
       <c r="G95" t="n">
-        <v>1.840900000000002</v>
+        <v>1.841283333333335</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3733,7 +3815,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3743,22 +3829,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="C96" t="n">
-        <v>1.775</v>
+        <v>1.783</v>
       </c>
       <c r="D96" t="n">
-        <v>1.782</v>
+        <v>1.783</v>
       </c>
       <c r="E96" t="n">
-        <v>1.765</v>
+        <v>1.783</v>
       </c>
       <c r="F96" t="n">
-        <v>1482970.5392</v>
+        <v>386262.5878</v>
       </c>
       <c r="G96" t="n">
-        <v>1.840383333333335</v>
+        <v>1.840900000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3768,7 +3854,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +3868,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="C97" t="n">
         <v>1.775</v>
       </c>
-      <c r="C97" t="n">
-        <v>1.836</v>
-      </c>
       <c r="D97" t="n">
-        <v>1.836</v>
+        <v>1.782</v>
       </c>
       <c r="E97" t="n">
-        <v>1.775</v>
+        <v>1.765</v>
       </c>
       <c r="F97" t="n">
-        <v>221139.7695</v>
+        <v>1482970.5392</v>
       </c>
       <c r="G97" t="n">
-        <v>1.840883333333335</v>
+        <v>1.840383333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3803,7 +3893,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3813,22 +3907,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.779</v>
+        <v>1.775</v>
       </c>
       <c r="C98" t="n">
-        <v>1.779</v>
+        <v>1.836</v>
       </c>
       <c r="D98" t="n">
-        <v>1.779</v>
+        <v>1.836</v>
       </c>
       <c r="E98" t="n">
-        <v>1.779</v>
+        <v>1.775</v>
       </c>
       <c r="F98" t="n">
-        <v>36955.6939</v>
+        <v>221139.7695</v>
       </c>
       <c r="G98" t="n">
-        <v>1.840433333333335</v>
+        <v>1.840883333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3838,7 +3932,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3851,19 +3949,19 @@
         <v>1.779</v>
       </c>
       <c r="C99" t="n">
-        <v>1.83</v>
+        <v>1.779</v>
       </c>
       <c r="D99" t="n">
-        <v>1.83</v>
+        <v>1.779</v>
       </c>
       <c r="E99" t="n">
         <v>1.779</v>
       </c>
       <c r="F99" t="n">
-        <v>3574.1754</v>
+        <v>36955.6939</v>
       </c>
       <c r="G99" t="n">
-        <v>1.840833333333335</v>
+        <v>1.840433333333335</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3873,7 +3971,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3883,22 +3985,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.795</v>
+        <v>1.779</v>
       </c>
       <c r="C100" t="n">
-        <v>1.787</v>
+        <v>1.83</v>
       </c>
       <c r="D100" t="n">
-        <v>1.795</v>
+        <v>1.83</v>
       </c>
       <c r="E100" t="n">
-        <v>1.787</v>
+        <v>1.779</v>
       </c>
       <c r="F100" t="n">
-        <v>93779.6698</v>
+        <v>3574.1754</v>
       </c>
       <c r="G100" t="n">
-        <v>1.840500000000002</v>
+        <v>1.840833333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3908,7 +4010,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3918,22 +4024,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.787</v>
+        <v>1.795</v>
       </c>
       <c r="C101" t="n">
         <v>1.787</v>
       </c>
       <c r="D101" t="n">
-        <v>1.787</v>
+        <v>1.795</v>
       </c>
       <c r="E101" t="n">
         <v>1.787</v>
       </c>
       <c r="F101" t="n">
-        <v>5595.8471</v>
+        <v>93779.6698</v>
       </c>
       <c r="G101" t="n">
-        <v>1.840083333333336</v>
+        <v>1.840500000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,7 +4049,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3953,22 +4063,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.778</v>
+        <v>1.787</v>
       </c>
       <c r="C102" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="D102" t="n">
-        <v>1.786</v>
+        <v>1.787</v>
       </c>
       <c r="E102" t="n">
-        <v>1.778</v>
+        <v>1.787</v>
       </c>
       <c r="F102" t="n">
-        <v>136727.1732</v>
+        <v>5595.8471</v>
       </c>
       <c r="G102" t="n">
-        <v>1.839400000000002</v>
+        <v>1.840083333333336</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3978,7 +4088,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3988,22 +4102,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.781</v>
+        <v>1.778</v>
       </c>
       <c r="C103" t="n">
-        <v>1.779</v>
+        <v>1.786</v>
       </c>
       <c r="D103" t="n">
-        <v>1.781</v>
+        <v>1.786</v>
       </c>
       <c r="E103" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="F103" t="n">
-        <v>759714.3837</v>
+        <v>136727.1732</v>
       </c>
       <c r="G103" t="n">
-        <v>1.838350000000002</v>
+        <v>1.839400000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4013,7 +4127,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4023,22 +4141,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C104" t="n">
         <v>1.779</v>
       </c>
-      <c r="C104" t="n">
-        <v>1.78</v>
-      </c>
       <c r="D104" t="n">
-        <v>1.78</v>
+        <v>1.781</v>
       </c>
       <c r="E104" t="n">
         <v>1.779</v>
       </c>
       <c r="F104" t="n">
-        <v>438187.6978</v>
+        <v>759714.3837</v>
       </c>
       <c r="G104" t="n">
-        <v>1.837316666666669</v>
+        <v>1.838350000000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4048,7 +4166,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4058,22 +4180,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.778</v>
+        <v>1.779</v>
       </c>
       <c r="C105" t="n">
-        <v>1.777</v>
+        <v>1.78</v>
       </c>
       <c r="D105" t="n">
-        <v>1.778</v>
+        <v>1.78</v>
       </c>
       <c r="E105" t="n">
-        <v>1.777</v>
+        <v>1.779</v>
       </c>
       <c r="F105" t="n">
-        <v>241889.7904</v>
+        <v>438187.6978</v>
       </c>
       <c r="G105" t="n">
-        <v>1.836166666666669</v>
+        <v>1.837316666666669</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4083,7 +4205,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4096,19 +4222,19 @@
         <v>1.778</v>
       </c>
       <c r="C106" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="D106" t="n">
         <v>1.778</v>
       </c>
       <c r="E106" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="F106" t="n">
-        <v>154548.2627</v>
+        <v>241889.7904</v>
       </c>
       <c r="G106" t="n">
-        <v>1.835016666666669</v>
+        <v>1.836166666666669</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4118,7 +4244,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4128,22 +4258,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.79</v>
+        <v>1.778</v>
       </c>
       <c r="C107" t="n">
-        <v>1.79</v>
+        <v>1.778</v>
       </c>
       <c r="D107" t="n">
-        <v>1.79</v>
+        <v>1.778</v>
       </c>
       <c r="E107" t="n">
-        <v>1.79</v>
+        <v>1.778</v>
       </c>
       <c r="F107" t="n">
-        <v>280</v>
+        <v>154548.2627</v>
       </c>
       <c r="G107" t="n">
-        <v>1.833400000000002</v>
+        <v>1.835016666666669</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4153,7 +4283,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4163,22 +4297,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.777</v>
+        <v>1.79</v>
       </c>
       <c r="C108" t="n">
-        <v>1.764</v>
+        <v>1.79</v>
       </c>
       <c r="D108" t="n">
-        <v>1.777</v>
+        <v>1.79</v>
       </c>
       <c r="E108" t="n">
-        <v>1.764</v>
+        <v>1.79</v>
       </c>
       <c r="F108" t="n">
-        <v>389466.2061</v>
+        <v>280</v>
       </c>
       <c r="G108" t="n">
-        <v>1.831283333333336</v>
+        <v>1.833400000000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4188,7 +4322,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4198,22 +4336,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.79</v>
+        <v>1.777</v>
       </c>
       <c r="C109" t="n">
-        <v>1.762</v>
+        <v>1.764</v>
       </c>
       <c r="D109" t="n">
-        <v>1.79</v>
+        <v>1.777</v>
       </c>
       <c r="E109" t="n">
-        <v>1.762</v>
+        <v>1.764</v>
       </c>
       <c r="F109" t="n">
-        <v>561</v>
+        <v>389466.2061</v>
       </c>
       <c r="G109" t="n">
-        <v>1.829000000000002</v>
+        <v>1.831283333333336</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4223,7 +4361,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4233,22 +4375,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.762</v>
+        <v>1.79</v>
       </c>
       <c r="C110" t="n">
         <v>1.762</v>
       </c>
       <c r="D110" t="n">
-        <v>1.762</v>
+        <v>1.79</v>
       </c>
       <c r="E110" t="n">
         <v>1.762</v>
       </c>
       <c r="F110" t="n">
-        <v>493266.8141</v>
+        <v>561</v>
       </c>
       <c r="G110" t="n">
-        <v>1.826700000000002</v>
+        <v>1.829000000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4258,8 +4400,51 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F111" t="n">
+        <v>493266.8141</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.826700000000002</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest MXC.xlsx
+++ b/BackTest/2020-01-23 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>320000</v>
       </c>
       <c r="G2" t="n">
+        <v>1.800066666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.807183333333337</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>610915.6381</v>
       </c>
       <c r="G3" t="n">
+        <v>1.7972</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.806600000000004</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.78</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>62941.529</v>
       </c>
       <c r="G4" t="n">
+        <v>1.7958</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.80596666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>1200384.6871</v>
       </c>
       <c r="G5" t="n">
+        <v>1.794933333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.806000000000004</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.79</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>17337.7656</v>
       </c>
       <c r="G6" t="n">
+        <v>1.794066666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.805833333333337</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.8</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>276</v>
       </c>
       <c r="G7" t="n">
+        <v>1.792866666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.80586666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.8</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,25 @@
         <v>167000</v>
       </c>
       <c r="G8" t="n">
+        <v>1.791133333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.80561666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +753,25 @@
         <v>290</v>
       </c>
       <c r="G9" t="n">
+        <v>1.792533333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.80571666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +795,25 @@
         <v>246.468</v>
       </c>
       <c r="G10" t="n">
+        <v>1.793466666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.806433333333337</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +837,25 @@
         <v>795.532</v>
       </c>
       <c r="G11" t="n">
+        <v>1.794666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.805983333333337</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +879,25 @@
         <v>300</v>
       </c>
       <c r="G12" t="n">
+        <v>1.7954</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.806433333333337</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +921,27 @@
         <v>80000</v>
       </c>
       <c r="G13" t="n">
+        <v>1.795466666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.806700000000003</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.811</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +965,25 @@
         <v>1776541.4504</v>
       </c>
       <c r="G14" t="n">
+        <v>1.7968</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.806900000000003</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1007,25 @@
         <v>31473.6082</v>
       </c>
       <c r="G15" t="n">
+        <v>1.797466666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.806633333333337</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1049,25 @@
         <v>31473.6082</v>
       </c>
       <c r="G16" t="n">
+        <v>1.7976</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.80631666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1091,25 @@
         <v>280</v>
       </c>
       <c r="G17" t="n">
+        <v>1.799666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.806333333333337</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1133,25 @@
         <v>2717087.8368</v>
       </c>
       <c r="G18" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.805700000000003</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1175,25 @@
         <v>280</v>
       </c>
       <c r="G19" t="n">
+        <v>1.801666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.805533333333337</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1217,25 @@
         <v>4199.2405</v>
       </c>
       <c r="G20" t="n">
+        <v>1.8024</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.80546666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1259,25 @@
         <v>932.79</v>
       </c>
       <c r="G21" t="n">
+        <v>1.803133333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.805400000000003</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1301,25 @@
         <v>300</v>
       </c>
       <c r="G22" t="n">
+        <v>1.803133333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.805350000000004</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1343,25 @@
         <v>320654.4544</v>
       </c>
       <c r="G23" t="n">
+        <v>1.803666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.805800000000004</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1385,27 @@
         <v>67253.58930000001</v>
       </c>
       <c r="G24" t="n">
+        <v>1.8036</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.80571666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.812</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1429,25 @@
         <v>36765.1117</v>
       </c>
       <c r="G25" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.806183333333337</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1471,25 @@
         <v>635.0964</v>
       </c>
       <c r="G26" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.805800000000004</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1513,27 @@
         <v>274</v>
       </c>
       <c r="G27" t="n">
+        <v>1.803933333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.80581666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.791</v>
+      </c>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1557,27 @@
         <v>11524.2455</v>
       </c>
       <c r="G28" t="n">
+        <v>1.803333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.804850000000003</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.81</v>
+      </c>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1601,27 @@
         <v>290</v>
       </c>
       <c r="G29" t="n">
+        <v>1.803933333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.804183333333337</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.791</v>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1645,27 @@
         <v>29657.1444</v>
       </c>
       <c r="G30" t="n">
+        <v>1.804533333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.804250000000003</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.809</v>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1689,25 @@
         <v>115554.7649</v>
       </c>
       <c r="G31" t="n">
+        <v>1.804466666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.80391666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1731,25 @@
         <v>216998</v>
       </c>
       <c r="G32" t="n">
+        <v>1.804133333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.803683333333337</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1773,25 @@
         <v>116701</v>
       </c>
       <c r="G33" t="n">
+        <v>1.805266666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.80371666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1815,27 @@
         <v>120000</v>
       </c>
       <c r="G34" t="n">
+        <v>1.805666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.803733333333337</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.807</v>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1859,27 @@
         <v>29667</v>
       </c>
       <c r="G35" t="n">
+        <v>1.805333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.80351666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.806</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1903,27 @@
         <v>828.4707</v>
       </c>
       <c r="G36" t="n">
+        <v>1.805</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.803300000000003</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.806</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1947,27 @@
         <v>656.7006</v>
       </c>
       <c r="G37" t="n">
+        <v>1.8046</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.80261666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.806</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1991,27 @@
         <v>19208.0338</v>
       </c>
       <c r="G38" t="n">
+        <v>1.8042</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.80191666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.806</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2035,27 @@
         <v>1626</v>
       </c>
       <c r="G39" t="n">
+        <v>1.803933333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.801200000000003</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.806</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2079,27 @@
         <v>143455.7792</v>
       </c>
       <c r="G40" t="n">
+        <v>1.803666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.801516666666669</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.806</v>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2123,27 @@
         <v>80000</v>
       </c>
       <c r="G41" t="n">
+        <v>1.804733333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.801850000000003</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.806</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2167,27 @@
         <v>205161.0894</v>
       </c>
       <c r="G42" t="n">
+        <v>1.804866666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.802266666666669</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.807</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2211,27 @@
         <v>290</v>
       </c>
       <c r="G43" t="n">
+        <v>1.807266666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.802933333333336</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.812</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2255,25 @@
         <v>180808.5</v>
       </c>
       <c r="G44" t="n">
+        <v>1.809466666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.803916666666669</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2297,25 @@
         <v>76510</v>
       </c>
       <c r="G45" t="n">
+        <v>1.811666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.804400000000002</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2339,25 @@
         <v>621874.5609</v>
       </c>
       <c r="G46" t="n">
+        <v>1.8154</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.804950000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2381,25 @@
         <v>167504.1875</v>
       </c>
       <c r="G47" t="n">
+        <v>1.818133333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.805500000000002</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2423,25 @@
         <v>841304.5742</v>
       </c>
       <c r="G48" t="n">
+        <v>1.823466666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.806733333333335</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2465,25 @@
         <v>1110662.484</v>
       </c>
       <c r="G49" t="n">
+        <v>1.829133333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.808066666666669</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2507,25 @@
         <v>262</v>
       </c>
       <c r="G50" t="n">
+        <v>1.835333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.809500000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2549,25 @@
         <v>138750.7891</v>
       </c>
       <c r="G51" t="n">
+        <v>1.8416</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.810950000000002</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2591,25 @@
         <v>247895.587</v>
       </c>
       <c r="G52" t="n">
+        <v>1.847866666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.812116666666669</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2633,25 @@
         <v>3101.2</v>
       </c>
       <c r="G53" t="n">
+        <v>1.852133333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.812783333333336</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2675,25 @@
         <v>290</v>
       </c>
       <c r="G54" t="n">
+        <v>1.8584</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.814616666666669</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2717,25 @@
         <v>124990.58</v>
       </c>
       <c r="G55" t="n">
+        <v>1.863333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.816116666666669</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,20 +2759,25 @@
         <v>565379.1464</v>
       </c>
       <c r="G56" t="n">
+        <v>1.866866666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.817566666666669</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,18 +2799,21 @@
         <v>4204.4</v>
       </c>
       <c r="G57" t="n">
+        <v>1.868733333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.818233333333336</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2837,21 @@
         <v>12471.6541</v>
       </c>
       <c r="G58" t="n">
+        <v>1.870933333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.819250000000002</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2875,21 @@
         <v>270</v>
       </c>
       <c r="G59" t="n">
+        <v>1.872066666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.820566666666669</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2913,21 @@
         <v>384873.3691</v>
       </c>
       <c r="G60" t="n">
+        <v>1.872066666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.821433333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2951,21 @@
         <v>283</v>
       </c>
       <c r="G61" t="n">
+        <v>1.8738</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.822816666666669</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2989,21 @@
         <v>582.7891</v>
       </c>
       <c r="G62" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.823983333333335</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3027,21 @@
         <v>263</v>
       </c>
       <c r="G63" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.825683333333335</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3065,21 @@
         <v>9832.239</v>
       </c>
       <c r="G64" t="n">
+        <v>1.871666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.827033333333335</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3103,21 @@
         <v>53541.9275</v>
       </c>
       <c r="G65" t="n">
+        <v>1.869799999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.828216666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3141,21 @@
         <v>319785.0332</v>
       </c>
       <c r="G66" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.828933333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3179,21 @@
         <v>310</v>
       </c>
       <c r="G67" t="n">
+        <v>1.864066666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.829916666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3217,21 @@
         <v>11048.1339</v>
       </c>
       <c r="G68" t="n">
+        <v>1.862466666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.830616666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3255,21 @@
         <v>31028.1125</v>
       </c>
       <c r="G69" t="n">
+        <v>1.860533333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.831616666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3293,21 @@
         <v>7322.4675</v>
       </c>
       <c r="G70" t="n">
+        <v>1.857666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.832166666666668</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3331,21 @@
         <v>299425.8357</v>
       </c>
       <c r="G71" t="n">
+        <v>1.856066666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.832916666666669</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,24 +3369,21 @@
         <v>162940.2358</v>
       </c>
       <c r="G72" t="n">
+        <v>1.855799999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.833333333333335</v>
       </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.836</v>
+        <v>1</v>
       </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2939,22 +3407,21 @@
         <v>280166.5686</v>
       </c>
       <c r="G73" t="n">
+        <v>1.854466666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.834000000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,24 +3445,21 @@
         <v>15539.5398</v>
       </c>
       <c r="G74" t="n">
+        <v>1.852533333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.834500000000002</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.84</v>
+        <v>1</v>
       </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,24 +3483,21 @@
         <v>294946.0358</v>
       </c>
       <c r="G75" t="n">
+        <v>1.851066666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.834833333333335</v>
       </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,24 +3521,21 @@
         <v>286220.6091</v>
       </c>
       <c r="G76" t="n">
+        <v>1.847599999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.835316666666668</v>
       </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3101,22 +3559,21 @@
         <v>105238.1115</v>
       </c>
       <c r="G77" t="n">
+        <v>1.845599999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.835466666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3140,22 +3597,21 @@
         <v>56288.4224</v>
       </c>
       <c r="G78" t="n">
+        <v>1.842133333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.835966666666668</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,24 +3635,21 @@
         <v>395.7403</v>
       </c>
       <c r="G79" t="n">
+        <v>1.840733333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.836800000000001</v>
       </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3220,22 +3673,21 @@
         <v>7000</v>
       </c>
       <c r="G80" t="n">
+        <v>1.837466666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.836983333333335</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3259,22 +3711,21 @@
         <v>290</v>
       </c>
       <c r="G81" t="n">
+        <v>1.837866666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.837616666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,22 +3749,21 @@
         <v>5076.2628</v>
       </c>
       <c r="G82" t="n">
+        <v>1.836333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.838216666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3337,22 +3787,21 @@
         <v>25818.7494</v>
       </c>
       <c r="G83" t="n">
+        <v>1.836466666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.838816666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3376,22 +3825,21 @@
         <v>90000</v>
       </c>
       <c r="G84" t="n">
+        <v>1.8324</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.838816666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3415,22 +3863,21 @@
         <v>271</v>
       </c>
       <c r="G85" t="n">
+        <v>1.832533333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.839300000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,22 +3901,21 @@
         <v>140000</v>
       </c>
       <c r="G86" t="n">
+        <v>1.830533333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.839550000000002</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,22 +3939,21 @@
         <v>290</v>
       </c>
       <c r="G87" t="n">
+        <v>1.8306</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.840000000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,22 +3977,21 @@
         <v>199841.0431</v>
       </c>
       <c r="G88" t="n">
+        <v>1.8304</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.840766666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3571,22 +4015,21 @@
         <v>193450.3195</v>
       </c>
       <c r="G89" t="n">
+        <v>1.8308</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.841216666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,22 +4053,21 @@
         <v>260872.5008</v>
       </c>
       <c r="G90" t="n">
+        <v>1.829133333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.840983333333335</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,22 +4091,21 @@
         <v>273</v>
       </c>
       <c r="G91" t="n">
+        <v>1.830133333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.841733333333335</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,22 +4129,21 @@
         <v>234785.2507</v>
       </c>
       <c r="G92" t="n">
+        <v>1.828466666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.841550000000002</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3727,22 +4167,21 @@
         <v>272</v>
       </c>
       <c r="G93" t="n">
+        <v>1.829466666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.842016666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,22 +4205,21 @@
         <v>2508548.6454</v>
       </c>
       <c r="G94" t="n">
+        <v>1.825066666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.841650000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3805,22 +4243,21 @@
         <v>362979.31</v>
       </c>
       <c r="G95" t="n">
+        <v>1.822533333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.841283333333335</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,22 +4281,21 @@
         <v>386262.5878</v>
       </c>
       <c r="G96" t="n">
+        <v>1.818133333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.840900000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3883,22 +4319,21 @@
         <v>1482970.5392</v>
       </c>
       <c r="G97" t="n">
+        <v>1.813266666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.840383333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,22 +4357,21 @@
         <v>221139.7695</v>
       </c>
       <c r="G98" t="n">
+        <v>1.812466666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.840883333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3961,22 +4395,21 @@
         <v>36955.6939</v>
       </c>
       <c r="G99" t="n">
+        <v>1.8104</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.840433333333335</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,22 +4433,21 @@
         <v>3574.1754</v>
       </c>
       <c r="G100" t="n">
+        <v>1.8098</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.840833333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4039,22 +4471,21 @@
         <v>93779.6698</v>
       </c>
       <c r="G101" t="n">
+        <v>1.808533333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.840500000000002</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4078,22 +4509,21 @@
         <v>5595.8471</v>
       </c>
       <c r="G102" t="n">
+        <v>1.8052</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.840083333333336</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,22 +4547,21 @@
         <v>136727.1732</v>
       </c>
       <c r="G103" t="n">
+        <v>1.8018</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.839400000000002</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4156,22 +4585,21 @@
         <v>759714.3837</v>
       </c>
       <c r="G104" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.838350000000002</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4195,22 +4623,21 @@
         <v>438187.6978</v>
       </c>
       <c r="G105" t="n">
+        <v>1.797</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.837316666666669</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,22 +4661,21 @@
         <v>241889.7904</v>
       </c>
       <c r="G106" t="n">
+        <v>1.793133333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.836166666666669</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,22 +4699,21 @@
         <v>154548.2627</v>
       </c>
       <c r="G107" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.835016666666669</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,22 +4737,21 @@
         <v>280</v>
       </c>
       <c r="G108" t="n">
+        <v>1.788999999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.833400000000002</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,22 +4775,21 @@
         <v>389466.2061</v>
       </c>
       <c r="G109" t="n">
+        <v>1.787666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.831283333333336</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,22 +4813,21 @@
         <v>561</v>
       </c>
       <c r="G110" t="n">
+        <v>1.7862</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.829000000000002</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,22 +4851,405 @@
         <v>493266.8141</v>
       </c>
       <c r="G111" t="n">
+        <v>1.7848</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.826700000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F112" t="n">
+        <v>280</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.7858</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.824866666666669</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F113" t="n">
+        <v>278</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.784066666666666</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.823866666666669</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1738.33</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.786133333333333</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.822366666666669</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F115" t="n">
+        <v>278</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.784999999999999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.821250000000002</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F116" t="n">
+        <v>371709.1932</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.784533333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.819916666666669</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F117" t="n">
+        <v>275</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.819400000000002</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F118" t="n">
+        <v>158801.0695</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.7856</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.818066666666669</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F119" t="n">
+        <v>546086.5898</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.7844</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.816433333333336</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="F120" t="n">
+        <v>300</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.784266666666666</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.815366666666669</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.784199999999999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.813766666666669</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest MXC.xlsx
+++ b/BackTest/2020-01-23 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.805</v>
+        <v>1.8</v>
       </c>
       <c r="C2" t="n">
-        <v>1.805</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.805</v>
+        <v>1.8</v>
       </c>
       <c r="E2" t="n">
-        <v>1.805</v>
+        <v>1.8</v>
       </c>
       <c r="F2" t="n">
-        <v>110087.7031</v>
+        <v>31473.6082</v>
       </c>
       <c r="G2" t="n">
-        <v>-8182438.726545593</v>
+        <v>-11150300.47213554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.805</v>
+        <v>1.791</v>
       </c>
       <c r="C3" t="n">
-        <v>1.805</v>
+        <v>1.791</v>
       </c>
       <c r="D3" t="n">
-        <v>1.805</v>
+        <v>1.791</v>
       </c>
       <c r="E3" t="n">
-        <v>1.805</v>
+        <v>1.791</v>
       </c>
       <c r="F3" t="n">
-        <v>5465.54</v>
+        <v>31473.6082</v>
       </c>
       <c r="G3" t="n">
-        <v>-8182438.726545593</v>
+        <v>-11181774.08033554</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.819</v>
+        <v>1.811</v>
       </c>
       <c r="C4" t="n">
-        <v>1.819</v>
+        <v>1.811</v>
       </c>
       <c r="D4" t="n">
-        <v>1.819</v>
+        <v>1.811</v>
       </c>
       <c r="E4" t="n">
-        <v>1.819</v>
+        <v>1.811</v>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="G4" t="n">
-        <v>-8182138.726545593</v>
+        <v>-11181494.08033554</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.819</v>
+        <v>1.808</v>
       </c>
       <c r="C5" t="n">
-        <v>1.819</v>
+        <v>1.79</v>
       </c>
       <c r="D5" t="n">
-        <v>1.819</v>
+        <v>1.81</v>
       </c>
       <c r="E5" t="n">
-        <v>1.819</v>
+        <v>1.79</v>
       </c>
       <c r="F5" t="n">
-        <v>8584.3521</v>
+        <v>2717087.8368</v>
       </c>
       <c r="G5" t="n">
-        <v>-8182138.726545593</v>
+        <v>-13898581.91713554</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.847</v>
+        <v>1.8</v>
       </c>
       <c r="C6" t="n">
-        <v>1.847</v>
+        <v>1.8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.847</v>
+        <v>1.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.847</v>
+        <v>1.8</v>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>280</v>
       </c>
       <c r="G6" t="n">
-        <v>-8172138.726545593</v>
+        <v>-13898301.91713554</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.848</v>
+        <v>1.8</v>
       </c>
       <c r="C7" t="n">
-        <v>1.848</v>
+        <v>1.811</v>
       </c>
       <c r="D7" t="n">
-        <v>1.848</v>
+        <v>1.811</v>
       </c>
       <c r="E7" t="n">
-        <v>1.848</v>
+        <v>1.8</v>
       </c>
       <c r="F7" t="n">
-        <v>42897.7435</v>
+        <v>4199.2405</v>
       </c>
       <c r="G7" t="n">
-        <v>-8129240.983045593</v>
+        <v>-13894102.67663554</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.849</v>
+        <v>1.811</v>
       </c>
       <c r="C8" t="n">
-        <v>1.849</v>
+        <v>1.811</v>
       </c>
       <c r="D8" t="n">
-        <v>1.849</v>
+        <v>1.811</v>
       </c>
       <c r="E8" t="n">
-        <v>1.849</v>
+        <v>1.811</v>
       </c>
       <c r="F8" t="n">
-        <v>8197.109399999999</v>
+        <v>932.79</v>
       </c>
       <c r="G8" t="n">
-        <v>-8121043.873645592</v>
+        <v>-13894102.67663554</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.805</v>
+        <v>1.812</v>
       </c>
       <c r="C9" t="n">
-        <v>1.787</v>
+        <v>1.812</v>
       </c>
       <c r="D9" t="n">
-        <v>1.805</v>
+        <v>1.812</v>
       </c>
       <c r="E9" t="n">
-        <v>1.787</v>
+        <v>1.812</v>
       </c>
       <c r="F9" t="n">
-        <v>189497.8702</v>
+        <v>300</v>
       </c>
       <c r="G9" t="n">
-        <v>-8310541.743845592</v>
+        <v>-13893802.67663554</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.787</v>
+        <v>1.791</v>
       </c>
       <c r="C10" t="n">
-        <v>1.787</v>
+        <v>1.812</v>
       </c>
       <c r="D10" t="n">
-        <v>1.787</v>
+        <v>1.812</v>
       </c>
       <c r="E10" t="n">
-        <v>1.787</v>
+        <v>1.791</v>
       </c>
       <c r="F10" t="n">
-        <v>13449.1065</v>
+        <v>320654.4544</v>
       </c>
       <c r="G10" t="n">
-        <v>-8310541.743845592</v>
+        <v>-13893802.67663554</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="C11" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="D11" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="E11" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="F11" t="n">
-        <v>43400.2545</v>
+        <v>67253.58930000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-8310541.743845592</v>
+        <v>-13961056.26593554</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="C12" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="D12" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="E12" t="n">
-        <v>1.787</v>
+        <v>1.81</v>
       </c>
       <c r="F12" t="n">
-        <v>223844.3592</v>
+        <v>36765.1117</v>
       </c>
       <c r="G12" t="n">
-        <v>-8310541.743845592</v>
+        <v>-13961056.26593554</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.785</v>
+        <v>1.81</v>
       </c>
       <c r="C13" t="n">
-        <v>1.783</v>
+        <v>1.791</v>
       </c>
       <c r="D13" t="n">
-        <v>1.785</v>
+        <v>1.81</v>
       </c>
       <c r="E13" t="n">
-        <v>1.783</v>
+        <v>1.791</v>
       </c>
       <c r="F13" t="n">
-        <v>2514512.1719</v>
+        <v>635.0964</v>
       </c>
       <c r="G13" t="n">
-        <v>-10825053.91574559</v>
+        <v>-13961691.36233554</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.813</v>
+        <v>1.81</v>
       </c>
       <c r="C14" t="n">
-        <v>1.813</v>
+        <v>1.81</v>
       </c>
       <c r="D14" t="n">
-        <v>1.813</v>
+        <v>1.81</v>
       </c>
       <c r="E14" t="n">
-        <v>1.813</v>
+        <v>1.81</v>
       </c>
       <c r="F14" t="n">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="G14" t="n">
-        <v>-10824753.91574559</v>
+        <v>-13961417.36233554</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.813</v>
+        <v>1.791</v>
       </c>
       <c r="C15" t="n">
-        <v>1.813</v>
+        <v>1.791</v>
       </c>
       <c r="D15" t="n">
-        <v>1.813</v>
+        <v>1.791</v>
       </c>
       <c r="E15" t="n">
-        <v>1.813</v>
+        <v>1.791</v>
       </c>
       <c r="F15" t="n">
-        <v>61040.6742</v>
+        <v>11524.2455</v>
       </c>
       <c r="G15" t="n">
-        <v>-10824753.91574559</v>
+        <v>-13972941.60783554</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.814</v>
+        <v>1.809</v>
       </c>
       <c r="C16" t="n">
-        <v>1.814</v>
+        <v>1.809</v>
       </c>
       <c r="D16" t="n">
-        <v>1.814</v>
+        <v>1.809</v>
       </c>
       <c r="E16" t="n">
-        <v>1.814</v>
+        <v>1.809</v>
       </c>
       <c r="F16" t="n">
-        <v>6133.3812</v>
+        <v>290</v>
       </c>
       <c r="G16" t="n">
-        <v>-10818620.53454559</v>
+        <v>-13972651.60783554</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.814</v>
+        <v>1.809</v>
       </c>
       <c r="C17" t="n">
-        <v>1.813</v>
+        <v>1.809</v>
       </c>
       <c r="D17" t="n">
-        <v>1.814</v>
+        <v>1.809</v>
       </c>
       <c r="E17" t="n">
-        <v>1.813</v>
+        <v>1.809</v>
       </c>
       <c r="F17" t="n">
-        <v>153264.8384</v>
+        <v>29657.1444</v>
       </c>
       <c r="G17" t="n">
-        <v>-10971885.37294559</v>
+        <v>-13972651.60783554</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="C18" t="n">
-        <v>1.811</v>
+        <v>1.79</v>
       </c>
       <c r="D18" t="n">
-        <v>1.811</v>
+        <v>1.791</v>
       </c>
       <c r="E18" t="n">
-        <v>1.811</v>
+        <v>1.79</v>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>115554.7649</v>
       </c>
       <c r="G18" t="n">
-        <v>-10972885.37294559</v>
+        <v>-14088206.37273554</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.813</v>
+        <v>1.806</v>
       </c>
       <c r="C19" t="n">
-        <v>1.813</v>
+        <v>1.806</v>
       </c>
       <c r="D19" t="n">
-        <v>1.813</v>
+        <v>1.806</v>
       </c>
       <c r="E19" t="n">
-        <v>1.813</v>
+        <v>1.806</v>
       </c>
       <c r="F19" t="n">
-        <v>12629.2973</v>
+        <v>216998</v>
       </c>
       <c r="G19" t="n">
-        <v>-10960256.07564559</v>
+        <v>-13871208.37273554</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.813</v>
+        <v>1.806</v>
       </c>
       <c r="C20" t="n">
-        <v>1.813</v>
+        <v>1.807</v>
       </c>
       <c r="D20" t="n">
-        <v>1.813</v>
+        <v>1.807</v>
       </c>
       <c r="E20" t="n">
-        <v>1.813</v>
+        <v>1.806</v>
       </c>
       <c r="F20" t="n">
-        <v>36318.2721</v>
+        <v>116701</v>
       </c>
       <c r="G20" t="n">
-        <v>-10960256.07564559</v>
+        <v>-13754507.37273554</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.812</v>
+        <v>1.806</v>
       </c>
       <c r="C21" t="n">
-        <v>1.83</v>
+        <v>1.806</v>
       </c>
       <c r="D21" t="n">
-        <v>1.83</v>
+        <v>1.806</v>
       </c>
       <c r="E21" t="n">
-        <v>1.812</v>
+        <v>1.806</v>
       </c>
       <c r="F21" t="n">
-        <v>218609.0888100546</v>
+        <v>120000</v>
       </c>
       <c r="G21" t="n">
-        <v>-10741646.98683554</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.83</v>
+        <v>1.806</v>
       </c>
       <c r="C22" t="n">
-        <v>1.83</v>
+        <v>1.806</v>
       </c>
       <c r="D22" t="n">
-        <v>1.83</v>
+        <v>1.806</v>
       </c>
       <c r="E22" t="n">
-        <v>1.83</v>
+        <v>1.806</v>
       </c>
       <c r="F22" t="n">
-        <v>122629.9878</v>
+        <v>29667</v>
       </c>
       <c r="G22" t="n">
-        <v>-10741646.98683554</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.799</v>
+        <v>1.806</v>
       </c>
       <c r="C23" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="D23" t="n">
-        <v>1.799</v>
+        <v>1.806</v>
       </c>
       <c r="E23" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="F23" t="n">
-        <v>140366.6075</v>
+        <v>828.4707</v>
       </c>
       <c r="G23" t="n">
-        <v>-10882013.59433554</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="C24" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="D24" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="E24" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="F24" t="n">
-        <v>92855.9679</v>
+        <v>656.7006</v>
       </c>
       <c r="G24" t="n">
-        <v>-10882013.59433554</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="C25" t="n">
-        <v>1.773</v>
+        <v>1.806</v>
       </c>
       <c r="D25" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="E25" t="n">
-        <v>1.773</v>
+        <v>1.806</v>
       </c>
       <c r="F25" t="n">
-        <v>272404.4908</v>
+        <v>19208.0338</v>
       </c>
       <c r="G25" t="n">
-        <v>-11154418.08513554</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="C26" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="D26" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="E26" t="n">
-        <v>1.8</v>
+        <v>1.806</v>
       </c>
       <c r="F26" t="n">
-        <v>11952.8013</v>
+        <v>1626</v>
       </c>
       <c r="G26" t="n">
-        <v>-11142465.28383554</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.799</v>
+        <v>1.791</v>
       </c>
       <c r="C27" t="n">
-        <v>1.799</v>
+        <v>1.806</v>
       </c>
       <c r="D27" t="n">
-        <v>1.799</v>
+        <v>1.806</v>
       </c>
       <c r="E27" t="n">
-        <v>1.799</v>
+        <v>1.791</v>
       </c>
       <c r="F27" t="n">
-        <v>30253.3715</v>
+        <v>143455.7792</v>
       </c>
       <c r="G27" t="n">
-        <v>-11172718.65533554</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.78</v>
+        <v>1.806</v>
       </c>
       <c r="C28" t="n">
-        <v>1.78</v>
+        <v>1.807</v>
       </c>
       <c r="D28" t="n">
-        <v>1.78</v>
+        <v>1.807</v>
       </c>
       <c r="E28" t="n">
-        <v>1.78</v>
+        <v>1.806</v>
       </c>
       <c r="F28" t="n">
-        <v>92855.9679</v>
+        <v>80000</v>
       </c>
       <c r="G28" t="n">
-        <v>-11265574.62323554</v>
+        <v>-13794507.37273554</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.79</v>
+        <v>1.807</v>
       </c>
       <c r="C29" t="n">
-        <v>1.79</v>
+        <v>1.812</v>
       </c>
       <c r="D29" t="n">
-        <v>1.79</v>
+        <v>1.812</v>
       </c>
       <c r="E29" t="n">
-        <v>1.79</v>
+        <v>1.807</v>
       </c>
       <c r="F29" t="n">
-        <v>31039.5731</v>
+        <v>205161.0894</v>
       </c>
       <c r="G29" t="n">
-        <v>-11234535.05013554</v>
+        <v>-13589346.28333554</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.789</v>
+        <v>1.827</v>
       </c>
       <c r="C30" t="n">
-        <v>1.789</v>
+        <v>1.827</v>
       </c>
       <c r="D30" t="n">
-        <v>1.789</v>
+        <v>1.827</v>
       </c>
       <c r="E30" t="n">
-        <v>1.789</v>
+        <v>1.827</v>
       </c>
       <c r="F30" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="G30" t="n">
-        <v>-11235535.05013554</v>
+        <v>-13589056.28333554</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.78</v>
+        <v>1.826</v>
       </c>
       <c r="C31" t="n">
-        <v>1.78</v>
+        <v>1.842</v>
       </c>
       <c r="D31" t="n">
-        <v>1.78</v>
+        <v>1.842</v>
       </c>
       <c r="E31" t="n">
-        <v>1.78</v>
+        <v>1.826</v>
       </c>
       <c r="F31" t="n">
-        <v>320000</v>
+        <v>180808.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-11555535.05013554</v>
+        <v>-13408247.78333554</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.779</v>
+        <v>1.842</v>
       </c>
       <c r="C32" t="n">
-        <v>1.77</v>
+        <v>1.842</v>
       </c>
       <c r="D32" t="n">
-        <v>1.779</v>
+        <v>1.842</v>
       </c>
       <c r="E32" t="n">
-        <v>1.77</v>
+        <v>1.842</v>
       </c>
       <c r="F32" t="n">
-        <v>610915.6381</v>
+        <v>76510</v>
       </c>
       <c r="G32" t="n">
-        <v>-12166450.68823554</v>
+        <v>-13408247.78333554</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.79</v>
+        <v>1.842</v>
       </c>
       <c r="C33" t="n">
-        <v>1.79</v>
+        <v>1.846</v>
       </c>
       <c r="D33" t="n">
-        <v>1.79</v>
+        <v>1.846</v>
       </c>
       <c r="E33" t="n">
-        <v>1.79</v>
+        <v>1.842</v>
       </c>
       <c r="F33" t="n">
-        <v>62941.529</v>
+        <v>621874.5609</v>
       </c>
       <c r="G33" t="n">
-        <v>-12103509.15923554</v>
+        <v>-12786373.22243554</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.79</v>
+        <v>1.847</v>
       </c>
       <c r="C34" t="n">
-        <v>1.8</v>
+        <v>1.847</v>
       </c>
       <c r="D34" t="n">
-        <v>1.8</v>
+        <v>1.847</v>
       </c>
       <c r="E34" t="n">
-        <v>1.79</v>
+        <v>1.847</v>
       </c>
       <c r="F34" t="n">
-        <v>1200384.6871</v>
+        <v>167504.1875</v>
       </c>
       <c r="G34" t="n">
-        <v>-10903124.47213554</v>
+        <v>-12618869.03493554</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="C35" t="n">
-        <v>1.8</v>
+        <v>1.887</v>
       </c>
       <c r="D35" t="n">
-        <v>1.8</v>
+        <v>1.887</v>
       </c>
       <c r="E35" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="F35" t="n">
-        <v>17337.7656</v>
+        <v>841304.5742</v>
       </c>
       <c r="G35" t="n">
-        <v>-10903124.47213554</v>
+        <v>-11777564.46073554</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.812</v>
+        <v>1.887</v>
       </c>
       <c r="C36" t="n">
-        <v>1.812</v>
+        <v>1.891</v>
       </c>
       <c r="D36" t="n">
-        <v>1.812</v>
+        <v>1.9</v>
       </c>
       <c r="E36" t="n">
-        <v>1.812</v>
+        <v>1.887</v>
       </c>
       <c r="F36" t="n">
-        <v>276</v>
+        <v>1110662.484</v>
       </c>
       <c r="G36" t="n">
-        <v>-10902848.47213554</v>
+        <v>-10666901.97673554</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.804</v>
+        <v>1.899</v>
       </c>
       <c r="C37" t="n">
-        <v>1.804</v>
+        <v>1.899</v>
       </c>
       <c r="D37" t="n">
-        <v>1.804</v>
+        <v>1.899</v>
       </c>
       <c r="E37" t="n">
-        <v>1.804</v>
+        <v>1.899</v>
       </c>
       <c r="F37" t="n">
-        <v>167000</v>
+        <v>262</v>
       </c>
       <c r="G37" t="n">
-        <v>-11069848.47213554</v>
+        <v>-10666639.97673554</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.811</v>
+        <v>1.899</v>
       </c>
       <c r="C38" t="n">
-        <v>1.811</v>
+        <v>1.9</v>
       </c>
       <c r="D38" t="n">
-        <v>1.811</v>
+        <v>1.9</v>
       </c>
       <c r="E38" t="n">
-        <v>1.811</v>
+        <v>1.899</v>
       </c>
       <c r="F38" t="n">
-        <v>290</v>
+        <v>138750.7891</v>
       </c>
       <c r="G38" t="n">
-        <v>-11069558.47213554</v>
+        <v>-10527889.18763554</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.804</v>
+        <v>1.899</v>
       </c>
       <c r="C39" t="n">
-        <v>1.804</v>
+        <v>1.9</v>
       </c>
       <c r="D39" t="n">
-        <v>1.804</v>
+        <v>1.9</v>
       </c>
       <c r="E39" t="n">
-        <v>1.804</v>
+        <v>1.84</v>
       </c>
       <c r="F39" t="n">
-        <v>246.468</v>
+        <v>247895.587</v>
       </c>
       <c r="G39" t="n">
-        <v>-11069804.94013554</v>
+        <v>-10527889.18763554</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.791</v>
+        <v>1.86</v>
       </c>
       <c r="C40" t="n">
-        <v>1.791</v>
+        <v>1.87</v>
       </c>
       <c r="D40" t="n">
-        <v>1.791</v>
+        <v>1.87</v>
       </c>
       <c r="E40" t="n">
-        <v>1.791</v>
+        <v>1.86</v>
       </c>
       <c r="F40" t="n">
-        <v>795.532</v>
+        <v>3101.2</v>
       </c>
       <c r="G40" t="n">
-        <v>-11070600.47213554</v>
+        <v>-10530990.38763554</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.811</v>
+        <v>1.9</v>
       </c>
       <c r="C41" t="n">
-        <v>1.811</v>
+        <v>1.9</v>
       </c>
       <c r="D41" t="n">
-        <v>1.811</v>
+        <v>1.9</v>
       </c>
       <c r="E41" t="n">
-        <v>1.811</v>
+        <v>1.9</v>
       </c>
       <c r="F41" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G41" t="n">
-        <v>-11070300.47213554</v>
+        <v>-10530700.38763554</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.801</v>
+        <v>1.88</v>
       </c>
       <c r="C42" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="D42" t="n">
-        <v>1.801</v>
+        <v>1.88</v>
       </c>
       <c r="E42" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="F42" t="n">
-        <v>80000</v>
+        <v>124990.58</v>
       </c>
       <c r="G42" t="n">
-        <v>-11150300.47213554</v>
+        <v>-10655690.96763554</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="C43" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="D43" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="E43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="F43" t="n">
-        <v>1776541.4504</v>
+        <v>565379.1464</v>
       </c>
       <c r="G43" t="n">
-        <v>-11150300.47213554</v>
+        <v>-11221070.11403554</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="C44" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="D44" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="E44" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="F44" t="n">
-        <v>31473.6082</v>
+        <v>4204.4</v>
       </c>
       <c r="G44" t="n">
-        <v>-11150300.47213554</v>
+        <v>-11225274.51403554</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.791</v>
+        <v>1.86</v>
       </c>
       <c r="C45" t="n">
-        <v>1.791</v>
+        <v>1.86</v>
       </c>
       <c r="D45" t="n">
-        <v>1.791</v>
+        <v>1.86</v>
       </c>
       <c r="E45" t="n">
-        <v>1.791</v>
+        <v>1.86</v>
       </c>
       <c r="F45" t="n">
-        <v>31473.6082</v>
+        <v>12471.6541</v>
       </c>
       <c r="G45" t="n">
-        <v>-11181774.08033554</v>
+        <v>-11212802.85993554</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.811</v>
+        <v>1.859</v>
       </c>
       <c r="C46" t="n">
-        <v>1.811</v>
+        <v>1.859</v>
       </c>
       <c r="D46" t="n">
-        <v>1.811</v>
+        <v>1.859</v>
       </c>
       <c r="E46" t="n">
-        <v>1.811</v>
+        <v>1.859</v>
       </c>
       <c r="F46" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G46" t="n">
-        <v>-11181494.08033554</v>
+        <v>-11213072.85993554</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.808</v>
+        <v>1.858</v>
       </c>
       <c r="C47" t="n">
-        <v>1.79</v>
+        <v>1.842</v>
       </c>
       <c r="D47" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="E47" t="n">
-        <v>1.79</v>
+        <v>1.842</v>
       </c>
       <c r="F47" t="n">
-        <v>2717087.8368</v>
+        <v>384873.3691</v>
       </c>
       <c r="G47" t="n">
-        <v>-13898581.91713554</v>
+        <v>-11597946.22903554</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.8</v>
+        <v>1.872</v>
       </c>
       <c r="C48" t="n">
-        <v>1.8</v>
+        <v>1.872</v>
       </c>
       <c r="D48" t="n">
-        <v>1.8</v>
+        <v>1.872</v>
       </c>
       <c r="E48" t="n">
-        <v>1.8</v>
+        <v>1.872</v>
       </c>
       <c r="F48" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G48" t="n">
-        <v>-13898301.91713554</v>
+        <v>-11597663.22903554</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="C49" t="n">
-        <v>1.811</v>
+        <v>1.85</v>
       </c>
       <c r="D49" t="n">
-        <v>1.811</v>
+        <v>1.85</v>
       </c>
       <c r="E49" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="F49" t="n">
-        <v>4199.2405</v>
+        <v>582.7891</v>
       </c>
       <c r="G49" t="n">
-        <v>-13894102.67663554</v>
+        <v>-11598246.01813554</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.811</v>
+        <v>1.872</v>
       </c>
       <c r="C50" t="n">
-        <v>1.811</v>
+        <v>1.872</v>
       </c>
       <c r="D50" t="n">
-        <v>1.811</v>
+        <v>1.872</v>
       </c>
       <c r="E50" t="n">
-        <v>1.811</v>
+        <v>1.872</v>
       </c>
       <c r="F50" t="n">
-        <v>932.79</v>
+        <v>263</v>
       </c>
       <c r="G50" t="n">
-        <v>-13894102.67663554</v>
+        <v>-11597983.01813554</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.812</v>
+        <v>1.871</v>
       </c>
       <c r="C51" t="n">
-        <v>1.812</v>
+        <v>1.871</v>
       </c>
       <c r="D51" t="n">
-        <v>1.812</v>
+        <v>1.871</v>
       </c>
       <c r="E51" t="n">
-        <v>1.812</v>
+        <v>1.871</v>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>9832.239</v>
       </c>
       <c r="G51" t="n">
-        <v>-13893802.67663554</v>
+        <v>-11607815.25713554</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.791</v>
+        <v>1.851</v>
       </c>
       <c r="C52" t="n">
-        <v>1.812</v>
+        <v>1.871</v>
       </c>
       <c r="D52" t="n">
-        <v>1.812</v>
+        <v>1.871</v>
       </c>
       <c r="E52" t="n">
-        <v>1.791</v>
+        <v>1.851</v>
       </c>
       <c r="F52" t="n">
-        <v>320654.4544</v>
+        <v>53541.9275</v>
       </c>
       <c r="G52" t="n">
-        <v>-13893802.67663554</v>
+        <v>-11607815.25713554</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="C53" t="n">
-        <v>1.81</v>
+        <v>1.843</v>
       </c>
       <c r="D53" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="E53" t="n">
-        <v>1.81</v>
+        <v>1.843</v>
       </c>
       <c r="F53" t="n">
-        <v>67253.58930000001</v>
+        <v>319785.0332</v>
       </c>
       <c r="G53" t="n">
-        <v>-13961056.26593554</v>
+        <v>-11927600.29033554</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.81</v>
+        <v>1.871</v>
       </c>
       <c r="C54" t="n">
-        <v>1.81</v>
+        <v>1.871</v>
       </c>
       <c r="D54" t="n">
-        <v>1.81</v>
+        <v>1.871</v>
       </c>
       <c r="E54" t="n">
-        <v>1.81</v>
+        <v>1.871</v>
       </c>
       <c r="F54" t="n">
-        <v>36765.1117</v>
+        <v>310</v>
       </c>
       <c r="G54" t="n">
-        <v>-13961056.26593554</v>
+        <v>-11927290.29033554</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.81</v>
+        <v>1.846</v>
       </c>
       <c r="C55" t="n">
-        <v>1.791</v>
+        <v>1.846</v>
       </c>
       <c r="D55" t="n">
-        <v>1.81</v>
+        <v>1.846</v>
       </c>
       <c r="E55" t="n">
-        <v>1.791</v>
+        <v>1.846</v>
       </c>
       <c r="F55" t="n">
-        <v>635.0964</v>
+        <v>11048.1339</v>
       </c>
       <c r="G55" t="n">
-        <v>-13961691.36233554</v>
+        <v>-11938338.42423554</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.81</v>
+        <v>1.846</v>
       </c>
       <c r="C56" t="n">
-        <v>1.81</v>
+        <v>1.871</v>
       </c>
       <c r="D56" t="n">
-        <v>1.81</v>
+        <v>1.871</v>
       </c>
       <c r="E56" t="n">
-        <v>1.81</v>
+        <v>1.846</v>
       </c>
       <c r="F56" t="n">
-        <v>274</v>
+        <v>31028.1125</v>
       </c>
       <c r="G56" t="n">
-        <v>-13961417.36233554</v>
+        <v>-11907310.31173554</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.791</v>
+        <v>1.837</v>
       </c>
       <c r="C57" t="n">
-        <v>1.791</v>
+        <v>1.837</v>
       </c>
       <c r="D57" t="n">
-        <v>1.791</v>
+        <v>1.837</v>
       </c>
       <c r="E57" t="n">
-        <v>1.791</v>
+        <v>1.837</v>
       </c>
       <c r="F57" t="n">
-        <v>11524.2455</v>
+        <v>7322.4675</v>
       </c>
       <c r="G57" t="n">
-        <v>-13972941.60783554</v>
+        <v>-11914632.77923553</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.809</v>
+        <v>1.83</v>
       </c>
       <c r="C58" t="n">
-        <v>1.809</v>
+        <v>1.836</v>
       </c>
       <c r="D58" t="n">
-        <v>1.809</v>
+        <v>1.836</v>
       </c>
       <c r="E58" t="n">
-        <v>1.809</v>
+        <v>1.83</v>
       </c>
       <c r="F58" t="n">
-        <v>290</v>
+        <v>299425.8357</v>
       </c>
       <c r="G58" t="n">
-        <v>-13972651.60783554</v>
+        <v>-12214058.61493553</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.809</v>
+        <v>1.863</v>
       </c>
       <c r="C59" t="n">
-        <v>1.809</v>
+        <v>1.836</v>
       </c>
       <c r="D59" t="n">
-        <v>1.809</v>
+        <v>1.863</v>
       </c>
       <c r="E59" t="n">
-        <v>1.809</v>
+        <v>1.836</v>
       </c>
       <c r="F59" t="n">
-        <v>29657.1444</v>
+        <v>162940.2358</v>
       </c>
       <c r="G59" t="n">
-        <v>-13972651.60783554</v>
+        <v>-12214058.61493553</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.791</v>
+        <v>1.839</v>
       </c>
       <c r="C60" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="D60" t="n">
-        <v>1.791</v>
+        <v>1.84</v>
       </c>
       <c r="E60" t="n">
-        <v>1.79</v>
+        <v>1.836</v>
       </c>
       <c r="F60" t="n">
-        <v>115554.7649</v>
+        <v>280166.5686</v>
       </c>
       <c r="G60" t="n">
-        <v>-14088206.37273554</v>
+        <v>-11933892.04633553</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.806</v>
+        <v>1.836</v>
       </c>
       <c r="C61" t="n">
-        <v>1.806</v>
+        <v>1.83</v>
       </c>
       <c r="D61" t="n">
-        <v>1.806</v>
+        <v>1.836</v>
       </c>
       <c r="E61" t="n">
-        <v>1.806</v>
+        <v>1.83</v>
       </c>
       <c r="F61" t="n">
-        <v>216998</v>
+        <v>15539.5398</v>
       </c>
       <c r="G61" t="n">
-        <v>-13871208.37273554</v>
+        <v>-11949431.58613553</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="C62" t="n">
-        <v>1.807</v>
+        <v>1.82</v>
       </c>
       <c r="D62" t="n">
-        <v>1.807</v>
+        <v>1.82</v>
       </c>
       <c r="E62" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="F62" t="n">
-        <v>116701</v>
+        <v>294946.0358</v>
       </c>
       <c r="G62" t="n">
-        <v>-13754507.37273554</v>
+        <v>-12244377.62193553</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="C63" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="D63" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="E63" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="F63" t="n">
-        <v>120000</v>
+        <v>286220.6091</v>
       </c>
       <c r="G63" t="n">
-        <v>-13874507.37273554</v>
+        <v>-12244377.62193553</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="C64" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="D64" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="E64" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="F64" t="n">
-        <v>29667</v>
+        <v>105238.1115</v>
       </c>
       <c r="G64" t="n">
-        <v>-13874507.37273554</v>
+        <v>-12244377.62193553</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="C65" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="D65" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="E65" t="n">
-        <v>1.806</v>
+        <v>1.82</v>
       </c>
       <c r="F65" t="n">
-        <v>828.4707</v>
+        <v>56288.4224</v>
       </c>
       <c r="G65" t="n">
-        <v>-13874507.37273554</v>
+        <v>-12244377.62193553</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.806</v>
+        <v>1.85</v>
       </c>
       <c r="C66" t="n">
-        <v>1.806</v>
+        <v>1.85</v>
       </c>
       <c r="D66" t="n">
-        <v>1.806</v>
+        <v>1.85</v>
       </c>
       <c r="E66" t="n">
-        <v>1.806</v>
+        <v>1.85</v>
       </c>
       <c r="F66" t="n">
-        <v>656.7006</v>
+        <v>395.7403</v>
       </c>
       <c r="G66" t="n">
-        <v>-13874507.37273554</v>
+        <v>-12243981.88163553</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.806</v>
+        <v>1.822</v>
       </c>
       <c r="C67" t="n">
-        <v>1.806</v>
+        <v>1.822</v>
       </c>
       <c r="D67" t="n">
-        <v>1.806</v>
+        <v>1.822</v>
       </c>
       <c r="E67" t="n">
-        <v>1.806</v>
+        <v>1.822</v>
       </c>
       <c r="F67" t="n">
-        <v>19208.0338</v>
+        <v>7000</v>
       </c>
       <c r="G67" t="n">
-        <v>-13874507.37273554</v>
+        <v>-12250981.88163553</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.806</v>
+        <v>1.849</v>
       </c>
       <c r="C68" t="n">
-        <v>1.806</v>
+        <v>1.849</v>
       </c>
       <c r="D68" t="n">
-        <v>1.806</v>
+        <v>1.849</v>
       </c>
       <c r="E68" t="n">
-        <v>1.806</v>
+        <v>1.849</v>
       </c>
       <c r="F68" t="n">
-        <v>1626</v>
+        <v>290</v>
       </c>
       <c r="G68" t="n">
-        <v>-13874507.37273554</v>
+        <v>-12250691.88163553</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.791</v>
+        <v>1.848</v>
       </c>
       <c r="C69" t="n">
-        <v>1.806</v>
+        <v>1.848</v>
       </c>
       <c r="D69" t="n">
-        <v>1.806</v>
+        <v>1.848</v>
       </c>
       <c r="E69" t="n">
-        <v>1.791</v>
+        <v>1.848</v>
       </c>
       <c r="F69" t="n">
-        <v>143455.7792</v>
+        <v>5076.2628</v>
       </c>
       <c r="G69" t="n">
-        <v>-13874507.37273554</v>
+        <v>-12255768.14443553</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.806</v>
+        <v>1.823</v>
       </c>
       <c r="C70" t="n">
-        <v>1.807</v>
+        <v>1.848</v>
       </c>
       <c r="D70" t="n">
-        <v>1.807</v>
+        <v>1.848</v>
       </c>
       <c r="E70" t="n">
-        <v>1.806</v>
+        <v>1.813</v>
       </c>
       <c r="F70" t="n">
-        <v>80000</v>
+        <v>25818.7494</v>
       </c>
       <c r="G70" t="n">
-        <v>-13794507.37273554</v>
+        <v>-12255768.14443553</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.807</v>
+        <v>1.813</v>
       </c>
       <c r="C71" t="n">
-        <v>1.812</v>
+        <v>1.81</v>
       </c>
       <c r="D71" t="n">
-        <v>1.812</v>
+        <v>1.813</v>
       </c>
       <c r="E71" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="F71" t="n">
-        <v>205161.0894</v>
+        <v>90000</v>
       </c>
       <c r="G71" t="n">
-        <v>-13589346.28333554</v>
+        <v>-12345768.14443553</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.827</v>
+        <v>1.839</v>
       </c>
       <c r="C72" t="n">
-        <v>1.827</v>
+        <v>1.839</v>
       </c>
       <c r="D72" t="n">
-        <v>1.827</v>
+        <v>1.839</v>
       </c>
       <c r="E72" t="n">
-        <v>1.827</v>
+        <v>1.839</v>
       </c>
       <c r="F72" t="n">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="G72" t="n">
-        <v>-13589056.28333554</v>
+        <v>-12345497.14443553</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.826</v>
+        <v>1.808</v>
       </c>
       <c r="C73" t="n">
-        <v>1.842</v>
+        <v>1.806</v>
       </c>
       <c r="D73" t="n">
-        <v>1.842</v>
+        <v>1.808</v>
       </c>
       <c r="E73" t="n">
-        <v>1.826</v>
+        <v>1.806</v>
       </c>
       <c r="F73" t="n">
-        <v>180808.5</v>
+        <v>140000</v>
       </c>
       <c r="G73" t="n">
-        <v>-13408247.78333554</v>
+        <v>-12485497.14443553</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.842</v>
+        <v>1.837</v>
       </c>
       <c r="C74" t="n">
-        <v>1.842</v>
+        <v>1.837</v>
       </c>
       <c r="D74" t="n">
-        <v>1.842</v>
+        <v>1.837</v>
       </c>
       <c r="E74" t="n">
-        <v>1.842</v>
+        <v>1.837</v>
       </c>
       <c r="F74" t="n">
-        <v>76510</v>
+        <v>290</v>
       </c>
       <c r="G74" t="n">
-        <v>-13408247.78333554</v>
+        <v>-12485207.14443553</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.842</v>
+        <v>1.803</v>
       </c>
       <c r="C75" t="n">
-        <v>1.846</v>
+        <v>1.837</v>
       </c>
       <c r="D75" t="n">
-        <v>1.846</v>
+        <v>1.837</v>
       </c>
       <c r="E75" t="n">
-        <v>1.842</v>
+        <v>1.8</v>
       </c>
       <c r="F75" t="n">
-        <v>621874.5609</v>
+        <v>199841.0431</v>
       </c>
       <c r="G75" t="n">
-        <v>-12786373.22243554</v>
+        <v>-12485207.14443553</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.847</v>
+        <v>1.796</v>
       </c>
       <c r="C76" t="n">
-        <v>1.847</v>
+        <v>1.836</v>
       </c>
       <c r="D76" t="n">
-        <v>1.847</v>
+        <v>1.836</v>
       </c>
       <c r="E76" t="n">
-        <v>1.847</v>
+        <v>1.796</v>
       </c>
       <c r="F76" t="n">
-        <v>167504.1875</v>
+        <v>193450.3195</v>
       </c>
       <c r="G76" t="n">
-        <v>-12618869.03493554</v>
+        <v>-12678657.46393553</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="C77" t="n">
-        <v>1.887</v>
+        <v>1.795</v>
       </c>
       <c r="D77" t="n">
-        <v>1.887</v>
+        <v>1.8</v>
       </c>
       <c r="E77" t="n">
-        <v>1.86</v>
+        <v>1.795</v>
       </c>
       <c r="F77" t="n">
-        <v>841304.5742</v>
+        <v>260872.5008</v>
       </c>
       <c r="G77" t="n">
-        <v>-11777564.46073554</v>
+        <v>-12939529.96473553</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.887</v>
+        <v>1.835</v>
       </c>
       <c r="C78" t="n">
-        <v>1.891</v>
+        <v>1.835</v>
       </c>
       <c r="D78" t="n">
-        <v>1.9</v>
+        <v>1.835</v>
       </c>
       <c r="E78" t="n">
-        <v>1.887</v>
+        <v>1.835</v>
       </c>
       <c r="F78" t="n">
-        <v>1110662.484</v>
+        <v>273</v>
       </c>
       <c r="G78" t="n">
-        <v>-10666901.97673554</v>
+        <v>-12939256.96473553</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.899</v>
+        <v>1.81</v>
       </c>
       <c r="C79" t="n">
-        <v>1.899</v>
+        <v>1.795</v>
       </c>
       <c r="D79" t="n">
-        <v>1.899</v>
+        <v>1.81</v>
       </c>
       <c r="E79" t="n">
-        <v>1.899</v>
+        <v>1.795</v>
       </c>
       <c r="F79" t="n">
-        <v>262</v>
+        <v>234785.2507</v>
       </c>
       <c r="G79" t="n">
-        <v>-10666639.97673554</v>
+        <v>-13174042.21543553</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,34 +3239,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.899</v>
+        <v>1.835</v>
       </c>
       <c r="C80" t="n">
-        <v>1.9</v>
+        <v>1.835</v>
       </c>
       <c r="D80" t="n">
-        <v>1.9</v>
+        <v>1.835</v>
       </c>
       <c r="E80" t="n">
-        <v>1.899</v>
+        <v>1.835</v>
       </c>
       <c r="F80" t="n">
-        <v>138750.7891</v>
+        <v>272</v>
       </c>
       <c r="G80" t="n">
-        <v>-10527889.18763554</v>
+        <v>-13173770.21543553</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3192,34 +3275,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.899</v>
+        <v>1.795</v>
       </c>
       <c r="C81" t="n">
-        <v>1.9</v>
+        <v>1.784</v>
       </c>
       <c r="D81" t="n">
-        <v>1.9</v>
+        <v>1.795</v>
       </c>
       <c r="E81" t="n">
-        <v>1.84</v>
+        <v>1.784</v>
       </c>
       <c r="F81" t="n">
-        <v>247895.587</v>
+        <v>2508548.6454</v>
       </c>
       <c r="G81" t="n">
-        <v>-10527889.18763554</v>
+        <v>-15682318.86083553</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3227,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.86</v>
+        <v>1.784</v>
       </c>
       <c r="C82" t="n">
-        <v>1.87</v>
+        <v>1.784</v>
       </c>
       <c r="D82" t="n">
-        <v>1.87</v>
+        <v>1.784</v>
       </c>
       <c r="E82" t="n">
-        <v>1.86</v>
+        <v>1.784</v>
       </c>
       <c r="F82" t="n">
-        <v>3101.2</v>
+        <v>362979.31</v>
       </c>
       <c r="G82" t="n">
-        <v>-10530990.38763554</v>
+        <v>-15682318.86083553</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9</v>
+        <v>1.783</v>
       </c>
       <c r="C83" t="n">
-        <v>1.9</v>
+        <v>1.783</v>
       </c>
       <c r="D83" t="n">
-        <v>1.9</v>
+        <v>1.783</v>
       </c>
       <c r="E83" t="n">
-        <v>1.9</v>
+        <v>1.783</v>
       </c>
       <c r="F83" t="n">
-        <v>290</v>
+        <v>386262.5878</v>
       </c>
       <c r="G83" t="n">
-        <v>-10530700.38763554</v>
+        <v>-16068581.44863553</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,34 +3383,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.88</v>
+        <v>1.782</v>
       </c>
       <c r="C84" t="n">
-        <v>1.88</v>
+        <v>1.775</v>
       </c>
       <c r="D84" t="n">
-        <v>1.88</v>
+        <v>1.782</v>
       </c>
       <c r="E84" t="n">
-        <v>1.88</v>
+        <v>1.765</v>
       </c>
       <c r="F84" t="n">
-        <v>124990.58</v>
+        <v>1482970.5392</v>
       </c>
       <c r="G84" t="n">
-        <v>-10655690.96763554</v>
+        <v>-17551551.98783553</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,34 +3419,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.88</v>
+        <v>1.775</v>
       </c>
       <c r="C85" t="n">
-        <v>1.86</v>
+        <v>1.836</v>
       </c>
       <c r="D85" t="n">
-        <v>1.88</v>
+        <v>1.836</v>
       </c>
       <c r="E85" t="n">
-        <v>1.83</v>
+        <v>1.775</v>
       </c>
       <c r="F85" t="n">
-        <v>565379.1464</v>
+        <v>221139.7695</v>
       </c>
       <c r="G85" t="n">
-        <v>-11221070.11403554</v>
+        <v>-17330412.21833554</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.84</v>
+        <v>1.779</v>
       </c>
       <c r="C86" t="n">
-        <v>1.84</v>
+        <v>1.779</v>
       </c>
       <c r="D86" t="n">
-        <v>1.84</v>
+        <v>1.779</v>
       </c>
       <c r="E86" t="n">
-        <v>1.84</v>
+        <v>1.779</v>
       </c>
       <c r="F86" t="n">
-        <v>4204.4</v>
+        <v>36955.6939</v>
       </c>
       <c r="G86" t="n">
-        <v>-11225274.51403554</v>
+        <v>-17367367.91223554</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.86</v>
+        <v>1.779</v>
       </c>
       <c r="C87" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="D87" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="E87" t="n">
-        <v>1.86</v>
+        <v>1.779</v>
       </c>
       <c r="F87" t="n">
-        <v>12471.6541</v>
+        <v>3574.1754</v>
       </c>
       <c r="G87" t="n">
-        <v>-11212802.85993554</v>
+        <v>-17363793.73683554</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.859</v>
+        <v>1.795</v>
       </c>
       <c r="C88" t="n">
-        <v>1.859</v>
+        <v>1.787</v>
       </c>
       <c r="D88" t="n">
-        <v>1.859</v>
+        <v>1.795</v>
       </c>
       <c r="E88" t="n">
-        <v>1.859</v>
+        <v>1.787</v>
       </c>
       <c r="F88" t="n">
-        <v>270</v>
+        <v>93779.6698</v>
       </c>
       <c r="G88" t="n">
-        <v>-11213072.85993554</v>
+        <v>-17457573.40663553</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.858</v>
+        <v>1.787</v>
       </c>
       <c r="C89" t="n">
-        <v>1.842</v>
+        <v>1.787</v>
       </c>
       <c r="D89" t="n">
-        <v>1.86</v>
+        <v>1.787</v>
       </c>
       <c r="E89" t="n">
-        <v>1.842</v>
+        <v>1.787</v>
       </c>
       <c r="F89" t="n">
-        <v>384873.3691</v>
+        <v>5595.8471</v>
       </c>
       <c r="G89" t="n">
-        <v>-11597946.22903554</v>
+        <v>-17457573.40663553</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.872</v>
+        <v>1.778</v>
       </c>
       <c r="C90" t="n">
-        <v>1.872</v>
+        <v>1.786</v>
       </c>
       <c r="D90" t="n">
-        <v>1.872</v>
+        <v>1.786</v>
       </c>
       <c r="E90" t="n">
-        <v>1.872</v>
+        <v>1.778</v>
       </c>
       <c r="F90" t="n">
-        <v>283</v>
+        <v>136727.1732</v>
       </c>
       <c r="G90" t="n">
-        <v>-11597663.22903554</v>
+        <v>-17594300.57983553</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,34 +3635,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.85</v>
+        <v>1.781</v>
       </c>
       <c r="C91" t="n">
-        <v>1.85</v>
+        <v>1.779</v>
       </c>
       <c r="D91" t="n">
-        <v>1.85</v>
+        <v>1.781</v>
       </c>
       <c r="E91" t="n">
-        <v>1.85</v>
+        <v>1.779</v>
       </c>
       <c r="F91" t="n">
-        <v>582.7891</v>
+        <v>759714.3837</v>
       </c>
       <c r="G91" t="n">
-        <v>-11598246.01813554</v>
+        <v>-18354014.96353553</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.872</v>
+        <v>1.779</v>
       </c>
       <c r="C92" t="n">
-        <v>1.872</v>
+        <v>1.78</v>
       </c>
       <c r="D92" t="n">
-        <v>1.872</v>
+        <v>1.78</v>
       </c>
       <c r="E92" t="n">
-        <v>1.872</v>
+        <v>1.779</v>
       </c>
       <c r="F92" t="n">
-        <v>263</v>
+        <v>438187.6978</v>
       </c>
       <c r="G92" t="n">
-        <v>-11597983.01813554</v>
+        <v>-17915827.26573553</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,34 +3707,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.871</v>
+        <v>1.778</v>
       </c>
       <c r="C93" t="n">
-        <v>1.871</v>
+        <v>1.777</v>
       </c>
       <c r="D93" t="n">
-        <v>1.871</v>
+        <v>1.778</v>
       </c>
       <c r="E93" t="n">
-        <v>1.871</v>
+        <v>1.777</v>
       </c>
       <c r="F93" t="n">
-        <v>9832.239</v>
+        <v>241889.7904</v>
       </c>
       <c r="G93" t="n">
-        <v>-11607815.25713554</v>
+        <v>-18157717.05613553</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3647,34 +3743,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.851</v>
+        <v>1.778</v>
       </c>
       <c r="C94" t="n">
-        <v>1.871</v>
+        <v>1.778</v>
       </c>
       <c r="D94" t="n">
-        <v>1.871</v>
+        <v>1.778</v>
       </c>
       <c r="E94" t="n">
-        <v>1.851</v>
+        <v>1.778</v>
       </c>
       <c r="F94" t="n">
-        <v>53541.9275</v>
+        <v>154548.2627</v>
       </c>
       <c r="G94" t="n">
-        <v>-11607815.25713554</v>
+        <v>-18003168.79343553</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3682,34 +3779,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="C95" t="n">
-        <v>1.843</v>
+        <v>1.79</v>
       </c>
       <c r="D95" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="E95" t="n">
-        <v>1.843</v>
+        <v>1.79</v>
       </c>
       <c r="F95" t="n">
-        <v>319785.0332</v>
+        <v>280</v>
       </c>
       <c r="G95" t="n">
-        <v>-11927600.29033554</v>
+        <v>-18002888.79343553</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.871</v>
+        <v>1.777</v>
       </c>
       <c r="C96" t="n">
-        <v>1.871</v>
+        <v>1.764</v>
       </c>
       <c r="D96" t="n">
-        <v>1.871</v>
+        <v>1.777</v>
       </c>
       <c r="E96" t="n">
-        <v>1.871</v>
+        <v>1.764</v>
       </c>
       <c r="F96" t="n">
-        <v>310</v>
+        <v>389466.2061</v>
       </c>
       <c r="G96" t="n">
-        <v>-11927290.29033554</v>
+        <v>-18392354.99953553</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,34 +3851,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.846</v>
+        <v>1.79</v>
       </c>
       <c r="C97" t="n">
-        <v>1.846</v>
+        <v>1.762</v>
       </c>
       <c r="D97" t="n">
-        <v>1.846</v>
+        <v>1.79</v>
       </c>
       <c r="E97" t="n">
-        <v>1.846</v>
+        <v>1.762</v>
       </c>
       <c r="F97" t="n">
-        <v>11048.1339</v>
+        <v>561</v>
       </c>
       <c r="G97" t="n">
-        <v>-11938338.42423554</v>
+        <v>-18392915.99953553</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3787,168 +3887,201 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.846</v>
+        <v>1.762</v>
       </c>
       <c r="C98" t="n">
-        <v>1.871</v>
+        <v>1.762</v>
       </c>
       <c r="D98" t="n">
-        <v>1.871</v>
+        <v>1.762</v>
       </c>
       <c r="E98" t="n">
-        <v>1.846</v>
+        <v>1.762</v>
       </c>
       <c r="F98" t="n">
-        <v>31028.1125</v>
+        <v>493266.8141</v>
       </c>
       <c r="G98" t="n">
-        <v>-11907310.31173554</v>
+        <v>-18392915.99953553</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.762</v>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.837</v>
+        <v>1.79</v>
       </c>
       <c r="C99" t="n">
-        <v>1.837</v>
+        <v>1.79</v>
       </c>
       <c r="D99" t="n">
-        <v>1.837</v>
+        <v>1.79</v>
       </c>
       <c r="E99" t="n">
-        <v>1.837</v>
+        <v>1.79</v>
       </c>
       <c r="F99" t="n">
-        <v>7322.4675</v>
+        <v>280</v>
       </c>
       <c r="G99" t="n">
-        <v>-11914632.77923553</v>
+        <v>-18392635.99953553</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="C100" t="n">
-        <v>1.836</v>
+        <v>1.81</v>
       </c>
       <c r="D100" t="n">
-        <v>1.836</v>
+        <v>1.81</v>
       </c>
       <c r="E100" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F100" t="n">
-        <v>299425.8357</v>
+        <v>278</v>
       </c>
       <c r="G100" t="n">
-        <v>-12214058.61493553</v>
+        <v>-18392357.99953553</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.863</v>
+        <v>1.81</v>
       </c>
       <c r="C101" t="n">
-        <v>1.836</v>
+        <v>1.81</v>
       </c>
       <c r="D101" t="n">
-        <v>1.863</v>
+        <v>1.813</v>
       </c>
       <c r="E101" t="n">
-        <v>1.836</v>
+        <v>1.81</v>
       </c>
       <c r="F101" t="n">
-        <v>162940.2358</v>
+        <v>1738.33</v>
       </c>
       <c r="G101" t="n">
-        <v>-12214058.61493553</v>
+        <v>-18392357.99953553</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.839</v>
+        <v>1.813</v>
       </c>
       <c r="C102" t="n">
-        <v>1.84</v>
+        <v>1.813</v>
       </c>
       <c r="D102" t="n">
-        <v>1.84</v>
+        <v>1.813</v>
       </c>
       <c r="E102" t="n">
-        <v>1.836</v>
+        <v>1.813</v>
       </c>
       <c r="F102" t="n">
-        <v>280166.5686</v>
+        <v>278</v>
       </c>
       <c r="G102" t="n">
-        <v>-11933892.04633553</v>
+        <v>-18392079.99953553</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,33 +4090,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.836</v>
+        <v>1.81</v>
       </c>
       <c r="C103" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="D103" t="n">
-        <v>1.836</v>
+        <v>1.81</v>
       </c>
       <c r="E103" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="F103" t="n">
-        <v>15539.5398</v>
+        <v>371709.1932</v>
       </c>
       <c r="G103" t="n">
-        <v>-11949431.58613553</v>
+        <v>-18763789.19273553</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,33 +4132,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.82</v>
+        <v>1.809</v>
       </c>
       <c r="C104" t="n">
-        <v>1.82</v>
+        <v>1.809</v>
       </c>
       <c r="D104" t="n">
-        <v>1.82</v>
+        <v>1.809</v>
       </c>
       <c r="E104" t="n">
-        <v>1.82</v>
+        <v>1.809</v>
       </c>
       <c r="F104" t="n">
-        <v>294946.0358</v>
+        <v>275</v>
       </c>
       <c r="G104" t="n">
-        <v>-12244377.62193553</v>
+        <v>-18763514.19273553</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,1711 +4174,194 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="C105" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="D105" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="E105" t="n">
-        <v>1.82</v>
+        <v>1.772</v>
       </c>
       <c r="F105" t="n">
-        <v>286220.6091</v>
+        <v>158801.0695</v>
       </c>
       <c r="G105" t="n">
-        <v>-12244377.62193553</v>
+        <v>-18922315.26223553</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.82</v>
+        <v>1.772</v>
       </c>
       <c r="C106" t="n">
-        <v>1.82</v>
+        <v>1.761</v>
       </c>
       <c r="D106" t="n">
-        <v>1.82</v>
+        <v>1.772</v>
       </c>
       <c r="E106" t="n">
-        <v>1.82</v>
+        <v>1.761</v>
       </c>
       <c r="F106" t="n">
-        <v>105238.1115</v>
+        <v>546086.5898</v>
       </c>
       <c r="G106" t="n">
-        <v>-12244377.62193553</v>
+        <v>-19468401.85203553</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.82</v>
+        <v>1.778</v>
       </c>
       <c r="C107" t="n">
-        <v>1.82</v>
+        <v>1.778</v>
       </c>
       <c r="D107" t="n">
-        <v>1.82</v>
+        <v>1.778</v>
       </c>
       <c r="E107" t="n">
-        <v>1.82</v>
+        <v>1.778</v>
       </c>
       <c r="F107" t="n">
-        <v>56288.4224</v>
+        <v>300</v>
       </c>
       <c r="G107" t="n">
-        <v>-12244377.62193553</v>
+        <v>-19468101.85203553</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.85</v>
+        <v>1.776</v>
       </c>
       <c r="C108" t="n">
-        <v>1.85</v>
+        <v>1.776</v>
       </c>
       <c r="D108" t="n">
-        <v>1.85</v>
+        <v>1.776</v>
       </c>
       <c r="E108" t="n">
-        <v>1.85</v>
+        <v>1.776</v>
       </c>
       <c r="F108" t="n">
-        <v>395.7403</v>
+        <v>20000</v>
       </c>
       <c r="G108" t="n">
-        <v>-12243981.88163553</v>
+        <v>-19488101.85203553</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="F109" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-12250981.88163553</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.849</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.849</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.849</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.849</v>
-      </c>
-      <c r="F110" t="n">
-        <v>290</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-12250691.88163553</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5076.2628</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-12255768.14443553</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="F112" t="n">
-        <v>25818.7494</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-12255768.14443553</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F113" t="n">
-        <v>90000</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-12345768.14443553</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="F114" t="n">
-        <v>271</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-12345497.14443553</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F115" t="n">
-        <v>140000</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-12485497.14443553</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="F116" t="n">
-        <v>290</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-12485207.14443553</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F117" t="n">
-        <v>199841.0431</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-12485207.14443553</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="F118" t="n">
-        <v>193450.3195</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-12678657.46393553</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="F119" t="n">
-        <v>260872.5008</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-12939529.96473553</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="F120" t="n">
-        <v>273</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-12939256.96473553</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="F121" t="n">
-        <v>234785.2507</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-13174042.21543553</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="F122" t="n">
-        <v>272</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-13173770.21543553</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2508548.6454</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-15682318.86083553</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="F124" t="n">
-        <v>362979.31</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-15682318.86083553</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="F125" t="n">
-        <v>386262.5878</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-16068581.44863553</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1482970.5392</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-17551551.98783553</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="F127" t="n">
-        <v>221139.7695</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-17330412.21833554</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F128" t="n">
-        <v>36955.6939</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-17367367.91223554</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F129" t="n">
-        <v>3574.1754</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-17363793.73683554</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="F130" t="n">
-        <v>93779.6698</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-17457573.40663553</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="F131" t="n">
-        <v>5595.8471</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-17457573.40663553</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
+      <c r="J108" t="n">
         <v>1.778</v>
       </c>
-      <c r="C132" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="F132" t="n">
-        <v>136727.1732</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-17594300.57983553</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F133" t="n">
-        <v>759714.3837</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-18354014.96353553</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F134" t="n">
-        <v>438187.6978</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-17915827.26573553</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="F135" t="n">
-        <v>241889.7904</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-18157717.05613553</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="F136" t="n">
-        <v>154548.2627</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-18003168.79343553</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F137" t="n">
-        <v>280</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-18002888.79343553</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="F138" t="n">
-        <v>389466.2061</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-18392354.99953553</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="K138" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C139" t="n">
+      <c r="K108" t="n">
         <v>1.762</v>
       </c>
-      <c r="D139" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="F139" t="n">
-        <v>561</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-18392915.99953553</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="K139" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="F140" t="n">
-        <v>493266.8141</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-18392915.99953553</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="K140" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F141" t="n">
-        <v>280</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-18392635.99953553</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="K141" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F142" t="n">
-        <v>278</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-18392357.99953553</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1738.33</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-18392357.99953553</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="F144" t="n">
-        <v>278</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-18392079.99953553</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F145" t="n">
-        <v>371709.1932</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-18763789.19273553</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="F146" t="n">
-        <v>275</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-18763514.19273553</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F147" t="n">
-        <v>158801.0695</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-18922315.26223553</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="F148" t="n">
-        <v>546086.5898</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-19468401.85203553</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="F149" t="n">
-        <v>300</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-19468101.85203553</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.776</v>
-      </c>
-      <c r="F150" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-19488101.85203553</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest MXC.xlsx
+++ b/BackTest/2020-01-23 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>1.828</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8</v>
+        <v>1.828</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>1.828</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8</v>
+        <v>1.828</v>
       </c>
       <c r="F2" t="n">
-        <v>31473.6082</v>
+        <v>3341.8232</v>
       </c>
       <c r="G2" t="n">
-        <v>-11150300.47213554</v>
+        <v>-3597525.813000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="C3" t="n">
-        <v>1.791</v>
+        <v>1.798</v>
       </c>
       <c r="D3" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="E3" t="n">
-        <v>1.791</v>
+        <v>1.798</v>
       </c>
       <c r="F3" t="n">
-        <v>31473.6082</v>
+        <v>60000</v>
       </c>
       <c r="G3" t="n">
-        <v>-11181774.08033554</v>
+        <v>-3657525.813000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="C4" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="D4" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="E4" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="F4" t="n">
-        <v>280</v>
+        <v>30350.9899</v>
       </c>
       <c r="G4" t="n">
-        <v>-11181494.08033554</v>
+        <v>-3627174.823100001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="C5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="D5" t="n">
         <v>1.81</v>
       </c>
       <c r="E5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="F5" t="n">
-        <v>2717087.8368</v>
+        <v>554356.6057</v>
       </c>
       <c r="G5" t="n">
-        <v>-13898581.91713554</v>
+        <v>-3627174.823100001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="C6" t="n">
-        <v>1.8</v>
+        <v>1.819</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8</v>
+        <v>1.819</v>
       </c>
       <c r="E6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="F6" t="n">
-        <v>280</v>
+        <v>180311.5241</v>
       </c>
       <c r="G6" t="n">
-        <v>-13898301.91713554</v>
+        <v>-3446863.299000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.8</v>
+        <v>1.805</v>
       </c>
       <c r="C7" t="n">
-        <v>1.811</v>
+        <v>1.805</v>
       </c>
       <c r="D7" t="n">
-        <v>1.811</v>
+        <v>1.805</v>
       </c>
       <c r="E7" t="n">
-        <v>1.8</v>
+        <v>1.805</v>
       </c>
       <c r="F7" t="n">
-        <v>4199.2405</v>
+        <v>236411.4603</v>
       </c>
       <c r="G7" t="n">
-        <v>-13894102.67663554</v>
+        <v>-3683274.759300001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.811</v>
+        <v>1.805</v>
       </c>
       <c r="C8" t="n">
-        <v>1.811</v>
+        <v>1.761</v>
       </c>
       <c r="D8" t="n">
-        <v>1.811</v>
+        <v>1.805</v>
       </c>
       <c r="E8" t="n">
-        <v>1.811</v>
+        <v>1.761</v>
       </c>
       <c r="F8" t="n">
-        <v>932.79</v>
+        <v>4000000</v>
       </c>
       <c r="G8" t="n">
-        <v>-13894102.67663554</v>
+        <v>-7683274.759300001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.812</v>
+        <v>1.818</v>
       </c>
       <c r="C9" t="n">
-        <v>1.812</v>
+        <v>1.818</v>
       </c>
       <c r="D9" t="n">
-        <v>1.812</v>
+        <v>1.818</v>
       </c>
       <c r="E9" t="n">
-        <v>1.812</v>
+        <v>1.818</v>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G9" t="n">
-        <v>-13893802.67663554</v>
+        <v>-7682973.759300001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.791</v>
+        <v>1.77</v>
       </c>
       <c r="C10" t="n">
-        <v>1.812</v>
+        <v>1.784</v>
       </c>
       <c r="D10" t="n">
-        <v>1.812</v>
+        <v>1.784</v>
       </c>
       <c r="E10" t="n">
-        <v>1.791</v>
+        <v>1.77</v>
       </c>
       <c r="F10" t="n">
-        <v>320654.4544</v>
+        <v>458588.4</v>
       </c>
       <c r="G10" t="n">
-        <v>-13893802.67663554</v>
+        <v>-8141562.159300001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.81</v>
+        <v>1.784</v>
       </c>
       <c r="C11" t="n">
-        <v>1.81</v>
+        <v>1.784</v>
       </c>
       <c r="D11" t="n">
-        <v>1.81</v>
+        <v>1.784</v>
       </c>
       <c r="E11" t="n">
-        <v>1.81</v>
+        <v>1.784</v>
       </c>
       <c r="F11" t="n">
-        <v>67253.58930000001</v>
+        <v>120000</v>
       </c>
       <c r="G11" t="n">
-        <v>-13961056.26593554</v>
+        <v>-8141562.159300001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.81</v>
+        <v>1.788</v>
       </c>
       <c r="C12" t="n">
-        <v>1.81</v>
+        <v>1.788</v>
       </c>
       <c r="D12" t="n">
-        <v>1.81</v>
+        <v>1.788</v>
       </c>
       <c r="E12" t="n">
-        <v>1.81</v>
+        <v>1.788</v>
       </c>
       <c r="F12" t="n">
-        <v>36765.1117</v>
+        <v>89021.465</v>
       </c>
       <c r="G12" t="n">
-        <v>-13961056.26593554</v>
+        <v>-8052540.694300001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.81</v>
+        <v>1.816</v>
       </c>
       <c r="C13" t="n">
-        <v>1.791</v>
+        <v>1.816</v>
       </c>
       <c r="D13" t="n">
-        <v>1.81</v>
+        <v>1.816</v>
       </c>
       <c r="E13" t="n">
-        <v>1.791</v>
+        <v>1.816</v>
       </c>
       <c r="F13" t="n">
-        <v>635.0964</v>
+        <v>280</v>
       </c>
       <c r="G13" t="n">
-        <v>-13961691.36233554</v>
+        <v>-8052260.694300001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>1.81</v>
       </c>
       <c r="F14" t="n">
-        <v>274</v>
+        <v>40000</v>
       </c>
       <c r="G14" t="n">
-        <v>-13961417.36233554</v>
+        <v>-8092260.694300001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="C15" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="D15" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="E15" t="n">
-        <v>1.791</v>
+        <v>1.81</v>
       </c>
       <c r="F15" t="n">
-        <v>11524.2455</v>
+        <v>153154.1</v>
       </c>
       <c r="G15" t="n">
-        <v>-13972941.60783554</v>
+        <v>-8092260.694300001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.809</v>
+        <v>1.828</v>
       </c>
       <c r="C16" t="n">
-        <v>1.809</v>
+        <v>1.828</v>
       </c>
       <c r="D16" t="n">
-        <v>1.809</v>
+        <v>1.828</v>
       </c>
       <c r="E16" t="n">
-        <v>1.809</v>
+        <v>1.828</v>
       </c>
       <c r="F16" t="n">
         <v>290</v>
       </c>
       <c r="G16" t="n">
-        <v>-13972651.60783554</v>
+        <v>-8091970.694300001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="C17" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="D17" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="F17" t="n">
-        <v>29657.1444</v>
+        <v>183936.314</v>
       </c>
       <c r="G17" t="n">
-        <v>-13972651.60783554</v>
+        <v>-8275907.008300002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.791</v>
+        <v>1.815</v>
       </c>
       <c r="C18" t="n">
-        <v>1.79</v>
+        <v>1.815</v>
       </c>
       <c r="D18" t="n">
-        <v>1.791</v>
+        <v>1.815</v>
       </c>
       <c r="E18" t="n">
-        <v>1.79</v>
+        <v>1.815</v>
       </c>
       <c r="F18" t="n">
-        <v>115554.7649</v>
+        <v>280</v>
       </c>
       <c r="G18" t="n">
-        <v>-14088206.37273554</v>
+        <v>-8275627.008300002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="C19" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="D19" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="E19" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="F19" t="n">
-        <v>216998</v>
+        <v>2272.0114</v>
       </c>
       <c r="G19" t="n">
-        <v>-13871208.37273554</v>
+        <v>-8275627.008300002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="C20" t="n">
-        <v>1.807</v>
+        <v>1.815</v>
       </c>
       <c r="D20" t="n">
-        <v>1.807</v>
+        <v>1.815</v>
       </c>
       <c r="E20" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="F20" t="n">
-        <v>116701</v>
+        <v>291.2553</v>
       </c>
       <c r="G20" t="n">
-        <v>-13754507.37273554</v>
+        <v>-8275627.008300002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.806</v>
+        <v>1.785</v>
       </c>
       <c r="C21" t="n">
-        <v>1.806</v>
+        <v>1.785</v>
       </c>
       <c r="D21" t="n">
-        <v>1.806</v>
+        <v>1.785</v>
       </c>
       <c r="E21" t="n">
-        <v>1.806</v>
+        <v>1.785</v>
       </c>
       <c r="F21" t="n">
-        <v>120000</v>
+        <v>58061.8188</v>
       </c>
       <c r="G21" t="n">
-        <v>-13874507.37273554</v>
+        <v>-8333688.827100001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="C22" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="D22" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="E22" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="F22" t="n">
-        <v>29667</v>
+        <v>271</v>
       </c>
       <c r="G22" t="n">
-        <v>-13874507.37273554</v>
+        <v>-8333417.827100001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.806</v>
+        <v>1.782</v>
       </c>
       <c r="C23" t="n">
-        <v>1.806</v>
+        <v>1.782</v>
       </c>
       <c r="D23" t="n">
-        <v>1.806</v>
+        <v>1.782</v>
       </c>
       <c r="E23" t="n">
-        <v>1.806</v>
+        <v>1.782</v>
       </c>
       <c r="F23" t="n">
-        <v>828.4707</v>
+        <v>75143.9457</v>
       </c>
       <c r="G23" t="n">
-        <v>-13874507.37273554</v>
+        <v>-8408561.7728</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.806</v>
+        <v>1.814</v>
       </c>
       <c r="C24" t="n">
-        <v>1.806</v>
+        <v>1.814</v>
       </c>
       <c r="D24" t="n">
-        <v>1.806</v>
+        <v>1.814</v>
       </c>
       <c r="E24" t="n">
-        <v>1.806</v>
+        <v>1.814</v>
       </c>
       <c r="F24" t="n">
-        <v>656.7006</v>
+        <v>299</v>
       </c>
       <c r="G24" t="n">
-        <v>-13874507.37273554</v>
+        <v>-8408262.7728</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.806</v>
+        <v>1.809</v>
       </c>
       <c r="C25" t="n">
-        <v>1.806</v>
+        <v>1.809</v>
       </c>
       <c r="D25" t="n">
-        <v>1.806</v>
+        <v>1.809</v>
       </c>
       <c r="E25" t="n">
-        <v>1.806</v>
+        <v>1.809</v>
       </c>
       <c r="F25" t="n">
-        <v>19208.0338</v>
+        <v>2819.0614</v>
       </c>
       <c r="G25" t="n">
-        <v>-13874507.37273554</v>
+        <v>-8411081.8342</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="C26" t="n">
-        <v>1.806</v>
+        <v>1.849</v>
       </c>
       <c r="D26" t="n">
-        <v>1.806</v>
+        <v>1.849</v>
       </c>
       <c r="E26" t="n">
-        <v>1.806</v>
+        <v>1.815</v>
       </c>
       <c r="F26" t="n">
-        <v>1626</v>
+        <v>272404.4908544078</v>
       </c>
       <c r="G26" t="n">
-        <v>-13874507.37273554</v>
+        <v>-8138677.343345593</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.791</v>
+        <v>1.849</v>
       </c>
       <c r="C27" t="n">
-        <v>1.806</v>
+        <v>1.849</v>
       </c>
       <c r="D27" t="n">
-        <v>1.806</v>
+        <v>1.849</v>
       </c>
       <c r="E27" t="n">
-        <v>1.791</v>
+        <v>1.849</v>
       </c>
       <c r="F27" t="n">
-        <v>143455.7792</v>
+        <v>300</v>
       </c>
       <c r="G27" t="n">
-        <v>-13874507.37273554</v>
+        <v>-8138677.343345593</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.806</v>
+        <v>1.805</v>
       </c>
       <c r="C28" t="n">
-        <v>1.807</v>
+        <v>1.805</v>
       </c>
       <c r="D28" t="n">
-        <v>1.807</v>
+        <v>1.805</v>
       </c>
       <c r="E28" t="n">
-        <v>1.806</v>
+        <v>1.805</v>
       </c>
       <c r="F28" t="n">
-        <v>80000</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>-13794507.37273554</v>
+        <v>-8158677.343345593</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="C29" t="n">
-        <v>1.812</v>
+        <v>1.81</v>
       </c>
       <c r="D29" t="n">
-        <v>1.812</v>
+        <v>1.81</v>
       </c>
       <c r="E29" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="F29" t="n">
-        <v>205161.0894</v>
+        <v>26326.3199</v>
       </c>
       <c r="G29" t="n">
-        <v>-13589346.28333554</v>
+        <v>-8132351.023445593</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.827</v>
+        <v>1.82</v>
       </c>
       <c r="C30" t="n">
-        <v>1.827</v>
+        <v>1.82</v>
       </c>
       <c r="D30" t="n">
-        <v>1.827</v>
+        <v>1.82</v>
       </c>
       <c r="E30" t="n">
-        <v>1.827</v>
+        <v>1.82</v>
       </c>
       <c r="F30" t="n">
-        <v>290</v>
+        <v>60000</v>
       </c>
       <c r="G30" t="n">
-        <v>-13589056.28333554</v>
+        <v>-8072351.023445593</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.826</v>
+        <v>1.805</v>
       </c>
       <c r="C31" t="n">
-        <v>1.842</v>
+        <v>1.805</v>
       </c>
       <c r="D31" t="n">
-        <v>1.842</v>
+        <v>1.805</v>
       </c>
       <c r="E31" t="n">
-        <v>1.826</v>
+        <v>1.805</v>
       </c>
       <c r="F31" t="n">
-        <v>180808.5</v>
+        <v>110087.7031</v>
       </c>
       <c r="G31" t="n">
-        <v>-13408247.78333554</v>
+        <v>-8182438.726545593</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.842</v>
+        <v>1.805</v>
       </c>
       <c r="C32" t="n">
-        <v>1.842</v>
+        <v>1.805</v>
       </c>
       <c r="D32" t="n">
-        <v>1.842</v>
+        <v>1.805</v>
       </c>
       <c r="E32" t="n">
-        <v>1.842</v>
+        <v>1.805</v>
       </c>
       <c r="F32" t="n">
-        <v>76510</v>
+        <v>5465.54</v>
       </c>
       <c r="G32" t="n">
-        <v>-13408247.78333554</v>
+        <v>-8182438.726545593</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.842</v>
+        <v>1.819</v>
       </c>
       <c r="C33" t="n">
-        <v>1.846</v>
+        <v>1.819</v>
       </c>
       <c r="D33" t="n">
-        <v>1.846</v>
+        <v>1.819</v>
       </c>
       <c r="E33" t="n">
-        <v>1.842</v>
+        <v>1.819</v>
       </c>
       <c r="F33" t="n">
-        <v>621874.5609</v>
+        <v>300</v>
       </c>
       <c r="G33" t="n">
-        <v>-12786373.22243554</v>
+        <v>-8182138.726545593</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.847</v>
+        <v>1.819</v>
       </c>
       <c r="C34" t="n">
-        <v>1.847</v>
+        <v>1.819</v>
       </c>
       <c r="D34" t="n">
-        <v>1.847</v>
+        <v>1.819</v>
       </c>
       <c r="E34" t="n">
-        <v>1.847</v>
+        <v>1.819</v>
       </c>
       <c r="F34" t="n">
-        <v>167504.1875</v>
+        <v>8584.3521</v>
       </c>
       <c r="G34" t="n">
-        <v>-12618869.03493554</v>
+        <v>-8182138.726545593</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.86</v>
+        <v>1.847</v>
       </c>
       <c r="C35" t="n">
-        <v>1.887</v>
+        <v>1.847</v>
       </c>
       <c r="D35" t="n">
-        <v>1.887</v>
+        <v>1.847</v>
       </c>
       <c r="E35" t="n">
-        <v>1.86</v>
+        <v>1.847</v>
       </c>
       <c r="F35" t="n">
-        <v>841304.5742</v>
+        <v>10000</v>
       </c>
       <c r="G35" t="n">
-        <v>-11777564.46073554</v>
+        <v>-8172138.726545593</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.887</v>
+        <v>1.848</v>
       </c>
       <c r="C36" t="n">
-        <v>1.891</v>
+        <v>1.848</v>
       </c>
       <c r="D36" t="n">
-        <v>1.9</v>
+        <v>1.848</v>
       </c>
       <c r="E36" t="n">
-        <v>1.887</v>
+        <v>1.848</v>
       </c>
       <c r="F36" t="n">
-        <v>1110662.484</v>
+        <v>42897.7435</v>
       </c>
       <c r="G36" t="n">
-        <v>-10666901.97673554</v>
+        <v>-8129240.983045593</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.899</v>
+        <v>1.849</v>
       </c>
       <c r="C37" t="n">
-        <v>1.899</v>
+        <v>1.849</v>
       </c>
       <c r="D37" t="n">
-        <v>1.899</v>
+        <v>1.849</v>
       </c>
       <c r="E37" t="n">
-        <v>1.899</v>
+        <v>1.849</v>
       </c>
       <c r="F37" t="n">
-        <v>262</v>
+        <v>8197.109399999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-10666639.97673554</v>
+        <v>-8121043.873645592</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.899</v>
+        <v>1.805</v>
       </c>
       <c r="C38" t="n">
-        <v>1.9</v>
+        <v>1.787</v>
       </c>
       <c r="D38" t="n">
-        <v>1.9</v>
+        <v>1.805</v>
       </c>
       <c r="E38" t="n">
-        <v>1.899</v>
+        <v>1.787</v>
       </c>
       <c r="F38" t="n">
-        <v>138750.7891</v>
+        <v>189497.8702</v>
       </c>
       <c r="G38" t="n">
-        <v>-10527889.18763554</v>
+        <v>-8310541.743845592</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.899</v>
+        <v>1.787</v>
       </c>
       <c r="C39" t="n">
-        <v>1.9</v>
+        <v>1.787</v>
       </c>
       <c r="D39" t="n">
-        <v>1.9</v>
+        <v>1.787</v>
       </c>
       <c r="E39" t="n">
-        <v>1.84</v>
+        <v>1.787</v>
       </c>
       <c r="F39" t="n">
-        <v>247895.587</v>
+        <v>13449.1065</v>
       </c>
       <c r="G39" t="n">
-        <v>-10527889.18763554</v>
+        <v>-8310541.743845592</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.86</v>
+        <v>1.787</v>
       </c>
       <c r="C40" t="n">
-        <v>1.87</v>
+        <v>1.787</v>
       </c>
       <c r="D40" t="n">
-        <v>1.87</v>
+        <v>1.787</v>
       </c>
       <c r="E40" t="n">
-        <v>1.86</v>
+        <v>1.787</v>
       </c>
       <c r="F40" t="n">
-        <v>3101.2</v>
+        <v>43400.2545</v>
       </c>
       <c r="G40" t="n">
-        <v>-10530990.38763554</v>
+        <v>-8310541.743845592</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.9</v>
+        <v>1.787</v>
       </c>
       <c r="C41" t="n">
-        <v>1.9</v>
+        <v>1.787</v>
       </c>
       <c r="D41" t="n">
-        <v>1.9</v>
+        <v>1.787</v>
       </c>
       <c r="E41" t="n">
-        <v>1.9</v>
+        <v>1.787</v>
       </c>
       <c r="F41" t="n">
-        <v>290</v>
+        <v>223844.3592</v>
       </c>
       <c r="G41" t="n">
-        <v>-10530700.38763554</v>
+        <v>-8310541.743845592</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.88</v>
+        <v>1.785</v>
       </c>
       <c r="C42" t="n">
-        <v>1.88</v>
+        <v>1.783</v>
       </c>
       <c r="D42" t="n">
-        <v>1.88</v>
+        <v>1.785</v>
       </c>
       <c r="E42" t="n">
-        <v>1.88</v>
+        <v>1.783</v>
       </c>
       <c r="F42" t="n">
-        <v>124990.58</v>
+        <v>2514512.1719</v>
       </c>
       <c r="G42" t="n">
-        <v>-10655690.96763554</v>
+        <v>-10825053.91574559</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.88</v>
+        <v>1.813</v>
       </c>
       <c r="C43" t="n">
-        <v>1.86</v>
+        <v>1.813</v>
       </c>
       <c r="D43" t="n">
-        <v>1.88</v>
+        <v>1.813</v>
       </c>
       <c r="E43" t="n">
-        <v>1.83</v>
+        <v>1.813</v>
       </c>
       <c r="F43" t="n">
-        <v>565379.1464</v>
+        <v>300</v>
       </c>
       <c r="G43" t="n">
-        <v>-11221070.11403554</v>
+        <v>-10824753.91574559</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.84</v>
+        <v>1.813</v>
       </c>
       <c r="C44" t="n">
-        <v>1.84</v>
+        <v>1.813</v>
       </c>
       <c r="D44" t="n">
-        <v>1.84</v>
+        <v>1.813</v>
       </c>
       <c r="E44" t="n">
-        <v>1.84</v>
+        <v>1.813</v>
       </c>
       <c r="F44" t="n">
-        <v>4204.4</v>
+        <v>61040.6742</v>
       </c>
       <c r="G44" t="n">
-        <v>-11225274.51403554</v>
+        <v>-10824753.91574559</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.86</v>
+        <v>1.814</v>
       </c>
       <c r="C45" t="n">
-        <v>1.86</v>
+        <v>1.814</v>
       </c>
       <c r="D45" t="n">
-        <v>1.86</v>
+        <v>1.814</v>
       </c>
       <c r="E45" t="n">
-        <v>1.86</v>
+        <v>1.814</v>
       </c>
       <c r="F45" t="n">
-        <v>12471.6541</v>
+        <v>6133.3812</v>
       </c>
       <c r="G45" t="n">
-        <v>-11212802.85993554</v>
+        <v>-10818620.53454559</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.859</v>
+        <v>1.814</v>
       </c>
       <c r="C46" t="n">
-        <v>1.859</v>
+        <v>1.813</v>
       </c>
       <c r="D46" t="n">
-        <v>1.859</v>
+        <v>1.814</v>
       </c>
       <c r="E46" t="n">
-        <v>1.859</v>
+        <v>1.813</v>
       </c>
       <c r="F46" t="n">
-        <v>270</v>
+        <v>153264.8384</v>
       </c>
       <c r="G46" t="n">
-        <v>-11213072.85993554</v>
+        <v>-10971885.37294559</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.858</v>
+        <v>1.811</v>
       </c>
       <c r="C47" t="n">
-        <v>1.842</v>
+        <v>1.811</v>
       </c>
       <c r="D47" t="n">
-        <v>1.86</v>
+        <v>1.811</v>
       </c>
       <c r="E47" t="n">
-        <v>1.842</v>
+        <v>1.811</v>
       </c>
       <c r="F47" t="n">
-        <v>384873.3691</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>-11597946.22903554</v>
+        <v>-10972885.37294559</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.872</v>
+        <v>1.813</v>
       </c>
       <c r="C48" t="n">
-        <v>1.872</v>
+        <v>1.813</v>
       </c>
       <c r="D48" t="n">
-        <v>1.872</v>
+        <v>1.813</v>
       </c>
       <c r="E48" t="n">
-        <v>1.872</v>
+        <v>1.813</v>
       </c>
       <c r="F48" t="n">
-        <v>283</v>
+        <v>12629.2973</v>
       </c>
       <c r="G48" t="n">
-        <v>-11597663.22903554</v>
+        <v>-10960256.07564559</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.85</v>
+        <v>1.813</v>
       </c>
       <c r="C49" t="n">
-        <v>1.85</v>
+        <v>1.813</v>
       </c>
       <c r="D49" t="n">
-        <v>1.85</v>
+        <v>1.813</v>
       </c>
       <c r="E49" t="n">
-        <v>1.85</v>
+        <v>1.813</v>
       </c>
       <c r="F49" t="n">
-        <v>582.7891</v>
+        <v>36318.2721</v>
       </c>
       <c r="G49" t="n">
-        <v>-11598246.01813554</v>
+        <v>-10960256.07564559</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.872</v>
+        <v>1.812</v>
       </c>
       <c r="C50" t="n">
-        <v>1.872</v>
+        <v>1.83</v>
       </c>
       <c r="D50" t="n">
-        <v>1.872</v>
+        <v>1.83</v>
       </c>
       <c r="E50" t="n">
-        <v>1.872</v>
+        <v>1.812</v>
       </c>
       <c r="F50" t="n">
-        <v>263</v>
+        <v>218609.0888100546</v>
       </c>
       <c r="G50" t="n">
-        <v>-11597983.01813554</v>
+        <v>-10741646.98683554</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.871</v>
+        <v>1.83</v>
       </c>
       <c r="C51" t="n">
-        <v>1.871</v>
+        <v>1.83</v>
       </c>
       <c r="D51" t="n">
-        <v>1.871</v>
+        <v>1.83</v>
       </c>
       <c r="E51" t="n">
-        <v>1.871</v>
+        <v>1.83</v>
       </c>
       <c r="F51" t="n">
-        <v>9832.239</v>
+        <v>122629.9878</v>
       </c>
       <c r="G51" t="n">
-        <v>-11607815.25713554</v>
+        <v>-10741646.98683554</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.851</v>
+        <v>1.799</v>
       </c>
       <c r="C52" t="n">
-        <v>1.871</v>
+        <v>1.79</v>
       </c>
       <c r="D52" t="n">
-        <v>1.871</v>
+        <v>1.799</v>
       </c>
       <c r="E52" t="n">
-        <v>1.851</v>
+        <v>1.79</v>
       </c>
       <c r="F52" t="n">
-        <v>53541.9275</v>
+        <v>140366.6075</v>
       </c>
       <c r="G52" t="n">
-        <v>-11607815.25713554</v>
+        <v>-10882013.59433554</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="C53" t="n">
-        <v>1.843</v>
+        <v>1.79</v>
       </c>
       <c r="D53" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="E53" t="n">
-        <v>1.843</v>
+        <v>1.79</v>
       </c>
       <c r="F53" t="n">
-        <v>319785.0332</v>
+        <v>92855.9679</v>
       </c>
       <c r="G53" t="n">
-        <v>-11927600.29033554</v>
+        <v>-10882013.59433554</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.871</v>
+        <v>1.778</v>
       </c>
       <c r="C54" t="n">
-        <v>1.871</v>
+        <v>1.773</v>
       </c>
       <c r="D54" t="n">
-        <v>1.871</v>
+        <v>1.778</v>
       </c>
       <c r="E54" t="n">
-        <v>1.871</v>
+        <v>1.773</v>
       </c>
       <c r="F54" t="n">
-        <v>310</v>
+        <v>272404.4908</v>
       </c>
       <c r="G54" t="n">
-        <v>-11927290.29033554</v>
+        <v>-11154418.08513554</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.846</v>
+        <v>1.8</v>
       </c>
       <c r="C55" t="n">
-        <v>1.846</v>
+        <v>1.8</v>
       </c>
       <c r="D55" t="n">
-        <v>1.846</v>
+        <v>1.8</v>
       </c>
       <c r="E55" t="n">
-        <v>1.846</v>
+        <v>1.8</v>
       </c>
       <c r="F55" t="n">
-        <v>11048.1339</v>
+        <v>11952.8013</v>
       </c>
       <c r="G55" t="n">
-        <v>-11938338.42423554</v>
+        <v>-11142465.28383554</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.846</v>
+        <v>1.799</v>
       </c>
       <c r="C56" t="n">
-        <v>1.871</v>
+        <v>1.799</v>
       </c>
       <c r="D56" t="n">
-        <v>1.871</v>
+        <v>1.799</v>
       </c>
       <c r="E56" t="n">
-        <v>1.846</v>
+        <v>1.799</v>
       </c>
       <c r="F56" t="n">
-        <v>31028.1125</v>
+        <v>30253.3715</v>
       </c>
       <c r="G56" t="n">
-        <v>-11907310.31173554</v>
+        <v>-11172718.65533554</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.837</v>
+        <v>1.78</v>
       </c>
       <c r="C57" t="n">
-        <v>1.837</v>
+        <v>1.78</v>
       </c>
       <c r="D57" t="n">
-        <v>1.837</v>
+        <v>1.78</v>
       </c>
       <c r="E57" t="n">
-        <v>1.837</v>
+        <v>1.78</v>
       </c>
       <c r="F57" t="n">
-        <v>7322.4675</v>
+        <v>92855.9679</v>
       </c>
       <c r="G57" t="n">
-        <v>-11914632.77923553</v>
+        <v>-11265574.62323554</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="C58" t="n">
-        <v>1.836</v>
+        <v>1.79</v>
       </c>
       <c r="D58" t="n">
-        <v>1.836</v>
+        <v>1.79</v>
       </c>
       <c r="E58" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="F58" t="n">
-        <v>299425.8357</v>
+        <v>31039.5731</v>
       </c>
       <c r="G58" t="n">
-        <v>-12214058.61493553</v>
+        <v>-11234535.05013554</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.863</v>
+        <v>1.789</v>
       </c>
       <c r="C59" t="n">
-        <v>1.836</v>
+        <v>1.789</v>
       </c>
       <c r="D59" t="n">
-        <v>1.863</v>
+        <v>1.789</v>
       </c>
       <c r="E59" t="n">
-        <v>1.836</v>
+        <v>1.789</v>
       </c>
       <c r="F59" t="n">
-        <v>162940.2358</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>-12214058.61493553</v>
+        <v>-11235535.05013554</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.839</v>
+        <v>1.78</v>
       </c>
       <c r="C60" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="D60" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="E60" t="n">
-        <v>1.836</v>
+        <v>1.78</v>
       </c>
       <c r="F60" t="n">
-        <v>280166.5686</v>
+        <v>320000</v>
       </c>
       <c r="G60" t="n">
-        <v>-11933892.04633553</v>
+        <v>-11555535.05013554</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.836</v>
+        <v>1.779</v>
       </c>
       <c r="C61" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="D61" t="n">
-        <v>1.836</v>
+        <v>1.779</v>
       </c>
       <c r="E61" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="F61" t="n">
-        <v>15539.5398</v>
+        <v>610915.6381</v>
       </c>
       <c r="G61" t="n">
-        <v>-11949431.58613553</v>
+        <v>-12166450.68823554</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,31 +2598,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="C62" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="D62" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="E62" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F62" t="n">
-        <v>294946.0358</v>
+        <v>62941.529</v>
       </c>
       <c r="G62" t="n">
-        <v>-12244377.62193553</v>
+        <v>-12103509.15923554</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2634,32 +2638,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="C63" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="D63" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="E63" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="F63" t="n">
-        <v>286220.6091</v>
+        <v>1200384.6871</v>
       </c>
       <c r="G63" t="n">
-        <v>-12244377.62193553</v>
+        <v>-10903124.47213554</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,32 +2682,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="C64" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="D64" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="E64" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="F64" t="n">
-        <v>105238.1115</v>
+        <v>17337.7656</v>
       </c>
       <c r="G64" t="n">
-        <v>-12244377.62193553</v>
+        <v>-10903124.47213554</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,31 +2726,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.82</v>
+        <v>1.812</v>
       </c>
       <c r="C65" t="n">
-        <v>1.82</v>
+        <v>1.812</v>
       </c>
       <c r="D65" t="n">
-        <v>1.82</v>
+        <v>1.812</v>
       </c>
       <c r="E65" t="n">
-        <v>1.82</v>
+        <v>1.812</v>
       </c>
       <c r="F65" t="n">
-        <v>56288.4224</v>
+        <v>276</v>
       </c>
       <c r="G65" t="n">
-        <v>-12244377.62193553</v>
+        <v>-10902848.47213554</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.8</v>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2742,22 +2766,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.85</v>
+        <v>1.804</v>
       </c>
       <c r="C66" t="n">
-        <v>1.85</v>
+        <v>1.804</v>
       </c>
       <c r="D66" t="n">
-        <v>1.85</v>
+        <v>1.804</v>
       </c>
       <c r="E66" t="n">
-        <v>1.85</v>
+        <v>1.804</v>
       </c>
       <c r="F66" t="n">
-        <v>395.7403</v>
+        <v>167000</v>
       </c>
       <c r="G66" t="n">
-        <v>-12243981.88163553</v>
+        <v>-11069848.47213554</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2766,8 +2790,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2808,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.822</v>
+        <v>1.811</v>
       </c>
       <c r="C67" t="n">
-        <v>1.822</v>
+        <v>1.811</v>
       </c>
       <c r="D67" t="n">
-        <v>1.822</v>
+        <v>1.811</v>
       </c>
       <c r="E67" t="n">
-        <v>1.822</v>
+        <v>1.811</v>
       </c>
       <c r="F67" t="n">
-        <v>7000</v>
+        <v>290</v>
       </c>
       <c r="G67" t="n">
-        <v>-12250981.88163553</v>
+        <v>-11069558.47213554</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2802,8 +2832,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +2850,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.849</v>
+        <v>1.804</v>
       </c>
       <c r="C68" t="n">
-        <v>1.849</v>
+        <v>1.804</v>
       </c>
       <c r="D68" t="n">
-        <v>1.849</v>
+        <v>1.804</v>
       </c>
       <c r="E68" t="n">
-        <v>1.849</v>
+        <v>1.804</v>
       </c>
       <c r="F68" t="n">
-        <v>290</v>
+        <v>246.468</v>
       </c>
       <c r="G68" t="n">
-        <v>-12250691.88163553</v>
+        <v>-11069804.94013554</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2886,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.848</v>
+        <v>1.791</v>
       </c>
       <c r="C69" t="n">
-        <v>1.848</v>
+        <v>1.791</v>
       </c>
       <c r="D69" t="n">
-        <v>1.848</v>
+        <v>1.791</v>
       </c>
       <c r="E69" t="n">
-        <v>1.848</v>
+        <v>1.791</v>
       </c>
       <c r="F69" t="n">
-        <v>5076.2628</v>
+        <v>795.532</v>
       </c>
       <c r="G69" t="n">
-        <v>-12255768.14443553</v>
+        <v>-11070600.47213554</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2922,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.823</v>
+        <v>1.811</v>
       </c>
       <c r="C70" t="n">
-        <v>1.848</v>
+        <v>1.811</v>
       </c>
       <c r="D70" t="n">
-        <v>1.848</v>
+        <v>1.811</v>
       </c>
       <c r="E70" t="n">
-        <v>1.813</v>
+        <v>1.811</v>
       </c>
       <c r="F70" t="n">
-        <v>25818.7494</v>
+        <v>300</v>
       </c>
       <c r="G70" t="n">
-        <v>-12255768.14443553</v>
+        <v>-11070300.47213554</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2958,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.813</v>
+        <v>1.801</v>
       </c>
       <c r="C71" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="D71" t="n">
-        <v>1.813</v>
+        <v>1.801</v>
       </c>
       <c r="E71" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="F71" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="G71" t="n">
-        <v>-12345768.14443553</v>
+        <v>-11150300.47213554</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2994,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.839</v>
+        <v>1.8</v>
       </c>
       <c r="C72" t="n">
-        <v>1.839</v>
+        <v>1.8</v>
       </c>
       <c r="D72" t="n">
-        <v>1.839</v>
+        <v>1.8</v>
       </c>
       <c r="E72" t="n">
-        <v>1.839</v>
+        <v>1.8</v>
       </c>
       <c r="F72" t="n">
-        <v>271</v>
+        <v>1776541.4504</v>
       </c>
       <c r="G72" t="n">
-        <v>-12345497.14443553</v>
+        <v>-11150300.47213554</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3030,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.808</v>
+        <v>1.8</v>
       </c>
       <c r="C73" t="n">
-        <v>1.806</v>
+        <v>1.8</v>
       </c>
       <c r="D73" t="n">
-        <v>1.808</v>
+        <v>1.8</v>
       </c>
       <c r="E73" t="n">
-        <v>1.806</v>
+        <v>1.8</v>
       </c>
       <c r="F73" t="n">
-        <v>140000</v>
+        <v>31473.6082</v>
       </c>
       <c r="G73" t="n">
-        <v>-12485497.14443553</v>
+        <v>-11150300.47213554</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3066,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.837</v>
+        <v>1.791</v>
       </c>
       <c r="C74" t="n">
-        <v>1.837</v>
+        <v>1.791</v>
       </c>
       <c r="D74" t="n">
-        <v>1.837</v>
+        <v>1.791</v>
       </c>
       <c r="E74" t="n">
-        <v>1.837</v>
+        <v>1.791</v>
       </c>
       <c r="F74" t="n">
-        <v>290</v>
+        <v>31473.6082</v>
       </c>
       <c r="G74" t="n">
-        <v>-12485207.14443553</v>
+        <v>-11181774.08033554</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3102,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.803</v>
+        <v>1.811</v>
       </c>
       <c r="C75" t="n">
-        <v>1.837</v>
+        <v>1.811</v>
       </c>
       <c r="D75" t="n">
-        <v>1.837</v>
+        <v>1.811</v>
       </c>
       <c r="E75" t="n">
-        <v>1.8</v>
+        <v>1.811</v>
       </c>
       <c r="F75" t="n">
-        <v>199841.0431</v>
+        <v>280</v>
       </c>
       <c r="G75" t="n">
-        <v>-12485207.14443553</v>
+        <v>-11181494.08033554</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3138,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.796</v>
+        <v>1.808</v>
       </c>
       <c r="C76" t="n">
-        <v>1.836</v>
+        <v>1.79</v>
       </c>
       <c r="D76" t="n">
-        <v>1.836</v>
+        <v>1.81</v>
       </c>
       <c r="E76" t="n">
-        <v>1.796</v>
+        <v>1.79</v>
       </c>
       <c r="F76" t="n">
-        <v>193450.3195</v>
+        <v>2717087.8368</v>
       </c>
       <c r="G76" t="n">
-        <v>-12678657.46393553</v>
+        <v>-13898581.91713554</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3141,19 +3177,19 @@
         <v>1.8</v>
       </c>
       <c r="C77" t="n">
-        <v>1.795</v>
+        <v>1.8</v>
       </c>
       <c r="D77" t="n">
         <v>1.8</v>
       </c>
       <c r="E77" t="n">
-        <v>1.795</v>
+        <v>1.8</v>
       </c>
       <c r="F77" t="n">
-        <v>260872.5008</v>
+        <v>280</v>
       </c>
       <c r="G77" t="n">
-        <v>-12939529.96473553</v>
+        <v>-13898301.91713554</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3210,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.835</v>
+        <v>1.8</v>
       </c>
       <c r="C78" t="n">
-        <v>1.835</v>
+        <v>1.811</v>
       </c>
       <c r="D78" t="n">
-        <v>1.835</v>
+        <v>1.811</v>
       </c>
       <c r="E78" t="n">
-        <v>1.835</v>
+        <v>1.8</v>
       </c>
       <c r="F78" t="n">
-        <v>273</v>
+        <v>4199.2405</v>
       </c>
       <c r="G78" t="n">
-        <v>-12939256.96473553</v>
+        <v>-13894102.67663554</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3246,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="C79" t="n">
-        <v>1.795</v>
+        <v>1.811</v>
       </c>
       <c r="D79" t="n">
-        <v>1.81</v>
+        <v>1.811</v>
       </c>
       <c r="E79" t="n">
-        <v>1.795</v>
+        <v>1.811</v>
       </c>
       <c r="F79" t="n">
-        <v>234785.2507</v>
+        <v>932.79</v>
       </c>
       <c r="G79" t="n">
-        <v>-13174042.21543553</v>
+        <v>-13894102.67663554</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3282,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.835</v>
+        <v>1.812</v>
       </c>
       <c r="C80" t="n">
-        <v>1.835</v>
+        <v>1.812</v>
       </c>
       <c r="D80" t="n">
-        <v>1.835</v>
+        <v>1.812</v>
       </c>
       <c r="E80" t="n">
-        <v>1.835</v>
+        <v>1.812</v>
       </c>
       <c r="F80" t="n">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G80" t="n">
-        <v>-13173770.21543553</v>
+        <v>-13893802.67663554</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3318,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.795</v>
+        <v>1.791</v>
       </c>
       <c r="C81" t="n">
-        <v>1.784</v>
+        <v>1.812</v>
       </c>
       <c r="D81" t="n">
-        <v>1.795</v>
+        <v>1.812</v>
       </c>
       <c r="E81" t="n">
-        <v>1.784</v>
+        <v>1.791</v>
       </c>
       <c r="F81" t="n">
-        <v>2508548.6454</v>
+        <v>320654.4544</v>
       </c>
       <c r="G81" t="n">
-        <v>-15682318.86083553</v>
+        <v>-13893802.67663554</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,31 +3354,35 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.784</v>
+        <v>1.81</v>
       </c>
       <c r="C82" t="n">
-        <v>1.784</v>
+        <v>1.81</v>
       </c>
       <c r="D82" t="n">
-        <v>1.784</v>
+        <v>1.81</v>
       </c>
       <c r="E82" t="n">
-        <v>1.784</v>
+        <v>1.81</v>
       </c>
       <c r="F82" t="n">
-        <v>362979.31</v>
+        <v>67253.58930000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-15682318.86083553</v>
+        <v>-13961056.26593554</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.812</v>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3354,32 +3394,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.783</v>
+        <v>1.81</v>
       </c>
       <c r="C83" t="n">
-        <v>1.783</v>
+        <v>1.81</v>
       </c>
       <c r="D83" t="n">
-        <v>1.783</v>
+        <v>1.81</v>
       </c>
       <c r="E83" t="n">
-        <v>1.783</v>
+        <v>1.81</v>
       </c>
       <c r="F83" t="n">
-        <v>386262.5878</v>
+        <v>36765.1117</v>
       </c>
       <c r="G83" t="n">
-        <v>-16068581.44863553</v>
+        <v>-13961056.26593554</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3438,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.782</v>
+        <v>1.81</v>
       </c>
       <c r="C84" t="n">
-        <v>1.775</v>
+        <v>1.791</v>
       </c>
       <c r="D84" t="n">
-        <v>1.782</v>
+        <v>1.81</v>
       </c>
       <c r="E84" t="n">
-        <v>1.765</v>
+        <v>1.791</v>
       </c>
       <c r="F84" t="n">
-        <v>1482970.5392</v>
+        <v>635.0964</v>
       </c>
       <c r="G84" t="n">
-        <v>-17551551.98783553</v>
+        <v>-13961691.36233554</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3414,8 +3462,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3426,32 +3480,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.775</v>
+        <v>1.81</v>
       </c>
       <c r="C85" t="n">
-        <v>1.836</v>
+        <v>1.81</v>
       </c>
       <c r="D85" t="n">
-        <v>1.836</v>
+        <v>1.81</v>
       </c>
       <c r="E85" t="n">
-        <v>1.775</v>
+        <v>1.81</v>
       </c>
       <c r="F85" t="n">
-        <v>221139.7695</v>
+        <v>274</v>
       </c>
       <c r="G85" t="n">
-        <v>-17330412.21833554</v>
+        <v>-13961417.36233554</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3462,22 +3524,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.779</v>
+        <v>1.791</v>
       </c>
       <c r="C86" t="n">
-        <v>1.779</v>
+        <v>1.791</v>
       </c>
       <c r="D86" t="n">
-        <v>1.779</v>
+        <v>1.791</v>
       </c>
       <c r="E86" t="n">
-        <v>1.779</v>
+        <v>1.791</v>
       </c>
       <c r="F86" t="n">
-        <v>36955.6939</v>
+        <v>11524.2455</v>
       </c>
       <c r="G86" t="n">
-        <v>-17367367.91223554</v>
+        <v>-13972941.60783554</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3486,8 +3548,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3498,32 +3566,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.779</v>
+        <v>1.809</v>
       </c>
       <c r="C87" t="n">
-        <v>1.83</v>
+        <v>1.809</v>
       </c>
       <c r="D87" t="n">
-        <v>1.83</v>
+        <v>1.809</v>
       </c>
       <c r="E87" t="n">
-        <v>1.779</v>
+        <v>1.809</v>
       </c>
       <c r="F87" t="n">
-        <v>3574.1754</v>
+        <v>290</v>
       </c>
       <c r="G87" t="n">
-        <v>-17363793.73683554</v>
+        <v>-13972651.60783554</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3534,32 +3610,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.795</v>
+        <v>1.809</v>
       </c>
       <c r="C88" t="n">
-        <v>1.787</v>
+        <v>1.809</v>
       </c>
       <c r="D88" t="n">
-        <v>1.795</v>
+        <v>1.809</v>
       </c>
       <c r="E88" t="n">
-        <v>1.787</v>
+        <v>1.809</v>
       </c>
       <c r="F88" t="n">
-        <v>93779.6698</v>
+        <v>29657.1444</v>
       </c>
       <c r="G88" t="n">
-        <v>-17457573.40663553</v>
+        <v>-13972651.60783554</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3570,22 +3654,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.787</v>
+        <v>1.791</v>
       </c>
       <c r="C89" t="n">
-        <v>1.787</v>
+        <v>1.79</v>
       </c>
       <c r="D89" t="n">
-        <v>1.787</v>
+        <v>1.791</v>
       </c>
       <c r="E89" t="n">
-        <v>1.787</v>
+        <v>1.79</v>
       </c>
       <c r="F89" t="n">
-        <v>5595.8471</v>
+        <v>115554.7649</v>
       </c>
       <c r="G89" t="n">
-        <v>-17457573.40663553</v>
+        <v>-14088206.37273554</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3594,8 +3678,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3606,32 +3696,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="C90" t="n">
-        <v>1.786</v>
+        <v>1.806</v>
       </c>
       <c r="D90" t="n">
-        <v>1.786</v>
+        <v>1.806</v>
       </c>
       <c r="E90" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="F90" t="n">
-        <v>136727.1732</v>
+        <v>216998</v>
       </c>
       <c r="G90" t="n">
-        <v>-17594300.57983553</v>
+        <v>-13871208.37273554</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3642,32 +3740,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.781</v>
+        <v>1.806</v>
       </c>
       <c r="C91" t="n">
-        <v>1.779</v>
+        <v>1.807</v>
       </c>
       <c r="D91" t="n">
-        <v>1.781</v>
+        <v>1.807</v>
       </c>
       <c r="E91" t="n">
-        <v>1.779</v>
+        <v>1.806</v>
       </c>
       <c r="F91" t="n">
-        <v>759714.3837</v>
+        <v>116701</v>
       </c>
       <c r="G91" t="n">
-        <v>-18354014.96353553</v>
+        <v>-13754507.37273554</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3678,32 +3784,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.779</v>
+        <v>1.806</v>
       </c>
       <c r="C92" t="n">
-        <v>1.78</v>
+        <v>1.806</v>
       </c>
       <c r="D92" t="n">
-        <v>1.78</v>
+        <v>1.806</v>
       </c>
       <c r="E92" t="n">
-        <v>1.779</v>
+        <v>1.806</v>
       </c>
       <c r="F92" t="n">
-        <v>438187.6978</v>
+        <v>120000</v>
       </c>
       <c r="G92" t="n">
-        <v>-17915827.26573553</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3714,32 +3828,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="C93" t="n">
-        <v>1.777</v>
+        <v>1.806</v>
       </c>
       <c r="D93" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="E93" t="n">
-        <v>1.777</v>
+        <v>1.806</v>
       </c>
       <c r="F93" t="n">
-        <v>241889.7904</v>
+        <v>29667</v>
       </c>
       <c r="G93" t="n">
-        <v>-18157717.05613553</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3750,32 +3872,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="C94" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="D94" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="E94" t="n">
-        <v>1.778</v>
+        <v>1.806</v>
       </c>
       <c r="F94" t="n">
-        <v>154548.2627</v>
+        <v>828.4707</v>
       </c>
       <c r="G94" t="n">
-        <v>-18003168.79343553</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3786,32 +3916,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="C95" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="D95" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="E95" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="F95" t="n">
-        <v>280</v>
+        <v>656.7006</v>
       </c>
       <c r="G95" t="n">
-        <v>-18002888.79343553</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3822,32 +3960,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.777</v>
+        <v>1.806</v>
       </c>
       <c r="C96" t="n">
-        <v>1.764</v>
+        <v>1.806</v>
       </c>
       <c r="D96" t="n">
-        <v>1.777</v>
+        <v>1.806</v>
       </c>
       <c r="E96" t="n">
-        <v>1.764</v>
+        <v>1.806</v>
       </c>
       <c r="F96" t="n">
-        <v>389466.2061</v>
+        <v>19208.0338</v>
       </c>
       <c r="G96" t="n">
-        <v>-18392354.99953553</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3858,32 +4004,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="C97" t="n">
-        <v>1.762</v>
+        <v>1.806</v>
       </c>
       <c r="D97" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="E97" t="n">
-        <v>1.762</v>
+        <v>1.806</v>
       </c>
       <c r="F97" t="n">
-        <v>561</v>
+        <v>1626</v>
       </c>
       <c r="G97" t="n">
-        <v>-18392915.99953553</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +4048,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.762</v>
+        <v>1.791</v>
       </c>
       <c r="C98" t="n">
-        <v>1.762</v>
+        <v>1.806</v>
       </c>
       <c r="D98" t="n">
-        <v>1.762</v>
+        <v>1.806</v>
       </c>
       <c r="E98" t="n">
-        <v>1.762</v>
+        <v>1.791</v>
       </c>
       <c r="F98" t="n">
-        <v>493266.8141</v>
+        <v>143455.7792</v>
       </c>
       <c r="G98" t="n">
-        <v>-18392915.99953553</v>
+        <v>-13874507.37273554</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -3918,12 +4072,16 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.762</v>
+        <v>1.806</v>
       </c>
       <c r="K98" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="L98" t="inlineStr"/>
+        <v>1.812</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3934,22 +4092,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="C99" t="n">
-        <v>1.79</v>
+        <v>1.807</v>
       </c>
       <c r="D99" t="n">
-        <v>1.79</v>
+        <v>1.807</v>
       </c>
       <c r="E99" t="n">
-        <v>1.79</v>
+        <v>1.806</v>
       </c>
       <c r="F99" t="n">
-        <v>280</v>
+        <v>80000</v>
       </c>
       <c r="G99" t="n">
-        <v>-18392635.99953553</v>
+        <v>-13794507.37273554</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -3958,14 +4116,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.762</v>
+        <v>1.806</v>
       </c>
       <c r="K99" t="n">
-        <v>1.762</v>
+        <v>1.812</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
@@ -3978,22 +4136,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="C100" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="D100" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="E100" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="F100" t="n">
-        <v>278</v>
+        <v>205161.0894</v>
       </c>
       <c r="G100" t="n">
-        <v>-18392357.99953553</v>
+        <v>-13589346.28333554</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4002,14 +4160,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1.79</v>
+        <v>1.807</v>
       </c>
       <c r="K100" t="n">
-        <v>1.762</v>
+        <v>1.812</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4022,22 +4180,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.81</v>
+        <v>1.827</v>
       </c>
       <c r="C101" t="n">
-        <v>1.81</v>
+        <v>1.827</v>
       </c>
       <c r="D101" t="n">
-        <v>1.813</v>
+        <v>1.827</v>
       </c>
       <c r="E101" t="n">
-        <v>1.81</v>
+        <v>1.827</v>
       </c>
       <c r="F101" t="n">
-        <v>1738.33</v>
+        <v>290</v>
       </c>
       <c r="G101" t="n">
-        <v>-18392357.99953553</v>
+        <v>-13589056.28333554</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -4046,14 +4204,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="K101" t="n">
-        <v>1.762</v>
+        <v>1.812</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4066,22 +4224,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.813</v>
+        <v>1.826</v>
       </c>
       <c r="C102" t="n">
-        <v>1.813</v>
+        <v>1.842</v>
       </c>
       <c r="D102" t="n">
-        <v>1.813</v>
+        <v>1.842</v>
       </c>
       <c r="E102" t="n">
-        <v>1.813</v>
+        <v>1.826</v>
       </c>
       <c r="F102" t="n">
-        <v>278</v>
+        <v>180808.5</v>
       </c>
       <c r="G102" t="n">
-        <v>-18392079.99953553</v>
+        <v>-13408247.78333554</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4091,7 +4249,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>1.762</v>
+        <v>1.812</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4108,22 +4266,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.81</v>
+        <v>1.842</v>
       </c>
       <c r="C103" t="n">
-        <v>1.78</v>
+        <v>1.842</v>
       </c>
       <c r="D103" t="n">
-        <v>1.81</v>
+        <v>1.842</v>
       </c>
       <c r="E103" t="n">
-        <v>1.78</v>
+        <v>1.842</v>
       </c>
       <c r="F103" t="n">
-        <v>371709.1932</v>
+        <v>76510</v>
       </c>
       <c r="G103" t="n">
-        <v>-18763789.19273553</v>
+        <v>-13408247.78333554</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4133,7 +4291,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>1.762</v>
+        <v>1.812</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4150,22 +4308,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.809</v>
+        <v>1.842</v>
       </c>
       <c r="C104" t="n">
-        <v>1.809</v>
+        <v>1.846</v>
       </c>
       <c r="D104" t="n">
-        <v>1.809</v>
+        <v>1.846</v>
       </c>
       <c r="E104" t="n">
-        <v>1.809</v>
+        <v>1.842</v>
       </c>
       <c r="F104" t="n">
-        <v>275</v>
+        <v>621874.5609</v>
       </c>
       <c r="G104" t="n">
-        <v>-18763514.19273553</v>
+        <v>-12786373.22243554</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4175,7 +4333,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>1.762</v>
+        <v>1.812</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4192,34 +4350,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.78</v>
+        <v>1.847</v>
       </c>
       <c r="C105" t="n">
-        <v>1.78</v>
+        <v>1.847</v>
       </c>
       <c r="D105" t="n">
-        <v>1.78</v>
+        <v>1.847</v>
       </c>
       <c r="E105" t="n">
-        <v>1.772</v>
+        <v>1.847</v>
       </c>
       <c r="F105" t="n">
-        <v>158801.0695</v>
+        <v>167504.1875</v>
       </c>
       <c r="G105" t="n">
-        <v>-18922315.26223553</v>
+        <v>-12618869.03493554</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1.809</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>1.762</v>
+        <v>1.812</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4236,34 +4392,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.772</v>
+        <v>1.86</v>
       </c>
       <c r="C106" t="n">
-        <v>1.761</v>
+        <v>1.887</v>
       </c>
       <c r="D106" t="n">
-        <v>1.772</v>
+        <v>1.887</v>
       </c>
       <c r="E106" t="n">
-        <v>1.761</v>
+        <v>1.86</v>
       </c>
       <c r="F106" t="n">
-        <v>546086.5898</v>
+        <v>841304.5742</v>
       </c>
       <c r="G106" t="n">
-        <v>-19468401.85203553</v>
+        <v>-11777564.46073554</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1.78</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>1.762</v>
+        <v>1.812</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4280,34 +4434,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.778</v>
+        <v>1.887</v>
       </c>
       <c r="C107" t="n">
-        <v>1.778</v>
+        <v>1.891</v>
       </c>
       <c r="D107" t="n">
-        <v>1.778</v>
+        <v>1.9</v>
       </c>
       <c r="E107" t="n">
-        <v>1.778</v>
+        <v>1.887</v>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>1110662.484</v>
       </c>
       <c r="G107" t="n">
-        <v>-19468101.85203553</v>
+        <v>-10666901.97673554</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1.761</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>1.762</v>
+        <v>1.812</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4324,44 +4476,2684 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.776</v>
+        <v>1.899</v>
       </c>
       <c r="C108" t="n">
-        <v>1.776</v>
+        <v>1.899</v>
       </c>
       <c r="D108" t="n">
-        <v>1.776</v>
+        <v>1.899</v>
       </c>
       <c r="E108" t="n">
-        <v>1.776</v>
+        <v>1.899</v>
       </c>
       <c r="F108" t="n">
-        <v>20000</v>
+        <v>262</v>
       </c>
       <c r="G108" t="n">
-        <v>-19488101.85203553</v>
+        <v>-10666639.97673554</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1.043013245033113</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F109" t="n">
+        <v>138750.7891</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-10527889.18763554</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F110" t="n">
+        <v>247895.587</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-10527889.18763554</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3101.2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-10530990.38763554</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>290</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-10530700.38763554</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F113" t="n">
+        <v>124990.58</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-10655690.96763554</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F114" t="n">
+        <v>565379.1464</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-11221070.11403554</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4204.4</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-11225274.51403554</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12471.6541</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-11212802.85993554</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F117" t="n">
+        <v>270</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-11213072.85993554</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="F118" t="n">
+        <v>384873.3691</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-11597946.22903554</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F119" t="n">
+        <v>283</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-11597663.22903554</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F120" t="n">
+        <v>582.7891</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-11598246.01813554</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F121" t="n">
+        <v>263</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-11597983.01813554</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9832.239</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-11607815.25713554</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F123" t="n">
+        <v>53541.9275</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-11607815.25713554</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="F124" t="n">
+        <v>319785.0332</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-11927600.29033554</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F125" t="n">
+        <v>310</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-11927290.29033554</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11048.1339</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-11938338.42423554</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="F127" t="n">
+        <v>31028.1125</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-11907310.31173554</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7322.4675</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-11914632.77923553</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F129" t="n">
+        <v>299425.8357</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-12214058.61493553</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="F130" t="n">
+        <v>162940.2358</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-12214058.61493553</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="F131" t="n">
+        <v>280166.5686</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-11933892.04633553</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15539.5398</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-11949431.58613553</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F133" t="n">
+        <v>294946.0358</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-12244377.62193553</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F134" t="n">
+        <v>286220.6091</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-12244377.62193553</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F135" t="n">
+        <v>105238.1115</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-12244377.62193553</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F136" t="n">
+        <v>56288.4224</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-12244377.62193553</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F137" t="n">
+        <v>395.7403</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-12243981.88163553</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-12250981.88163553</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="F139" t="n">
+        <v>290</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-12250691.88163553</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5076.2628</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-12255768.14443553</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F141" t="n">
+        <v>25818.7494</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-12255768.14443553</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F142" t="n">
+        <v>90000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-12345768.14443553</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="F143" t="n">
+        <v>271</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-12345497.14443553</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F144" t="n">
+        <v>140000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-12485497.14443553</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="F145" t="n">
+        <v>290</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-12485207.14443553</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>199841.0431</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-12485207.14443553</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="F147" t="n">
+        <v>193450.3195</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-12678657.46393553</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="F148" t="n">
+        <v>260872.5008</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-12939529.96473553</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="F149" t="n">
+        <v>273</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-12939256.96473553</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="F150" t="n">
+        <v>234785.2507</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-13174042.21543553</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="F151" t="n">
+        <v>272</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-13173770.21543553</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2508548.6454</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-15682318.86083553</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F153" t="n">
+        <v>362979.31</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-15682318.86083553</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F154" t="n">
+        <v>386262.5878</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-16068581.44863553</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1482970.5392</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-17551551.98783553</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F156" t="n">
+        <v>221139.7695</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-17330412.21833554</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F157" t="n">
+        <v>36955.6939</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-17367367.91223554</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3574.1754</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-17363793.73683554</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="F159" t="n">
+        <v>93779.6698</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-17457573.40663553</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5595.8471</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-17457573.40663553</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>1.778</v>
       </c>
-      <c r="K108" t="n">
+      <c r="C161" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="F161" t="n">
+        <v>136727.1732</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-17594300.57983553</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F162" t="n">
+        <v>759714.3837</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-18354014.96353553</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F163" t="n">
+        <v>438187.6978</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-17915827.26573553</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="F164" t="n">
+        <v>241889.7904</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-18157717.05613553</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="F165" t="n">
+        <v>154548.2627</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-18003168.79343553</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F166" t="n">
+        <v>280</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-18002888.79343553</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F167" t="n">
+        <v>389466.2061</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-18392354.99953553</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C168" t="n">
         <v>1.762</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="D168" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F168" t="n">
+        <v>561</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-18392915.99953553</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F169" t="n">
+        <v>493266.8141</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-18392915.99953553</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F170" t="n">
+        <v>280</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-18392635.99953553</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F171" t="n">
+        <v>278</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-18392357.99953553</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1738.33</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-18392357.99953553</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F173" t="n">
+        <v>278</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-18392079.99953553</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F174" t="n">
+        <v>371709.1932</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-18763789.19273553</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F175" t="n">
+        <v>275</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-18763514.19273553</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F176" t="n">
+        <v>158801.0695</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-18922315.26223553</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="F177" t="n">
+        <v>546086.5898</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-19468401.85203553</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="F178" t="n">
+        <v>300</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-19468101.85203553</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-19488101.85203553</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest MXC.xlsx
+++ b/BackTest/2020-01-23 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N179"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,22 +2431,15 @@
         <v>-12103509.15923554</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2656,2186 +2464,2005 @@
         <v>-10903124.47213554</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>17337.7656</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-10903124.47213554</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F65" t="n">
+        <v>276</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-10902848.47213554</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F66" t="n">
+        <v>167000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-11069848.47213554</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F67" t="n">
+        <v>290</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-11069558.47213554</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="F68" t="n">
+        <v>246.468</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-11069804.94013554</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F69" t="n">
+        <v>795.532</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-11070600.47213554</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F70" t="n">
+        <v>300</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-11070300.47213554</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-11150300.47213554</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1776541.4504</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-11150300.47213554</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>31473.6082</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-11150300.47213554</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F74" t="n">
+        <v>31473.6082</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-11181774.08033554</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F75" t="n">
+        <v>280</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-11181494.08033554</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C76" t="n">
         <v>1.79</v>
       </c>
-      <c r="K63" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="D76" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2717087.8368</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-13898581.91713554</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>280</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-13898301.91713554</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>4199.2405</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-13894102.67663554</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="F79" t="n">
+        <v>932.79</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-13894102.67663554</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="F80" t="n">
+        <v>300</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-13893802.67663554</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F81" t="n">
+        <v>320654.4544</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-13893802.67663554</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F82" t="n">
+        <v>67253.58930000001</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-13961056.26593554</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F83" t="n">
+        <v>36765.1117</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-13961056.26593554</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F84" t="n">
+        <v>635.0964</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-13961691.36233554</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F85" t="n">
+        <v>274</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-13961417.36233554</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11524.2455</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-13972941.60783554</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F87" t="n">
+        <v>290</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-13972651.60783554</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F88" t="n">
+        <v>29657.1444</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-13972651.60783554</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F64" t="n">
-        <v>17337.7656</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-10903124.47213554</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F65" t="n">
-        <v>276</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-10902848.47213554</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="F66" t="n">
-        <v>167000</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-11069848.47213554</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F67" t="n">
-        <v>290</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-11069558.47213554</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1.804</v>
-      </c>
-      <c r="F68" t="n">
-        <v>246.468</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-11069804.94013554</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
         <v>1.791</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C89" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D89" t="n">
         <v>1.791</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E89" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F89" t="n">
+        <v>115554.7649</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-14088206.37273554</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="J89" t="n">
         <v>1.791</v>
       </c>
-      <c r="E69" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="F69" t="n">
-        <v>795.532</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-11070600.47213554</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F70" t="n">
-        <v>300</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-11070300.47213554</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.801</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F71" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-11150300.47213554</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1776541.4504</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-11150300.47213554</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F73" t="n">
-        <v>31473.6082</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-11150300.47213554</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="E74" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="F74" t="n">
-        <v>31473.6082</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-11181774.08033554</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F75" t="n">
-        <v>280</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-11181494.08033554</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F76" t="n">
-        <v>2717087.8368</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-13898581.91713554</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>280</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-13898301.91713554</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>4199.2405</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-13894102.67663554</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1.811</v>
-      </c>
-      <c r="F79" t="n">
-        <v>932.79</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-13894102.67663554</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="F80" t="n">
-        <v>300</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-13893802.67663554</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="F81" t="n">
-        <v>320654.4544</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-13893802.67663554</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F82" t="n">
-        <v>67253.58930000001</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-13961056.26593554</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F83" t="n">
-        <v>36765.1117</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-13961056.26593554</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="F84" t="n">
-        <v>635.0964</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-13961691.36233554</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F85" t="n">
-        <v>274</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-13961417.36233554</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F90" t="n">
+        <v>216998</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-13871208.37273554</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
         <v>1.791</v>
       </c>
-      <c r="K85" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F91" t="n">
+        <v>116701</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-13754507.37273554</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
         <v>1.791</v>
       </c>
-      <c r="C86" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="F86" t="n">
-        <v>11524.2455</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-13972941.60783554</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="F87" t="n">
-        <v>290</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-13972651.60783554</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F92" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-13874507.37273554</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="J92" t="n">
         <v>1.791</v>
       </c>
-      <c r="K87" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="F88" t="n">
-        <v>29657.1444</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-13972651.60783554</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F93" t="n">
+        <v>29667</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-13874507.37273554</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F94" t="n">
+        <v>828.4707</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-13874507.37273554</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J94" t="n">
         <v>1.791</v>
       </c>
-      <c r="C89" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F89" t="n">
-        <v>115554.7649</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-14088206.37273554</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
         <v>1.806</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C95" t="n">
         <v>1.806</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D95" t="n">
         <v>1.806</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E95" t="n">
         <v>1.806</v>
       </c>
-      <c r="F90" t="n">
-        <v>216998</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-13871208.37273554</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="F95" t="n">
+        <v>656.7006</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-13874507.37273554</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
         <v>1.806</v>
       </c>
-      <c r="C91" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="E91" t="n">
+      <c r="C96" t="n">
         <v>1.806</v>
       </c>
-      <c r="F91" t="n">
-        <v>116701</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-13754507.37273554</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
+      <c r="D96" t="n">
         <v>1.806</v>
       </c>
-      <c r="K91" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="E96" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F96" t="n">
+        <v>19208.0338</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-13874507.37273554</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
         <v>1.806</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C97" t="n">
         <v>1.806</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D97" t="n">
         <v>1.806</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E97" t="n">
         <v>1.806</v>
       </c>
-      <c r="F92" t="n">
-        <v>120000</v>
-      </c>
-      <c r="G92" t="n">
+      <c r="F97" t="n">
+        <v>1626</v>
+      </c>
+      <c r="G97" t="n">
         <v>-13874507.37273554</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="C98" t="n">
         <v>1.806</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D98" t="n">
         <v>1.806</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E98" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F98" t="n">
+        <v>143455.7792</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-13874507.37273554</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+      <c r="I98" t="n">
         <v>1.806</v>
       </c>
-      <c r="E93" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F93" t="n">
-        <v>29667</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="J98" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
         <v>1.806</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C99" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="E99" t="n">
         <v>1.806</v>
       </c>
-      <c r="D94" t="n">
+      <c r="F99" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-13794507.37273554</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
         <v>1.806</v>
       </c>
-      <c r="E94" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F94" t="n">
-        <v>828.4707</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J99" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F95" t="n">
-        <v>656.7006</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K95" t="n">
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="C100" t="n">
         <v>1.812</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="D100" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="F100" t="n">
+        <v>205161.0894</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-13589346.28333554</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F96" t="n">
-        <v>19208.0338</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K96" t="n">
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="F101" t="n">
+        <v>290</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-13589056.28333554</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
         <v>1.812</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="J101" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1626</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="F102" t="n">
+        <v>180808.5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-13408247.78333554</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="F103" t="n">
+        <v>76510</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-13408247.78333554</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
         <v>1.791</v>
       </c>
-      <c r="C98" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="F98" t="n">
-        <v>143455.7792</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F99" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-13794507.37273554</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="F104" t="n">
+        <v>621874.5609</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-12786373.22243554</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="F100" t="n">
-        <v>205161.0894</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-13589346.28333554</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="F105" t="n">
+        <v>167504.1875</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-12618869.03493554</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="F101" t="n">
-        <v>290</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-13589056.28333554</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F106" t="n">
+        <v>841304.5742</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-11777564.46073554</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="F102" t="n">
-        <v>180808.5</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-13408247.78333554</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1110662.484</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-10666901.97673554</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="F103" t="n">
-        <v>76510</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-13408247.78333554</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F108" t="n">
+        <v>262</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-10666639.97673554</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="F104" t="n">
-        <v>621874.5609</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-12786373.22243554</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F109" t="n">
+        <v>138750.7891</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-10527889.18763554</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.847</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.847</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.847</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.847</v>
-      </c>
-      <c r="F105" t="n">
-        <v>167504.1875</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-12618869.03493554</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F110" t="n">
+        <v>247895.587</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-10527889.18763554</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
         <v>1.86</v>
       </c>
-      <c r="C106" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E106" t="n">
+      <c r="C111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E111" t="n">
         <v>1.86</v>
       </c>
-      <c r="F106" t="n">
-        <v>841304.5742</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-11777564.46073554</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="F111" t="n">
+        <v>3101.2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-10530990.38763554</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
         <v>1.9</v>
       </c>
-      <c r="E107" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1110662.484</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-10666901.97673554</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="C112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>290</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-10530700.38763554</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F108" t="n">
-        <v>262</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-10666639.97673554</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F113" t="n">
+        <v>124990.58</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-10655690.96763554</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F114" t="n">
+        <v>565379.1464</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-11221070.11403554</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4204.4</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-11225274.51403554</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12471.6541</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-11212802.85993554</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F117" t="n">
+        <v>270</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-11213072.85993554</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1.043013245033113</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F109" t="n">
-        <v>138750.7891</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-10527889.18763554</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F110" t="n">
-        <v>247895.587</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-10527889.18763554</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3101.2</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-10530990.38763554</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F112" t="n">
-        <v>290</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-10530700.38763554</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F113" t="n">
-        <v>124990.58</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-10655690.96763554</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F114" t="n">
-        <v>565379.1464</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-11221070.11403554</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F115" t="n">
-        <v>4204.4</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-11225274.51403554</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F116" t="n">
-        <v>12471.6541</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-11212802.85993554</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F117" t="n">
-        <v>270</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-11213072.85993554</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1.032967615857063</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4862,16 +4489,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4896,18 +4520,15 @@
         <v>-11597663.22903554</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4934,16 +4555,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4968,18 +4586,15 @@
         <v>-11597983.01813554</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5004,18 +4619,15 @@
         <v>-11607815.25713554</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5042,16 +4654,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5076,18 +4685,15 @@
         <v>-11927600.29033554</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5112,18 +4718,15 @@
         <v>-11927290.29033554</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5150,16 +4753,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5186,16 +4786,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5222,16 +4819,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5258,16 +4852,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5294,16 +4885,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5330,16 +4918,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5366,16 +4951,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5402,16 +4984,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5438,16 +5017,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5472,22 +5048,15 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5514,22 +5083,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5554,26 +5114,15 @@
         <v>-12243981.88163553</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5598,18 +5147,15 @@
         <v>-12250981.88163553</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5634,18 +5180,15 @@
         <v>-12250691.88163553</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5670,18 +5213,15 @@
         <v>-12255768.14443553</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5708,16 +5248,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5744,16 +5281,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5780,16 +5314,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5816,16 +5347,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5852,16 +5380,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5888,16 +5413,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5924,16 +5446,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5960,16 +5479,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5996,16 +5512,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6032,16 +5545,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6068,16 +5578,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6104,16 +5611,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6140,16 +5644,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6176,16 +5677,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6212,16 +5710,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6248,16 +5743,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6284,16 +5776,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6320,16 +5809,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6356,16 +5842,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6392,16 +5875,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6428,16 +5908,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6464,16 +5941,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6500,16 +5974,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6536,16 +6007,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6572,16 +6040,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6608,16 +6073,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6642,24 +6104,15 @@
         <v>-18392354.99953553</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6684,24 +6137,15 @@
         <v>-18392915.99953553</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>1.764</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6726,24 +6170,15 @@
         <v>-18392915.99953553</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1.762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6768,24 +6203,15 @@
         <v>-18392635.99953553</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6810,24 +6236,15 @@
         <v>-18392357.99953553</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6854,20 +6271,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6894,20 +6304,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6934,20 +6337,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6974,20 +6370,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7014,20 +6403,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7052,24 +6434,15 @@
         <v>-19468401.85203553</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7094,24 +6467,15 @@
         <v>-19468101.85203553</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7136,26 +6500,17 @@
         <v>-19488101.85203553</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1.778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest MXC.xlsx
+++ b/BackTest/2020-01-23 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3597525.813000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3657525.813000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3627174.823100001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3627174.823100001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3446863.299000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3683274.759300001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7683274.759300001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7682973.759300001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8141562.159300001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8141562.159300001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8052540.694300001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8052260.694300001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8092260.694300001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8092260.694300001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8091970.694300001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8275907.008300002</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-8275627.008300002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-8275627.008300002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8275627.008300002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8333688.827100001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8333417.827100001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8408561.7728</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-8158677.343345593</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8132351.023445593</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8072351.023445593</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8182438.726545593</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-8129240.983045593</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-8121043.873645592</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-8310541.743845592</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3256,14 +3256,10 @@
         <v>-13972651.60783554</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1.791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3296,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3332,19 +3322,11 @@
         <v>-14088206.37273554</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3376,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3415,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3451,19 +3421,11 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3492,19 +3454,15 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1.806</v>
       </c>
       <c r="J93" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.806</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3533,17 +3491,15 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3574,17 +3530,17 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>1.806</v>
       </c>
       <c r="J95" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3615,19 +3571,15 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>1.806</v>
       </c>
       <c r="J96" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.806</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3656,17 +3608,17 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>1.806</v>
       </c>
       <c r="J97" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3697,17 +3649,17 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>1.806</v>
       </c>
       <c r="J98" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3738,13 +3690,13 @@
         <v>-13794507.37273554</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>1.806</v>
       </c>
       <c r="J99" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3779,13 +3731,13 @@
         <v>-13589346.28333554</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>1.807</v>
       </c>
       <c r="J100" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3820,13 +3772,13 @@
         <v>-13589056.28333554</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>1.812</v>
       </c>
       <c r="J101" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3861,13 +3813,13 @@
         <v>-13408247.78333554</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>1.827</v>
       </c>
       <c r="J102" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3902,11 +3854,13 @@
         <v>-13408247.78333554</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1.842</v>
+      </c>
       <c r="J103" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3945,7 +3899,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3980,11 +3934,13 @@
         <v>-12618869.03493554</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1.846</v>
+      </c>
       <c r="J105" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4023,7 +3979,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4062,7 +4018,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4101,7 +4057,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4140,7 +4096,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4175,11 +4131,11 @@
         <v>-10527889.18763554</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4214,11 +4170,11 @@
         <v>-10530990.38763554</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4253,11 +4209,11 @@
         <v>-10530700.38763554</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4292,11 +4248,11 @@
         <v>-10655690.96763554</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4335,7 +4291,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4370,11 +4326,11 @@
         <v>-11225274.51403554</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4409,11 +4365,11 @@
         <v>-11212802.85993554</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4448,19 +4404,19 @@
         <v>-11213072.85993554</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>1.791</v>
+        <v>1.806</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.032967615857063</v>
+        <v>1</v>
       </c>
       <c r="M117" t="inlineStr"/>
     </row>
@@ -4490,8 +4446,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4520,11 +4482,17 @@
         <v>-11597663.22903554</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4556,8 +4524,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4586,11 +4560,17 @@
         <v>-11597983.01813554</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4599,17 @@
         <v>-11607815.25713554</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4655,8 +4641,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4685,11 +4677,17 @@
         <v>-11927600.29033554</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4718,11 +4716,17 @@
         <v>-11927290.29033554</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4754,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4787,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4820,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4853,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4886,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4919,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4952,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4985,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5018,8 +5070,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5051,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5084,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5117,8 +5187,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5147,11 +5223,17 @@
         <v>-12250981.88163553</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5180,11 +5262,17 @@
         <v>-12250691.88163553</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5213,11 +5301,17 @@
         <v>-12255768.14443553</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5249,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5282,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5315,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5348,8 +5460,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5381,8 +5499,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5414,8 +5538,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5447,8 +5577,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5480,8 +5616,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5513,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5546,8 +5694,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5579,8 +5733,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5612,8 +5772,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5645,8 +5811,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5678,8 +5850,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5711,8 +5889,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5744,8 +5928,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +5967,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5810,8 +6006,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5843,8 +6045,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5876,8 +6084,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5909,8 +6123,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5942,8 +6162,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5975,8 +6201,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6008,8 +6240,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6041,8 +6279,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6074,8 +6318,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6107,8 +6357,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6140,8 +6396,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6173,8 +6435,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6206,8 +6474,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6239,8 +6513,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6272,8 +6552,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6305,8 +6591,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6338,8 +6630,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6371,8 +6669,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6404,8 +6708,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6434,11 +6744,19 @@
         <v>-19468401.85203553</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6467,11 +6785,19 @@
         <v>-19468101.85203553</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6500,17 +6826,25 @@
         <v>-19488101.85203553</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest MXC.xlsx
+++ b/BackTest/2020-01-23 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3597525.813000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3657525.813000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3627174.823100001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3627174.823100001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3446863.299000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3683274.759300001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-7683274.759300001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7682973.759300001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-8141562.159300001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-8141562.159300001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-8052540.694300001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-8052260.694300001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-8092260.694300001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-8092260.694300001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-8091970.694300001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-8275907.008300002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-8275627.008300002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-8275627.008300002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-8275627.008300002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-8333688.827100001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-8333417.827100001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-8408561.7728</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-8158677.343345593</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-8132351.023445593</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-8072351.023445593</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-8182438.726545593</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-8129240.983045593</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-8310541.743845592</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3454,14 +3454,10 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3494,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3530,19 +3520,11 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3571,14 +3553,10 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3608,19 +3586,11 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3649,2488 +3619,2096 @@
         <v>-13874507.37273554</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
         <v>1.806</v>
       </c>
-      <c r="J98" t="n">
+      <c r="C99" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="E99" t="n">
         <v>1.806</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="F99" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-13794507.37273554</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.812</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="F100" t="n">
+        <v>205161.0894</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-13589346.28333554</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="F101" t="n">
+        <v>290</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-13589056.28333554</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="F102" t="n">
+        <v>180808.5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-13408247.78333554</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="F103" t="n">
+        <v>76510</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-13408247.78333554</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="F104" t="n">
+        <v>621874.5609</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-12786373.22243554</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="F105" t="n">
+        <v>167504.1875</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-12618869.03493554</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F106" t="n">
+        <v>841304.5742</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-11777564.46073554</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1110662.484</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-10666901.97673554</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F108" t="n">
+        <v>262</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-10666639.97673554</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F109" t="n">
+        <v>138750.7891</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-10527889.18763554</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F110" t="n">
+        <v>247895.587</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-10527889.18763554</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3101.2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-10530990.38763554</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F112" t="n">
+        <v>290</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-10530700.38763554</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F113" t="n">
+        <v>124990.58</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-10655690.96763554</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F114" t="n">
+        <v>565379.1464</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-11221070.11403554</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4204.4</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-11225274.51403554</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12471.6541</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-11212802.85993554</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="F117" t="n">
+        <v>270</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-11213072.85993554</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="F118" t="n">
+        <v>384873.3691</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-11597946.22903554</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F119" t="n">
+        <v>283</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-11597663.22903554</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F120" t="n">
+        <v>582.7891</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-11598246.01813554</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="F121" t="n">
+        <v>263</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-11597983.01813554</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9832.239</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-11607815.25713554</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="F123" t="n">
+        <v>53541.9275</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-11607815.25713554</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="F124" t="n">
+        <v>319785.0332</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-11927600.29033554</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F125" t="n">
+        <v>310</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-11927290.29033554</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="F126" t="n">
+        <v>11048.1339</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-11938338.42423554</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="F127" t="n">
+        <v>31028.1125</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-11907310.31173554</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7322.4675</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-11914632.77923553</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F129" t="n">
+        <v>299425.8357</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-12214058.61493553</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="F130" t="n">
+        <v>162940.2358</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-12214058.61493553</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="F131" t="n">
+        <v>280166.5686</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-11933892.04633553</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15539.5398</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-11949431.58613553</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F133" t="n">
+        <v>294946.0358</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-12244377.62193553</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F134" t="n">
+        <v>286220.6091</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-12244377.62193553</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F135" t="n">
+        <v>105238.1115</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-12244377.62193553</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F136" t="n">
+        <v>56288.4224</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-12244377.62193553</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F137" t="n">
+        <v>395.7403</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-12243981.88163553</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-12250981.88163553</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="F139" t="n">
+        <v>290</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-12250691.88163553</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5076.2628</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-12255768.14443553</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F141" t="n">
+        <v>25818.7494</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-12255768.14443553</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F142" t="n">
+        <v>90000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-12345768.14443553</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="F143" t="n">
+        <v>271</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-12345497.14443553</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="F144" t="n">
+        <v>140000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-12485497.14443553</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="F145" t="n">
+        <v>290</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-12485207.14443553</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>199841.0431</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-12485207.14443553</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="F147" t="n">
+        <v>193450.3195</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-12678657.46393553</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="F148" t="n">
+        <v>260872.5008</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-12939529.96473553</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="F149" t="n">
+        <v>273</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-12939256.96473553</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="F150" t="n">
+        <v>234785.2507</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-13174042.21543553</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="F151" t="n">
+        <v>272</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-13173770.21543553</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2508548.6454</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-15682318.86083553</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F153" t="n">
+        <v>362979.31</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-15682318.86083553</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="F154" t="n">
+        <v>386262.5878</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-16068581.44863553</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1482970.5392</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-17551551.98783553</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="F156" t="n">
+        <v>221139.7695</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-17330412.21833554</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F157" t="n">
+        <v>36955.6939</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-17367367.91223554</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3574.1754</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-17363793.73683554</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="F159" t="n">
+        <v>93779.6698</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-17457573.40663553</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5595.8471</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-17457573.40663553</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="F161" t="n">
+        <v>136727.1732</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-17594300.57983553</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F99" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-13794507.37273554</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="F100" t="n">
-        <v>205161.0894</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-13589346.28333554</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="F101" t="n">
-        <v>290</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-13589056.28333554</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.826</v>
-      </c>
-      <c r="F102" t="n">
-        <v>180808.5</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-13408247.78333554</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="F103" t="n">
-        <v>76510</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-13408247.78333554</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="F104" t="n">
-        <v>621874.5609</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-12786373.22243554</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.847</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.847</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.847</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.847</v>
-      </c>
-      <c r="F105" t="n">
-        <v>167504.1875</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-12618869.03493554</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F106" t="n">
-        <v>841304.5742</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-11777564.46073554</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1110662.484</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-10666901.97673554</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F108" t="n">
-        <v>262</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-10666639.97673554</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F109" t="n">
-        <v>138750.7891</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-10527889.18763554</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F110" t="n">
-        <v>247895.587</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-10527889.18763554</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3101.2</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-10530990.38763554</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F112" t="n">
-        <v>290</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-10530700.38763554</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F113" t="n">
-        <v>124990.58</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-10655690.96763554</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F114" t="n">
-        <v>565379.1464</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-11221070.11403554</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F115" t="n">
-        <v>4204.4</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-11225274.51403554</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F116" t="n">
-        <v>12471.6541</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-11212802.85993554</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="F117" t="n">
-        <v>270</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-11213072.85993554</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.842</v>
-      </c>
-      <c r="F118" t="n">
-        <v>384873.3691</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-11597946.22903554</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F119" t="n">
-        <v>283</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-11597663.22903554</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F120" t="n">
-        <v>582.7891</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-11598246.01813554</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.872</v>
-      </c>
-      <c r="F121" t="n">
-        <v>263</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-11597983.01813554</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F122" t="n">
-        <v>9832.239</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-11607815.25713554</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.851</v>
-      </c>
-      <c r="F123" t="n">
-        <v>53541.9275</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-11607815.25713554</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.843</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.843</v>
-      </c>
-      <c r="F124" t="n">
-        <v>319785.0332</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-11927600.29033554</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F125" t="n">
-        <v>310</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-11927290.29033554</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="F126" t="n">
-        <v>11048.1339</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-11938338.42423554</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.846</v>
-      </c>
-      <c r="F127" t="n">
-        <v>31028.1125</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-11907310.31173554</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="F128" t="n">
-        <v>7322.4675</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-11914632.77923553</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F129" t="n">
-        <v>299425.8357</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-12214058.61493553</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="F130" t="n">
-        <v>162940.2358</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-12214058.61493553</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="F131" t="n">
-        <v>280166.5686</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-11933892.04633553</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="F132" t="n">
-        <v>15539.5398</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-11949431.58613553</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F133" t="n">
-        <v>294946.0358</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-12244377.62193553</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F134" t="n">
-        <v>286220.6091</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-12244377.62193553</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F135" t="n">
-        <v>105238.1115</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-12244377.62193553</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F136" t="n">
-        <v>56288.4224</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-12244377.62193553</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F137" t="n">
-        <v>395.7403</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-12243981.88163553</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.822</v>
-      </c>
-      <c r="F138" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-12250981.88163553</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1.849</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.849</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.849</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.849</v>
-      </c>
-      <c r="F139" t="n">
-        <v>290</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-12250691.88163553</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="F140" t="n">
-        <v>5076.2628</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-12255768.14443553</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.823</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.848</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="F141" t="n">
-        <v>25818.7494</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-12255768.14443553</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F142" t="n">
-        <v>90000</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-12345768.14443553</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.839</v>
-      </c>
-      <c r="F143" t="n">
-        <v>271</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-12345497.14443553</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="F144" t="n">
-        <v>140000</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-12485497.14443553</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="F145" t="n">
-        <v>290</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-12485207.14443553</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1.803</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.837</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>199841.0431</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-12485207.14443553</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.796</v>
-      </c>
-      <c r="F147" t="n">
-        <v>193450.3195</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-12678657.46393553</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="F148" t="n">
-        <v>260872.5008</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-12939529.96473553</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="F149" t="n">
-        <v>273</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-12939256.96473553</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="F150" t="n">
-        <v>234785.2507</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-13174042.21543553</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="F151" t="n">
-        <v>272</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-13173770.21543553</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2508548.6454</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-15682318.86083553</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="F153" t="n">
-        <v>362979.31</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-15682318.86083553</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.783</v>
-      </c>
-      <c r="F154" t="n">
-        <v>386262.5878</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-16068581.44863553</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.782</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1482970.5392</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-17551551.98783553</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="F156" t="n">
-        <v>221139.7695</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-17330412.21833554</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F157" t="n">
-        <v>36955.6939</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-17367367.91223554</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F158" t="n">
-        <v>3574.1754</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-17363793.73683554</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.795</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="F159" t="n">
-        <v>93779.6698</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-17457573.40663553</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.787</v>
-      </c>
-      <c r="F160" t="n">
-        <v>5595.8471</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-17457573.40663553</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="F161" t="n">
-        <v>136727.1732</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-17594300.57983553</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6159,12 +5737,12 @@
         <v>-18354014.96353553</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1.806</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6198,12 +5776,12 @@
         <v>-17915827.26573553</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1.806</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6237,12 +5815,12 @@
         <v>-18157717.05613553</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>1.806</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6276,12 +5854,12 @@
         <v>-18003168.79343553</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>1.806</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6318,9 +5896,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>1.806</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6354,12 +5930,12 @@
         <v>-18392354.99953553</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>1.806</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,12 +5969,12 @@
         <v>-18392915.99953553</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>1.806</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6432,12 +6008,12 @@
         <v>-18392915.99953553</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>1.806</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6471,12 +6047,12 @@
         <v>-18392635.99953553</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>1.806</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6513,9 +6089,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1.806</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6552,9 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1.806</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6591,9 +6163,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1.806</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,9 +6200,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1.806</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6669,9 +6237,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1.806</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,9 +6274,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1.806</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6744,14 +6308,10 @@
         <v>-19468401.85203553</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6785,14 +6345,10 @@
         <v>-19468101.85203553</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1.761</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,14 +6382,10 @@
         <v>-19488101.85203553</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6845,6 +6397,6 @@
       <c r="M179" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest MXC.xlsx
+++ b/BackTest/2020-01-23 BackTest MXC.xlsx
@@ -1606,7 +1606,7 @@
         <v>-8121043.873645592</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3652,11 +3652,17 @@
         <v>-13794507.37273554</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.806</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3695,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3732,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3769,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3806,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3843,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3876,15 @@
         <v>-12618869.03493554</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3913,15 @@
         <v>-11777564.46073554</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3950,15 @@
         <v>-10666901.97673554</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3987,15 @@
         <v>-10666639.97673554</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4028,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,14 +4061,16 @@
         <v>-10527889.18763554</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -4048,7 +4096,7 @@
         <v>-10530990.38763554</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4129,7 @@
         <v>-10530700.38763554</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4162,7 @@
         <v>-10655690.96763554</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4195,7 @@
         <v>-11221070.11403554</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4228,7 @@
         <v>-11225274.51403554</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4411,7 +4459,7 @@
         <v>-11607815.25713554</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4492,7 @@
         <v>-11607815.25713554</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4525,7 @@
         <v>-11927600.29033554</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4576,7 +4624,7 @@
         <v>-11907310.31173554</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4657,7 @@
         <v>-11914632.77923553</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4723,7 @@
         <v>-12214058.61493553</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4756,7 @@
         <v>-11933892.04633553</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4789,7 @@
         <v>-11949431.58613553</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +4855,7 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4888,7 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4921,7 @@
         <v>-12244377.62193553</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5005,7 +5053,7 @@
         <v>-12255768.14443553</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5698,588 +5746,528 @@
         <v>-17594300.57983553</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1.787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F162" t="n">
+        <v>759714.3837</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-18354014.96353553</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F163" t="n">
+        <v>438187.6978</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-17915827.26573553</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="F164" t="n">
+        <v>241889.7904</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-18157717.05613553</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="F165" t="n">
+        <v>154548.2627</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-18003168.79343553</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F166" t="n">
+        <v>280</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-18002888.79343553</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="F167" t="n">
+        <v>389466.2061</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-18392354.99953553</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F168" t="n">
+        <v>561</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-18392915.99953553</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F169" t="n">
+        <v>493266.8141</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-18392915.99953553</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F170" t="n">
+        <v>280</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-18392635.99953553</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F171" t="n">
+        <v>278</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-18392357.99953553</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1738.33</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-18392357.99953553</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.813</v>
+      </c>
+      <c r="F173" t="n">
+        <v>278</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-18392079.99953553</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F174" t="n">
+        <v>371709.1932</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-18763789.19273553</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F175" t="n">
+        <v>275</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-18763514.19273553</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F176" t="n">
+        <v>158801.0695</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-18922315.26223553</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F162" t="n">
-        <v>759714.3837</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-18354014.96353553</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1.786</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F163" t="n">
-        <v>438187.6978</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-17915827.26573553</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="F164" t="n">
-        <v>241889.7904</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-18157717.05613553</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="F165" t="n">
-        <v>154548.2627</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-18003168.79343553</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F166" t="n">
-        <v>280</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-18002888.79343553</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.777</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="F167" t="n">
-        <v>389466.2061</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-18392354.99953553</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="F168" t="n">
-        <v>561</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-18392915.99953553</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1.764</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="F169" t="n">
-        <v>493266.8141</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-18392915.99953553</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F170" t="n">
-        <v>280</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-18392635.99953553</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F171" t="n">
-        <v>278</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-18392357.99953553</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1738.33</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-18392357.99953553</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.813</v>
-      </c>
-      <c r="F173" t="n">
-        <v>278</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-18392079.99953553</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F174" t="n">
-        <v>371709.1932</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-18763789.19273553</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="F175" t="n">
-        <v>275</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-18763514.19273553</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F176" t="n">
-        <v>158801.0695</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-18922315.26223553</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6308,9 +6296,11 @@
         <v>-19468401.85203553</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.78</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6345,9 +6335,11 @@
         <v>-19468101.85203553</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.761</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6382,9 +6374,11 @@
         <v>-19488101.85203553</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.778</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>

--- a/BackTest/2020-01-23 BackTest MXC.xlsx
+++ b/BackTest/2020-01-23 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3341.8232</v>
       </c>
       <c r="G2" t="n">
-        <v>-3597525.813000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>60000</v>
       </c>
       <c r="G3" t="n">
-        <v>-3657525.813000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>30350.9899</v>
       </c>
       <c r="G4" t="n">
-        <v>-3627174.823100001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>554356.6057</v>
       </c>
       <c r="G5" t="n">
-        <v>-3627174.823100001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>180311.5241</v>
       </c>
       <c r="G6" t="n">
-        <v>-3446863.299000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>236411.4603</v>
       </c>
       <c r="G7" t="n">
-        <v>-3683274.759300001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>4000000</v>
       </c>
       <c r="G8" t="n">
-        <v>-7683274.759300001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>301</v>
       </c>
       <c r="G9" t="n">
-        <v>-7682973.759300001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>458588.4</v>
       </c>
       <c r="G10" t="n">
-        <v>-8141562.159300001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>120000</v>
       </c>
       <c r="G11" t="n">
-        <v>-8141562.159300001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>89021.465</v>
       </c>
       <c r="G12" t="n">
-        <v>-8052540.694300001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>280</v>
       </c>
       <c r="G13" t="n">
-        <v>-8052260.694300001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>40000</v>
       </c>
       <c r="G14" t="n">
-        <v>-8092260.694300001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>153154.1</v>
       </c>
       <c r="G15" t="n">
-        <v>-8092260.694300001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>290</v>
       </c>
       <c r="G16" t="n">
-        <v>-8091970.694300001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>183936.314</v>
       </c>
       <c r="G17" t="n">
-        <v>-8275907.008300002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>280</v>
       </c>
       <c r="G18" t="n">
-        <v>-8275627.008300002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2272.0114</v>
       </c>
       <c r="G19" t="n">
-        <v>-8275627.008300002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>291.2553</v>
       </c>
       <c r="G20" t="n">
-        <v>-8275627.008300002</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>58061.8188</v>
       </c>
       <c r="G21" t="n">
-        <v>-8333688.827100001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>271</v>
       </c>
       <c r="G22" t="n">
-        <v>-8333417.827100001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>75143.9457</v>
       </c>
       <c r="G23" t="n">
-        <v>-8408561.7728</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>299</v>
       </c>
       <c r="G24" t="n">
-        <v>-8408262.7728</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2819.0614</v>
       </c>
       <c r="G25" t="n">
-        <v>-8411081.8342</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>272404.4908544078</v>
       </c>
       <c r="G26" t="n">
-        <v>-8138677.343345593</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>300</v>
       </c>
       <c r="G27" t="n">
-        <v>-8138677.343345593</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>-8158677.343345593</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>26326.3199</v>
       </c>
       <c r="G29" t="n">
-        <v>-8132351.023445593</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>60000</v>
       </c>
       <c r="G30" t="n">
-        <v>-8072351.023445593</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>110087.7031</v>
       </c>
       <c r="G31" t="n">
-        <v>-8182438.726545593</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>5465.54</v>
       </c>
       <c r="G32" t="n">
-        <v>-8182438.726545593</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>300</v>
       </c>
       <c r="G33" t="n">
-        <v>-8182138.726545593</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>8584.3521</v>
       </c>
       <c r="G34" t="n">
-        <v>-8182138.726545593</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>10000</v>
       </c>
       <c r="G35" t="n">
-        <v>-8172138.726545593</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>42897.7435</v>
       </c>
       <c r="G36" t="n">
-        <v>-8129240.983045593</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>8197.109399999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-8121043.873645592</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>189497.8702</v>
       </c>
       <c r="G38" t="n">
-        <v>-8310541.743845592</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>13449.1065</v>
       </c>
       <c r="G39" t="n">
-        <v>-8310541.743845592</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>43400.2545</v>
       </c>
       <c r="G40" t="n">
-        <v>-8310541.743845592</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>223844.3592</v>
       </c>
       <c r="G41" t="n">
-        <v>-8310541.743845592</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2514512.1719</v>
       </c>
       <c r="G42" t="n">
-        <v>-10825053.91574559</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>300</v>
       </c>
       <c r="G43" t="n">
-        <v>-10824753.91574559</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>61040.6742</v>
       </c>
       <c r="G44" t="n">
-        <v>-10824753.91574559</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>6133.3812</v>
       </c>
       <c r="G45" t="n">
-        <v>-10818620.53454559</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>153264.8384</v>
       </c>
       <c r="G46" t="n">
-        <v>-10971885.37294559</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>-10972885.37294559</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>12629.2973</v>
       </c>
       <c r="G48" t="n">
-        <v>-10960256.07564559</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>36318.2721</v>
       </c>
       <c r="G49" t="n">
-        <v>-10960256.07564559</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>218609.0888100546</v>
       </c>
       <c r="G50" t="n">
-        <v>-10741646.98683554</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>122629.9878</v>
       </c>
       <c r="G51" t="n">
-        <v>-10741646.98683554</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>140366.6075</v>
       </c>
       <c r="G52" t="n">
-        <v>-10882013.59433554</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>92855.9679</v>
       </c>
       <c r="G53" t="n">
-        <v>-10882013.59433554</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>272404.4908</v>
       </c>
       <c r="G54" t="n">
-        <v>-11154418.08513554</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>11952.8013</v>
       </c>
       <c r="G55" t="n">
-        <v>-11142465.28383554</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>30253.3715</v>
       </c>
       <c r="G56" t="n">
-        <v>-11172718.65533554</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>92855.9679</v>
       </c>
       <c r="G57" t="n">
-        <v>-11265574.62323554</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>31039.5731</v>
       </c>
       <c r="G58" t="n">
-        <v>-11234535.05013554</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>-11235535.05013554</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>320000</v>
       </c>
       <c r="G60" t="n">
-        <v>-11555535.05013554</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>610915.6381</v>
       </c>
       <c r="G61" t="n">
-        <v>-12166450.68823554</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>62941.529</v>
       </c>
       <c r="G62" t="n">
-        <v>-12103509.15923554</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1200384.6871</v>
       </c>
       <c r="G63" t="n">
-        <v>-10903124.47213554</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>17337.7656</v>
       </c>
       <c r="G64" t="n">
-        <v>-10903124.47213554</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>276</v>
       </c>
       <c r="G65" t="n">
-        <v>-10902848.47213554</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>167000</v>
       </c>
       <c r="G66" t="n">
-        <v>-11069848.47213554</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>290</v>
       </c>
       <c r="G67" t="n">
-        <v>-11069558.47213554</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>246.468</v>
       </c>
       <c r="G68" t="n">
-        <v>-11069804.94013554</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>795.532</v>
       </c>
       <c r="G69" t="n">
-        <v>-11070600.47213554</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>300</v>
       </c>
       <c r="G70" t="n">
-        <v>-11070300.47213554</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>80000</v>
       </c>
       <c r="G71" t="n">
-        <v>-11150300.47213554</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1776541.4504</v>
       </c>
       <c r="G72" t="n">
-        <v>-11150300.47213554</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>31473.6082</v>
       </c>
       <c r="G73" t="n">
-        <v>-11150300.47213554</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,19 @@
         <v>31473.6082</v>
       </c>
       <c r="G74" t="n">
-        <v>-11181774.08033554</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.8</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2637,21 @@
         <v>280</v>
       </c>
       <c r="G75" t="n">
-        <v>-11181494.08033554</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2673,21 @@
         <v>2717087.8368</v>
       </c>
       <c r="G76" t="n">
-        <v>-13898581.91713554</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2709,21 @@
         <v>280</v>
       </c>
       <c r="G77" t="n">
-        <v>-13898301.91713554</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2745,21 @@
         <v>4199.2405</v>
       </c>
       <c r="G78" t="n">
-        <v>-13894102.67663554</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2781,21 @@
         <v>932.79</v>
       </c>
       <c r="G79" t="n">
-        <v>-13894102.67663554</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2817,21 @@
         <v>300</v>
       </c>
       <c r="G80" t="n">
-        <v>-13893802.67663554</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2853,21 @@
         <v>320654.4544</v>
       </c>
       <c r="G81" t="n">
-        <v>-13893802.67663554</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2889,21 @@
         <v>67253.58930000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-13961056.26593554</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2925,21 @@
         <v>36765.1117</v>
       </c>
       <c r="G83" t="n">
-        <v>-13961056.26593554</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2961,21 @@
         <v>635.0964</v>
       </c>
       <c r="G84" t="n">
-        <v>-13961691.36233554</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2997,23 @@
         <v>274</v>
       </c>
       <c r="G85" t="n">
-        <v>-13961417.36233554</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>1.791</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3035,23 @@
         <v>11524.2455</v>
       </c>
       <c r="G86" t="n">
-        <v>-13972941.60783554</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>1.81</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3073,23 @@
         <v>290</v>
       </c>
       <c r="G87" t="n">
-        <v>-13972651.60783554</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>1.791</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3111,23 @@
         <v>29657.1444</v>
       </c>
       <c r="G88" t="n">
-        <v>-13972651.60783554</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>1.809</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3149,23 @@
         <v>115554.7649</v>
       </c>
       <c r="G89" t="n">
-        <v>-14088206.37273554</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>1.809</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3187,21 @@
         <v>216998</v>
       </c>
       <c r="G90" t="n">
-        <v>-13871208.37273554</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3223,21 @@
         <v>116701</v>
       </c>
       <c r="G91" t="n">
-        <v>-13754507.37273554</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3259,21 @@
         <v>120000</v>
       </c>
       <c r="G92" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3295,21 @@
         <v>29667</v>
       </c>
       <c r="G93" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3331,21 @@
         <v>828.4707</v>
       </c>
       <c r="G94" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3367,21 @@
         <v>656.7006</v>
       </c>
       <c r="G95" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3403,21 @@
         <v>19208.0338</v>
       </c>
       <c r="G96" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3439,21 @@
         <v>1626</v>
       </c>
       <c r="G97" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3475,21 @@
         <v>143455.7792</v>
       </c>
       <c r="G98" t="n">
-        <v>-13874507.37273554</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,24 +3511,23 @@
         <v>80000</v>
       </c>
       <c r="G99" t="n">
-        <v>-13794507.37273554</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>1.806</v>
       </c>
       <c r="I99" t="n">
-        <v>1.806</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
+        <v>1.8</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3688,22 +3549,21 @@
         <v>205161.0894</v>
       </c>
       <c r="G100" t="n">
-        <v>-13589346.28333554</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3725,22 +3585,21 @@
         <v>290</v>
       </c>
       <c r="G101" t="n">
-        <v>-13589056.28333554</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3762,22 +3621,21 @@
         <v>180808.5</v>
       </c>
       <c r="G102" t="n">
-        <v>-13408247.78333554</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3799,22 +3657,21 @@
         <v>76510</v>
       </c>
       <c r="G103" t="n">
-        <v>-13408247.78333554</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3836,22 +3693,21 @@
         <v>621874.5609</v>
       </c>
       <c r="G104" t="n">
-        <v>-12786373.22243554</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3873,22 +3729,21 @@
         <v>167504.1875</v>
       </c>
       <c r="G105" t="n">
-        <v>-12618869.03493554</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3910,22 +3765,21 @@
         <v>841304.5742</v>
       </c>
       <c r="G106" t="n">
-        <v>-11777564.46073554</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3947,22 +3801,21 @@
         <v>1110662.484</v>
       </c>
       <c r="G107" t="n">
-        <v>-10666901.97673554</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3984,22 +3837,21 @@
         <v>262</v>
       </c>
       <c r="G108" t="n">
-        <v>-10666639.97673554</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4021,22 +3873,21 @@
         <v>138750.7891</v>
       </c>
       <c r="G109" t="n">
-        <v>-10527889.18763554</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4058,53 +3909,57 @@
         <v>247895.587</v>
       </c>
       <c r="G110" t="n">
-        <v>-10527889.18763554</v>
-      </c>
-      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3101.2</v>
+      </c>
+      <c r="G111" t="n">
         <v>2</v>
       </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3101.2</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-10530990.38763554</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1.033888888888889</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4126,18 +3981,15 @@
         <v>290</v>
       </c>
       <c r="G112" t="n">
-        <v>-10530700.38763554</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4159,18 +4011,15 @@
         <v>124990.58</v>
       </c>
       <c r="G113" t="n">
-        <v>-10655690.96763554</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4192,18 +4041,15 @@
         <v>565379.1464</v>
       </c>
       <c r="G114" t="n">
-        <v>-11221070.11403554</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4225,18 +4071,15 @@
         <v>4204.4</v>
       </c>
       <c r="G115" t="n">
-        <v>-11225274.51403554</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4258,18 +4101,15 @@
         <v>12471.6541</v>
       </c>
       <c r="G116" t="n">
-        <v>-11212802.85993554</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4291,18 +4131,15 @@
         <v>270</v>
       </c>
       <c r="G117" t="n">
-        <v>-11213072.85993554</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4324,18 +4161,15 @@
         <v>384873.3691</v>
       </c>
       <c r="G118" t="n">
-        <v>-11597946.22903554</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4357,18 +4191,15 @@
         <v>283</v>
       </c>
       <c r="G119" t="n">
-        <v>-11597663.22903554</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4390,18 +4221,15 @@
         <v>582.7891</v>
       </c>
       <c r="G120" t="n">
-        <v>-11598246.01813554</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4423,18 +4251,15 @@
         <v>263</v>
       </c>
       <c r="G121" t="n">
-        <v>-11597983.01813554</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4456,18 +4281,15 @@
         <v>9832.239</v>
       </c>
       <c r="G122" t="n">
-        <v>-11607815.25713554</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4489,18 +4311,15 @@
         <v>53541.9275</v>
       </c>
       <c r="G123" t="n">
-        <v>-11607815.25713554</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4522,18 +4341,15 @@
         <v>319785.0332</v>
       </c>
       <c r="G124" t="n">
-        <v>-11927600.29033554</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4555,18 +4371,15 @@
         <v>310</v>
       </c>
       <c r="G125" t="n">
-        <v>-11927290.29033554</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4588,18 +4401,15 @@
         <v>11048.1339</v>
       </c>
       <c r="G126" t="n">
-        <v>-11938338.42423554</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4621,18 +4431,15 @@
         <v>31028.1125</v>
       </c>
       <c r="G127" t="n">
-        <v>-11907310.31173554</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4654,18 +4461,15 @@
         <v>7322.4675</v>
       </c>
       <c r="G128" t="n">
-        <v>-11914632.77923553</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4687,18 +4491,15 @@
         <v>299425.8357</v>
       </c>
       <c r="G129" t="n">
-        <v>-12214058.61493553</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4720,18 +4521,15 @@
         <v>162940.2358</v>
       </c>
       <c r="G130" t="n">
-        <v>-12214058.61493553</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4753,18 +4551,15 @@
         <v>280166.5686</v>
       </c>
       <c r="G131" t="n">
-        <v>-11933892.04633553</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4786,18 +4581,15 @@
         <v>15539.5398</v>
       </c>
       <c r="G132" t="n">
-        <v>-11949431.58613553</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4819,18 +4611,15 @@
         <v>294946.0358</v>
       </c>
       <c r="G133" t="n">
-        <v>-12244377.62193553</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4852,18 +4641,15 @@
         <v>286220.6091</v>
       </c>
       <c r="G134" t="n">
-        <v>-12244377.62193553</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4885,18 +4671,15 @@
         <v>105238.1115</v>
       </c>
       <c r="G135" t="n">
-        <v>-12244377.62193553</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4918,18 +4701,15 @@
         <v>56288.4224</v>
       </c>
       <c r="G136" t="n">
-        <v>-12244377.62193553</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4951,18 +4731,15 @@
         <v>395.7403</v>
       </c>
       <c r="G137" t="n">
-        <v>-12243981.88163553</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4984,18 +4761,15 @@
         <v>7000</v>
       </c>
       <c r="G138" t="n">
-        <v>-12250981.88163553</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5017,18 +4791,15 @@
         <v>290</v>
       </c>
       <c r="G139" t="n">
-        <v>-12250691.88163553</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5050,18 +4821,15 @@
         <v>5076.2628</v>
       </c>
       <c r="G140" t="n">
-        <v>-12255768.14443553</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5083,18 +4851,15 @@
         <v>25818.7494</v>
       </c>
       <c r="G141" t="n">
-        <v>-12255768.14443553</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5116,18 +4881,15 @@
         <v>90000</v>
       </c>
       <c r="G142" t="n">
-        <v>-12345768.14443553</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5149,18 +4911,15 @@
         <v>271</v>
       </c>
       <c r="G143" t="n">
-        <v>-12345497.14443553</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5182,18 +4941,15 @@
         <v>140000</v>
       </c>
       <c r="G144" t="n">
-        <v>-12485497.14443553</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5215,18 +4971,15 @@
         <v>290</v>
       </c>
       <c r="G145" t="n">
-        <v>-12485207.14443553</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5248,18 +5001,15 @@
         <v>199841.0431</v>
       </c>
       <c r="G146" t="n">
-        <v>-12485207.14443553</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5281,18 +5031,15 @@
         <v>193450.3195</v>
       </c>
       <c r="G147" t="n">
-        <v>-12678657.46393553</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5314,18 +5061,15 @@
         <v>260872.5008</v>
       </c>
       <c r="G148" t="n">
-        <v>-12939529.96473553</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5347,18 +5091,15 @@
         <v>273</v>
       </c>
       <c r="G149" t="n">
-        <v>-12939256.96473553</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5380,18 +5121,15 @@
         <v>234785.2507</v>
       </c>
       <c r="G150" t="n">
-        <v>-13174042.21543553</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5413,18 +5151,15 @@
         <v>272</v>
       </c>
       <c r="G151" t="n">
-        <v>-13173770.21543553</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5446,18 +5181,15 @@
         <v>2508548.6454</v>
       </c>
       <c r="G152" t="n">
-        <v>-15682318.86083553</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5479,18 +5211,15 @@
         <v>362979.31</v>
       </c>
       <c r="G153" t="n">
-        <v>-15682318.86083553</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5512,18 +5241,15 @@
         <v>386262.5878</v>
       </c>
       <c r="G154" t="n">
-        <v>-16068581.44863553</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5545,18 +5271,15 @@
         <v>1482970.5392</v>
       </c>
       <c r="G155" t="n">
-        <v>-17551551.98783553</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5578,18 +5301,15 @@
         <v>221139.7695</v>
       </c>
       <c r="G156" t="n">
-        <v>-17330412.21833554</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5611,18 +5331,15 @@
         <v>36955.6939</v>
       </c>
       <c r="G157" t="n">
-        <v>-17367367.91223554</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5644,18 +5361,15 @@
         <v>3574.1754</v>
       </c>
       <c r="G158" t="n">
-        <v>-17363793.73683554</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5677,18 +5391,15 @@
         <v>93779.6698</v>
       </c>
       <c r="G159" t="n">
-        <v>-17457573.40663553</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5710,18 +5421,15 @@
         <v>5595.8471</v>
       </c>
       <c r="G160" t="n">
-        <v>-17457573.40663553</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5743,18 +5451,15 @@
         <v>136727.1732</v>
       </c>
       <c r="G161" t="n">
-        <v>-17594300.57983553</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5776,18 +5481,15 @@
         <v>759714.3837</v>
       </c>
       <c r="G162" t="n">
-        <v>-18354014.96353553</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5809,18 +5511,15 @@
         <v>438187.6978</v>
       </c>
       <c r="G163" t="n">
-        <v>-17915827.26573553</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5842,18 +5541,15 @@
         <v>241889.7904</v>
       </c>
       <c r="G164" t="n">
-        <v>-18157717.05613553</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5875,18 +5571,15 @@
         <v>154548.2627</v>
       </c>
       <c r="G165" t="n">
-        <v>-18003168.79343553</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5908,18 +5601,15 @@
         <v>280</v>
       </c>
       <c r="G166" t="n">
-        <v>-18002888.79343553</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5941,18 +5631,15 @@
         <v>389466.2061</v>
       </c>
       <c r="G167" t="n">
-        <v>-18392354.99953553</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5974,18 +5661,15 @@
         <v>561</v>
       </c>
       <c r="G168" t="n">
-        <v>-18392915.99953553</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6007,18 +5691,15 @@
         <v>493266.8141</v>
       </c>
       <c r="G169" t="n">
-        <v>-18392915.99953553</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6040,22 +5721,15 @@
         <v>280</v>
       </c>
       <c r="G170" t="n">
-        <v>-18392635.99953553</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6077,24 +5751,15 @@
         <v>278</v>
       </c>
       <c r="G171" t="n">
-        <v>-18392357.99953553</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6116,24 +5781,15 @@
         <v>1738.33</v>
       </c>
       <c r="G172" t="n">
-        <v>-18392357.99953553</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6155,18 +5811,15 @@
         <v>278</v>
       </c>
       <c r="G173" t="n">
-        <v>-18392079.99953553</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6188,18 +5841,15 @@
         <v>371709.1932</v>
       </c>
       <c r="G174" t="n">
-        <v>-18763789.19273553</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6221,18 +5871,15 @@
         <v>275</v>
       </c>
       <c r="G175" t="n">
-        <v>-18763514.19273553</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6254,24 +5901,15 @@
         <v>158801.0695</v>
       </c>
       <c r="G176" t="n">
-        <v>-18922315.26223553</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1.809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6293,24 +5931,15 @@
         <v>546086.5898</v>
       </c>
       <c r="G177" t="n">
-        <v>-19468401.85203553</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6332,24 +5961,15 @@
         <v>300</v>
       </c>
       <c r="G178" t="n">
-        <v>-19468101.85203553</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1.761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6371,24 +5991,15 @@
         <v>20000</v>
       </c>
       <c r="G179" t="n">
-        <v>-19488101.85203553</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.778</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
